--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00005E-90D0-3041-A9C8-CB2AEB5BEC5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914C644-076C-A84B-AACA-14DB2A866D49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="5340" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="39060" yWindow="4300" windowWidth="28040" windowHeight="18460" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -943,10 +943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,8 +955,9 @@
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1201,100 +1202,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A36" xr:uid="{E85D1F97-B28A-C144-A568-BBC08BCA11AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{E85D1F97-B28A-C144-A568-BBC08BCA11AF}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{0F8575CD-602F-5D47-B2E0-1D967E96882A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{0F8575CD-602F-5D47-B2E0-1D967E96882A}">
       <formula1>"10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1318,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914C644-076C-A84B-AACA-14DB2A866D49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF98B3C8-0960-6A4F-AAFF-F0932AC2E8CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="4300" windowWidth="28040" windowHeight="18460" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>アンケート</t>
-  </si>
-  <si>
-    <t>選択</t>
   </si>
   <si>
     <t>sola city Hall EAST</t>
@@ -361,12 +358,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,19 +986,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1008,207 +1006,37 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{E85D1F97-B28A-C144-A568-BBC08BCA11AF}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A25" xr:uid="{E85D1F97-B28A-C144-A568-BBC08BCA11AF}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{0F8575CD-602F-5D47-B2E0-1D967E96882A}">
       <formula1>"10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{117C431B-9B95-C54D-AEE1-520F1C51F11E}">
+      <formula1>" , sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1244,16 +1072,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,13 +1089,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1275,13 +1103,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF98B3C8-0960-6A4F-AAFF-F0932AC2E8CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E842385-881C-134A-93C5-7E203C760200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>概要</t>
-  </si>
-  <si>
-    <t>メタ</t>
-  </si>
-  <si>
-    <t>登壇者</t>
   </si>
   <si>
     <t>ハッシュタグ</t>
@@ -316,6 +310,33 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>資料（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>登壇者（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>メタ（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>https://speakerdeck.com/danielanewman/im-feeling-lucky-building-great-search-experiences-for-todays-users-number-iac19</t>
+  </si>
+  <si>
+    <t>https://speakerdeck.com/revolveconf/creatively-recalculating-your-daily-design-routine</t>
+  </si>
+  <si>
+    <t>登壇者二人</t>
+  </si>
+  <si>
+    <t>２人でしゃべります</t>
+  </si>
+  <si>
+    <t>Room B</t>
+  </si>
+  <si>
+    <t>13:15 - 14:00</t>
   </si>
 </sst>
 </file>
@@ -941,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,12 +974,13 @@
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="47.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -972,60 +994,86 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1040,18 +1088,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F61DE005-C645-574F-B262-01EB68D0ED47}">
-          <x14:formula1>
-            <xm:f>speakers!$A$2:$A$35</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1072,16 +1108,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1103,13 +1139,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E842385-881C-134A-93C5-7E203C760200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A33B31-5B61-C24A-B642-DD44B2D73B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>LINE</t>
   </si>
   <si>
-    <t>Yahhoo! JAPAN</t>
-  </si>
-  <si>
     <t>TiO Corporation</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>rakuten</t>
   </si>
   <si>
-    <t>recruite-tech</t>
-  </si>
-  <si>
     <t>casareal</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
   </si>
   <si>
     <t>line</t>
-  </si>
-  <si>
-    <t>yahoo</t>
   </si>
   <si>
     <t>tio</t>
@@ -337,6 +328,15 @@
   </si>
   <si>
     <t>13:15 - 14:00</t>
+  </si>
+  <si>
+    <t>r-tech</t>
+  </si>
+  <si>
+    <t>Yahoo! JAPAN</t>
+  </si>
+  <si>
+    <t>yahoojapan</t>
   </si>
 </sst>
 </file>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,13 +715,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,142 +817,142 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -982,97 +982,97 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1108,16 +1108,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1139,13 +1139,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A33B31-5B61-C24A-B642-DD44B2D73B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176C1F6-EDFD-EF46-9CD1-DA696EFA7513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
     <sheet name="sessions" sheetId="2" r:id="rId2"/>
-    <sheet name="speakers" sheetId="3" r:id="rId3"/>
+    <sheet name="timetable" sheetId="5" r:id="rId3"/>
+    <sheet name="booth" sheetId="4" r:id="rId4"/>
+    <sheet name="speakers" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -221,12 +223,6 @@
     <t>https://www.mamezou.com/</t>
   </si>
   <si>
-    <t>場所</t>
-  </si>
-  <si>
-    <t>時間</t>
-  </si>
-  <si>
     <t>タイトル</t>
   </si>
   <si>
@@ -248,13 +244,7 @@
     <t>10:00 - 10:45</t>
   </si>
   <si>
-    <t>基調講演</t>
-  </si>
-  <si>
     <t>11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>登壇者一人</t>
   </si>
   <si>
     <t>一人でしゃべる</t>
@@ -318,9 +308,6 @@
     <t>https://speakerdeck.com/revolveconf/creatively-recalculating-your-daily-design-routine</t>
   </si>
   <si>
-    <t>登壇者二人</t>
-  </si>
-  <si>
     <t>２人でしゃべります</t>
   </si>
   <si>
@@ -337,13 +324,170 @@
   </si>
   <si>
     <t>yahoojapan</t>
+  </si>
+  <si>
+    <t>Room C</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>sponsor-slug</t>
+  </si>
+  <si>
+    <t>IT研修に特化して、Python,Java,C#,Spring4を中心としたIT教育、未経験IT技術者を育成するために、IT研修・オープン講座・講師派遣などを行っています。</t>
+  </si>
+  <si>
+    <t>株式会社ティ・アイ・オー＜TIO＞は、刻々と進化しているIT技術を駆使し、各産業分野における基幹業務、金融および製造流通分野における業務アプリケーションに構築からソフトウェア・画面デザイン・メンテナンスにいたる工程をトータル的にサポートしていく企業です。</t>
+  </si>
+  <si>
+    <t>ルート42株式会社は、 業務システムに特化した超高速開発ツール「MOD99」による受託開発を行い、独立系開発ベンダーとして平成21年設立よりおよそ10年間活動してきました。 昨年、これまで蓄積してきた帳票開発のノウハウをオリジナル製品「Docurain」として製品化し、販売推進に注力しています。</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>For Your Happiness, Pleasure and Satisfaction</t>
+  </si>
+  <si>
+    <t>ティ・アイ・オーはIT技術を駆使し、常に「ユーザー目線」で提案をしている会社です。各産業分野における基幹業務、製造流通および金融分野における業務アプリケーションの『コンサルティング』から『画面デザイン』『システム設計』『システム構築』『運用・保守のサポート』まで、トータルサポート致します。Springを導入した物流システムの開発や、現場で使えるシステム運用・保守の『見える化』など各実績をご紹介致しますので、ご興味をお持ちの方、システムに関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>14:15 - 15:00</t>
+  </si>
+  <si>
+    <t>15:30 - 16:15</t>
+  </si>
+  <si>
+    <t>16:30 - 17:15</t>
+  </si>
+  <si>
+    <t>17:30 - 18:15</t>
+  </si>
+  <si>
+    <t>9:45 - 10:00</t>
+  </si>
+  <si>
+    <t>タイムテーブル</t>
+  </si>
+  <si>
+    <t>ランチ</t>
+  </si>
+  <si>
+    <t>KEYNOTE</t>
+  </si>
+  <si>
+    <t>sf_opening</t>
+  </si>
+  <si>
+    <t>エンタープライズ・マイク ロ サービスの格⾔</t>
+  </si>
+  <si>
+    <t>決済システムの内製化への旅 ‒ Spring と PCF で作るクラウドネイティブなシステム開発</t>
+  </si>
+  <si>
+    <t>SpringDataforApache Geode で RDB いらずのアプリ開発をしよう！</t>
+  </si>
+  <si>
+    <t>これから Spring を使う開発者が知っておくべきこと</t>
+  </si>
+  <si>
+    <t>Rakuten Travel and Spring</t>
+  </si>
+  <si>
+    <t>Spring♥ GCP - Springと GCPの素敵な関係</t>
+  </si>
+  <si>
+    <t>実際のプロジェクトでSpring アプリを Kotlin で開発して得た気づき集</t>
+  </si>
+  <si>
+    <t>Thymeleafさいしょの⼀歩</t>
+  </si>
+  <si>
+    <t>Knative:Serving yourServerless Java Service on Kubernetes the 12-Factor way</t>
+  </si>
+  <si>
+    <t>Observability with Spring-Based Distributed Systems</t>
+  </si>
+  <si>
+    <t>AmazonCognito使って認証したい？それならSpring Security 使いましょう！</t>
+  </si>
+  <si>
+    <t>SpringBootで作る RESTfulWebService</t>
+  </si>
+  <si>
+    <t>Pivotal 認定講師が解説！基 礎 からのOAuth 2.0とSpring Security5.1 による実装</t>
+  </si>
+  <si>
+    <t>500+ のサーバーで動く LINE AdsPlatformをささえるSpring</t>
+  </si>
+  <si>
+    <t>SpringTools4の機能とその実装</t>
+  </si>
+  <si>
+    <t>Spring 5でSpring Testのここが変わる</t>
+  </si>
+  <si>
+    <t>SpringBoot with Kotlin, functional configuration and GraalVM</t>
+  </si>
+  <si>
+    <t>⼤規模⾦融系 SaaS を⽀えるSpring 〜活⽤の変遷と新時代のアーキテクチャ〜</t>
+  </si>
+  <si>
+    <t>Spring Boot で Hello World のその先へ〜ウェブDBプレスのSpringBoot 特集で・・・</t>
+  </si>
+  <si>
+    <t>Spring Data RESTと Spring Cloud Contract</t>
+  </si>
+  <si>
+    <t>業務で使いたい WebFlux によるReactive プログラミ ング</t>
+  </si>
+  <si>
+    <t>Micrometer/Prometheusによる⼤規模システムモニタ
+リング〜ヤフーインターネット広告システムで・・・</t>
+  </si>
+  <si>
+    <t>Angular を⽤いたデザインスプリント開発と設計⼿法</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/OgawaTakeshi/spring-datarestandspringcloudcontract?ref=http://springfest2018.springframework.jp/</t>
+  </si>
+  <si>
+    <t>株式会社 タグバンガーズ</t>
+  </si>
+  <si>
+    <t>意訳間違えてたらツッコミが欲しい春</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>11:45 - 13:15</t>
+  </si>
+  <si>
+    <t>ご挨拶</t>
+  </si>
+  <si>
+    <t>ランチセッション  JasmineSoft (12:00 - 12:45)</t>
+  </si>
+  <si>
+    <t>ランチセッション  Root42 (12:00 - 12:45)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +501,21 @@
       <name val="MS PGothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,18 +535,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,20 +871,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -723,8 +894,11 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -746,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -757,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -768,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -779,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -787,10 +961,10 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -801,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -812,7 +986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -823,18 +997,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -844,8 +1018,11 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -855,8 +1032,11 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -867,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -878,7 +1058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="20">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -888,8 +1068,11 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -900,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -911,7 +1094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -922,7 +1105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -933,7 +1116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -944,7 +1127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -962,190 +1145,868 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="105.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{D41B3F61-566F-4246-A70D-CA31CEB9FF92}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A25" xr:uid="{E85D1F97-B28A-C144-A568-BBC08BCA11AF}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2 C2:C31" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{0F8575CD-602F-5D47-B2E0-1D967E96882A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B7" xr:uid="{855B6096-5761-EF40-8652-525805C82D63}">
       <formula1>"10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{117C431B-9B95-C54D-AEE1-520F1C51F11E}">
-      <formula1>" , sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{02016179-BC75-2E41-9A87-EB1A313EF3B8}">
+      <formula1>"9:45 - 10:00, 10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B31" xr:uid="{A777C917-7FB5-4448-9779-80D36CF76872}">
+      <formula1>"10:00 - 10:45, 11:00 - 11:45, 11:45 - 13:15, 12:00 - 12:45, 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="75.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
+          <x14:formula1>
+            <xm:f>sponsors!$C$2:$C$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A40 B40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176C1F6-EDFD-EF46-9CD1-DA696EFA7513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499CB20-DB03-9D41-BD90-F3301837BACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="2540" windowWidth="28040" windowHeight="18460" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="660" yWindow="2540" windowWidth="17820" windowHeight="18460" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>https://www.jasminesoft.co.jp/</t>
   </si>
   <si>
-    <t>https://tagbangers.co.jp</t>
-  </si>
-  <si>
     <t>Stylez</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>ランチセッション  Root42 (12:00 - 12:45)</t>
+  </si>
+  <si>
+    <t>https://www.tagbangers.co.jp</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -895,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -961,7 +961,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -999,13 +999,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20">
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20">
@@ -1033,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1069,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1085,13 +1085,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1099,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1132,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1165,28 +1165,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1202,22 +1202,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3">
         <v>12345</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1245,19 +1245,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1265,16 +1265,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1290,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1314,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1322,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1338,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1370,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1402,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
@@ -1410,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1418,7 +1418,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1434,13 +1434,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1448,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1456,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1506,13 +1506,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1542,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1564,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1575,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1597,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1608,10 +1608,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1619,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1630,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1641,10 +1641,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1652,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1663,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1674,10 +1674,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1685,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1696,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1707,10 +1707,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1718,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1729,10 +1729,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1740,10 +1740,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1762,10 +1762,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1773,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1784,10 +1784,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1795,10 +1795,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1806,10 +1806,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1817,10 +1817,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1828,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1839,10 +1839,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1881,13 +1881,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1900,10 +1900,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1955,16 +1955,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1972,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34">
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2000,13 +2000,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499CB20-DB03-9D41-BD90-F3301837BACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CF1DF-2EB9-864D-89E4-87F7B2860738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2540" windowWidth="17820" windowHeight="18460" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="12380" yWindow="2540" windowWidth="17820" windowHeight="18460" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="sponsors" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -181,9 +181,6 @@
     <t>https://engineering.linecorp.com/</t>
   </si>
   <si>
-    <t>https://about.yahoo.co.jp/</t>
-  </si>
-  <si>
     <t>http://www.t-i-o.co.jp/</t>
   </si>
   <si>
@@ -197,15 +194,6 @@
   </si>
   <si>
     <t>https://www.jasminesoft.co.jp/</t>
-  </si>
-  <si>
-    <t>Stylez</t>
-  </si>
-  <si>
-    <t>stylez</t>
-  </si>
-  <si>
-    <t>https://www.stylez.co.jp/</t>
   </si>
   <si>
     <t>https://www.bizreach.co.jp/</t>
@@ -315,12 +303,6 @@
   </si>
   <si>
     <t>r-tech</t>
-  </si>
-  <si>
-    <t>Yahoo! JAPAN</t>
-  </si>
-  <si>
-    <t>yahoojapan</t>
   </si>
   <si>
     <t>Room C</t>
@@ -871,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -895,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -961,7 +943,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -997,144 +979,122 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1165,28 +1125,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1194,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1202,22 +1162,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H3">
         <v>12345</v>
@@ -1228,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1245,19 +1205,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1265,16 +1225,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1282,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1290,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1298,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1306,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1314,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1322,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1330,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1338,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1346,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1354,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1362,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1370,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1378,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1386,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1394,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1402,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
@@ -1410,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1418,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1426,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1434,13 +1394,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1448,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1456,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1469,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1477,7 +1437,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1506,13 +1466,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1520,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1531,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1542,10 +1502,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1553,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1564,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1575,10 +1535,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1586,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1597,10 +1557,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1608,10 +1568,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1619,10 +1579,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1630,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1641,10 +1601,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1652,10 +1612,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1663,10 +1623,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1674,10 +1634,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1685,10 +1645,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1696,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1707,10 +1667,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1718,10 +1678,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1729,10 +1689,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1740,10 +1700,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1751,10 +1711,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1762,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1773,10 +1733,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1784,10 +1744,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1795,10 +1755,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1806,10 +1766,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1817,10 +1777,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1828,10 +1788,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1839,10 +1799,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1881,13 +1841,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1900,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1928,7 +1888,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
           <x14:formula1>
-            <xm:f>sponsors!$C$2:$C$22</xm:f>
+            <xm:f>sponsors!$C$2:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A40 B40</xm:sqref>
         </x14:dataValidation>
@@ -1955,16 +1915,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1972,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34">
@@ -1986,13 +1946,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2000,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daigo3/Dev/spring-fest-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CF1DF-2EB9-864D-89E4-87F7B2860738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45D184-6353-F74E-8487-524518250038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="2540" windowWidth="17820" windowHeight="18460" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
-    <sheet name="sponsors" sheetId="1" r:id="rId1"/>
+    <sheet name="companies" sheetId="1" r:id="rId1"/>
     <sheet name="sessions" sheetId="2" r:id="rId2"/>
     <sheet name="timetable" sheetId="5" r:id="rId3"/>
-    <sheet name="booth" sheetId="4" r:id="rId4"/>
-    <sheet name="speakers" sheetId="3" r:id="rId5"/>
+    <sheet name="room" sheetId="6" r:id="rId4"/>
+    <sheet name="time" sheetId="7" r:id="rId5"/>
+    <sheet name="booth" sheetId="4" r:id="rId6"/>
+    <sheet name="speakers" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -49,18 +51,6 @@
     <t>Pivotal</t>
   </si>
   <si>
-    <t>UL Systems, Inc.</t>
-  </si>
-  <si>
-    <t>Rakuten</t>
-  </si>
-  <si>
-    <t>Recruit Tech</t>
-  </si>
-  <si>
-    <t>CASAREAL</t>
-  </si>
-  <si>
     <t>Google Cloud</t>
   </si>
   <si>
@@ -70,33 +60,15 @@
     <t>TiO Corporation</t>
   </si>
   <si>
-    <t>Root 42</t>
-  </si>
-  <si>
     <t>redhat</t>
   </si>
   <si>
     <t>豆蔵</t>
   </si>
   <si>
-    <t>Fullness</t>
-  </si>
-  <si>
     <t>JasmineSoft</t>
   </si>
   <si>
-    <t>BIZREACH</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>Samuraism</t>
-  </si>
-  <si>
-    <t>Tagbangers</t>
-  </si>
-  <si>
     <t>社名</t>
   </si>
   <si>
@@ -214,262 +186,397 @@
     <t>概要</t>
   </si>
   <si>
+    <t>10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>For Beginner</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>所属</t>
+  </si>
+  <si>
+    <t>プロフィール</t>
+  </si>
+  <si>
+    <t>資料（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>登壇者（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>メタ（複数の場合はカンマ区切り）</t>
+  </si>
+  <si>
+    <t>https://speakerdeck.com/danielanewman/im-feeling-lucky-building-great-search-experiences-for-todays-users-number-iac19</t>
+  </si>
+  <si>
+    <t>https://speakerdeck.com/revolveconf/creatively-recalculating-your-daily-design-routine</t>
+  </si>
+  <si>
+    <t>Room B</t>
+  </si>
+  <si>
+    <t>r-tech</t>
+  </si>
+  <si>
+    <t>Room C</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>sponsor-slug</t>
+  </si>
+  <si>
+    <t>IT研修に特化して、Python,Java,C#,Spring4を中心としたIT教育、未経験IT技術者を育成するために、IT研修・オープン講座・講師派遣などを行っています。</t>
+  </si>
+  <si>
+    <t>株式会社ティ・アイ・オー＜TIO＞は、刻々と進化しているIT技術を駆使し、各産業分野における基幹業務、金融および製造流通分野における業務アプリケーションに構築からソフトウェア・画面デザイン・メンテナンスにいたる工程をトータル的にサポートしていく企業です。</t>
+  </si>
+  <si>
+    <t>ルート42株式会社は、 業務システムに特化した超高速開発ツール「MOD99」による受託開発を行い、独立系開発ベンダーとして平成21年設立よりおよそ10年間活動してきました。 昨年、これまで蓄積してきた帳票開発のノウハウをオリジナル製品「Docurain」として製品化し、販売推進に注力しています。</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>9:45 - 10:00</t>
+  </si>
+  <si>
+    <t>タイムテーブル</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/OgawaTakeshi/spring-datarestandspringcloudcontract?ref=http://springfest2018.springframework.jp/</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>ご挨拶</t>
+  </si>
+  <si>
+    <t>https://www.tagbangers.co.jp</t>
+  </si>
+  <si>
+    <t>Root42</t>
+  </si>
+  <si>
+    <t>JavaやPythonのIT講師をしています。相手に興味を引かせるように講義する至難の業を追求し、日々精進中です。</t>
+  </si>
+  <si>
+    <t>樹下 雅章</t>
+  </si>
+  <si>
+    <t>テスト関係, For Beginner</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>techmatrix</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ja-jp</t>
+  </si>
+  <si>
+    <t>https://www.techmatrix.co.jp</t>
+  </si>
+  <si>
+    <t>ashiras</t>
+  </si>
+  <si>
+    <t>http://ashiras.xyz/</t>
+  </si>
+  <si>
+    <t>nissan</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>Stéphane</t>
+  </si>
+  <si>
+    <t>槙</t>
+  </si>
+  <si>
+    <t>岩塚</t>
+  </si>
+  <si>
+    <t>進藤</t>
+  </si>
+  <si>
+    <t>土岐</t>
+  </si>
+  <si>
+    <t>いろふ</t>
+  </si>
+  <si>
+    <t>伊賀</t>
+  </si>
+  <si>
+    <t>基調講演</t>
+  </si>
+  <si>
+    <t>徹底解剖Spring MVCアーキテクチャー
+-DispatcherServletの中身を覗いてきました-</t>
+  </si>
+  <si>
+    <t>様々なWebアプリケーション開発で採用実績のあるSpring MVCですが、「アーキテクチャーがどの様に実現されているのか」と疑問に思ったことはありませんか？
+・どうしてアノテーションを付けるだけで、リクエストURLとコントローラーメソッドの対応付けができるのか？
+・コントローラーメソッドに指定した引数のインスタンスは、どこで作られるのか？
+・コントローラーメソッドの戻り値に指定できる型がたくさんあるが、なぜ動くのか？
+・コントローラーメソッドの戻り値にビューの論理名を指定しただけで、なぜビューに処理が移るのか？
+・なぜControllerとRestControllerを使い分けるだけで、レスポンスをHTMLとJSONで切り替えられるのか？
+等
+本セッションでは、そのような謎を「ソースコードリーディング」により解き明かしていきます。
+すでに業務でSpring MVCを使っているが、より詳しくアーキテクチャーを理解したいという方に、ぴったりのセッションとなっています。</t>
+  </si>
+  <si>
+    <t>https://www.nissan.co.jp</t>
+  </si>
+  <si>
+    <t>森下大介</t>
+  </si>
+  <si>
+    <t>2019年に日産自動車に転職。コネクティッドカーサービスに携わっているクルマ好きbackendエンジニア。
+前職はヤフーで広告サービスに携わりつつJava黒帯なんてこともしてました。</t>
+  </si>
+  <si>
+    <t>NissanConnectの舞台裏で動くSpring Boot／Spring Cloud 〜Microserviceの実運用の事例〜</t>
+  </si>
+  <si>
+    <t>自動車産業における変革を表すキーワード"CASE"におけるC(Connected)を、日産ではNissanConnectというサービスとして提供しています。
+特に、新型スカイライン及びリーフで提供しているサービスでは、スマホアプリを通してクルマと連携できる機能を提供しており、
+そのバックエンドはSpring BootやSpring Cloudを使ったMicroservice群として開発され、稼働しています。
+自動車メーカーとSpringという組み合わせが生み出したMicroservice群を実際に運用する中で見えてきたポイントなどを事例としてご紹介したいと思います。</t>
+  </si>
+  <si>
+    <t>フルネスは、独自のノウハウと高い技術力を駆使し、『IT研修事業』と『システム開発支援事業』の2つの領域で成長を続けている会社です。『IT研修事業』では豊富な経験を持った講師陣が、実践的なハンズオン教育で現場力をしっかり身に着けた人材を育成します。『システム開発支援事業』は高品質な企業情報システムの開発や実践的な技術のコーチングを行っています。今回のブースでは、『IT研修事業』でも人気の高い、1名様からでもご参加いただける公開講座のご案内資料をお持ちさせていただきました。Spring関連の研修はもちろん、ご希望に合わせてラインナップ豊富な研修の中からご紹介させていただきますので、ご興味をお持ちの方、人材教育に関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
+  </si>
+  <si>
+    <t>IT TRAINING SUPPLIER ～技術を育て、企業を育てる～</t>
+  </si>
+  <si>
+    <t>菊池真登</t>
+  </si>
+  <si>
+    <t>懇親会</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>13:00 - 13:45</t>
+  </si>
+  <si>
+    <t>15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>14:00 - 14:45</t>
+  </si>
+  <si>
+    <t>16:15 - 17:00</t>
+  </si>
+  <si>
+    <t>17:15 - 18:00</t>
+  </si>
+  <si>
+    <t>18:15 - 19:00</t>
+  </si>
+  <si>
+    <t>19:15 - 20:45</t>
+  </si>
+  <si>
+    <t>NTT Data</t>
+  </si>
+  <si>
+    <t>ウルシステムズ</t>
+  </si>
+  <si>
+    <t>楽天</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>ビッグツリーコンサルティング</t>
+  </si>
+  <si>
+    <t>タグバンガーズ</t>
+  </si>
+  <si>
+    <t>アシラス</t>
+  </si>
+  <si>
+    <t>マイクロソフト</t>
+  </si>
+  <si>
+    <t>テクマトリクス</t>
+  </si>
+  <si>
+    <t>LINE公式アカウントのチャットシステムにおけるSpringおよびWebFluxの活用事例</t>
+  </si>
+  <si>
+    <t>レッドハット</t>
+  </si>
+  <si>
+    <t>ビズリーチ</t>
+  </si>
+  <si>
+    <t>sola city Hall</t>
+  </si>
+  <si>
+    <t>sola city Hall (WEST)</t>
+  </si>
+  <si>
+    <t>sola city Hall (EAST)</t>
+  </si>
+  <si>
+    <t>Lunch Session (11:45 - 12:30)</t>
+  </si>
+  <si>
+    <t>Enterprise Angular Development (仮)</t>
+  </si>
+  <si>
+    <t>エンタープライズでも近年、Webアプリケーション開発ではReactやAngularが利用されるようになってきました。大規模な何百億円プロジェクトでもAngularを採用し開発を進める事例も出始めています。ここでは、そういったプロジェクトを上手く回すためのコツを簡単にご紹介致します。
+講師プロフィール：エンタープライズ業界にWebを広めるべく日々奮闘。COBOLでの生産管理/会計システムから始まり、Oracle Databaseでの物流系DB設計&amp;実装、Javaフレームワーク/品質管理システム開発など経験。現在はWebの魅力に取り憑かれ、html5jやAngular Japan User Group などコミュニティ活動を積極的に行っている。</t>
+  </si>
+  <si>
+    <t>Angular を使ったアプリケーション開発のデモを致します。Angularは、モバイルおよびデスクトップWebアプリケーションを構築するためのプラットフォームです。</t>
+  </si>
+  <si>
+    <t>LINEでは、企業･個店向けに公式アカウントというもの提供しています。公式アカウントでは多種多様な機能を提供しているのですが、その中の一つにチャット機能があります。そのチャットシステムにおける、Springの活用事例やアーキテクチャなどをご紹介致します。</t>
+  </si>
+  <si>
+    <t>長谷部良輔</t>
+  </si>
+  <si>
+    <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました</t>
+  </si>
+  <si>
+    <t>Spring Boot爆速開発超絶</t>
+  </si>
+  <si>
+    <t>GraalVM Native Image関連</t>
+  </si>
+  <si>
+    <t>カサレアル</t>
+  </si>
+  <si>
+    <t>日産自動車</t>
+  </si>
+  <si>
+    <t>サムライズム</t>
+  </si>
+  <si>
+    <t>フルネス</t>
+  </si>
+  <si>
+    <t>ジャスミンソフト</t>
+  </si>
+  <si>
+    <t>ルート42</t>
+  </si>
+  <si>
+    <t>リクルートテクノロジーズ</t>
+  </si>
+  <si>
+    <t>Spring初心者必見、フレームワーク別の便利なテスト機能紹介</t>
+  </si>
+  <si>
+    <t>Springが提供する機能（フレームワーク）で良く使用される Spring Framework、Spring MVC、Spring Securityと Springとシームレスに連携できるO/R Mappingツールである MyBatisに対するユニットテストに関して ・自動テストのメリットについて ・どのようなテストが出来るか をデモを交えて紹介させて頂きます。
+■：テストはJUnit5を使用
+■：Spring Frameworkのテスト
+〇：@Mockを使用して、まだ作成されていない実装クラスをスタブとして利用するテストを紹介します。
+・whenメソッドの使い方
+・verifyメソッドの使い方
+■：MyBatisのテスト
+〇：mybatis-spring-boot-starter-testを使用して
+MyBatisのMapperインターフェースを利用したデータアクセス機能のCRUD処理のテストを紹介します。
+・@MybatisTestアノテーションの説明
+・@AutoConfigureTestDatabaseアノテーションの説明
+■：Spring MVCのテスト
+〇：MockMvcを利用した、リクエストハンドラメソッドの呼び出し結果を取得し、評価するテストを紹介します。
+・メソッドチェーンの説明
+・HTTPレスポンスステータスの評価方法の説明
+・（View）遷移先の評価方法の説明
+・Modelの評価方法の説明
+■：Spring Securityのテスト
+〇：spring-security-testを使用してフォーム認証のテスト及びログアウトのテストを紹介します。</t>
+  </si>
+  <si>
     <t>ハッシュタグ</t>
   </si>
   <si>
     <t>アンケート</t>
   </si>
   <si>
-    <t>sola city Hall EAST</t>
-  </si>
-  <si>
-    <t>sola city Hall WEST</t>
-  </si>
-  <si>
-    <t>10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>一人でしゃべる</t>
-  </si>
-  <si>
-    <t>For Beginner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>meta 1, meta 2, meta 3</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>所属</t>
-  </si>
-  <si>
-    <t>プロフィール</t>
-  </si>
-  <si>
-    <t>基調太郎</t>
-  </si>
-  <si>
-    <t>株式会社 基調</t>
-  </si>
-  <si>
-    <t>基調講演をしにきた。</t>
-  </si>
-  <si>
-    <t>すぴ 次郎</t>
-  </si>
-  <si>
-    <t>株式会社すぴ</t>
-  </si>
-  <si>
-    <t>リンクを張りたい。 
-https://tagbangers.co.jp はりました。</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>資料（複数の場合はカンマ区切り）</t>
-  </si>
-  <si>
-    <t>登壇者（複数の場合はカンマ区切り）</t>
-  </si>
-  <si>
-    <t>メタ（複数の場合はカンマ区切り）</t>
-  </si>
-  <si>
-    <t>https://speakerdeck.com/danielanewman/im-feeling-lucky-building-great-search-experiences-for-todays-users-number-iac19</t>
-  </si>
-  <si>
-    <t>https://speakerdeck.com/revolveconf/creatively-recalculating-your-daily-design-routine</t>
-  </si>
-  <si>
-    <t>２人でしゃべります</t>
-  </si>
-  <si>
-    <t>Room B</t>
-  </si>
-  <si>
-    <t>13:15 - 14:00</t>
-  </si>
-  <si>
-    <t>r-tech</t>
-  </si>
-  <si>
-    <t>Room C</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>sponsor-slug</t>
-  </si>
-  <si>
-    <t>IT研修に特化して、Python,Java,C#,Spring4を中心としたIT教育、未経験IT技術者を育成するために、IT研修・オープン講座・講師派遣などを行っています。</t>
-  </si>
-  <si>
-    <t>株式会社ティ・アイ・オー＜TIO＞は、刻々と進化しているIT技術を駆使し、各産業分野における基幹業務、金融および製造流通分野における業務アプリケーションに構築からソフトウェア・画面デザイン・メンテナンスにいたる工程をトータル的にサポートしていく企業です。</t>
-  </si>
-  <si>
-    <t>ルート42株式会社は、 業務システムに特化した超高速開発ツール「MOD99」による受託開発を行い、独立系開発ベンダーとして平成21年設立よりおよそ10年間活動してきました。 昨年、これまで蓄積してきた帳票開発のノウハウをオリジナル製品「Docurain」として製品化し、販売推進に注力しています。</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>For Your Happiness, Pleasure and Satisfaction</t>
-  </si>
-  <si>
-    <t>ティ・アイ・オーはIT技術を駆使し、常に「ユーザー目線」で提案をしている会社です。各産業分野における基幹業務、製造流通および金融分野における業務アプリケーションの『コンサルティング』から『画面デザイン』『システム設計』『システム構築』『運用・保守のサポート』まで、トータルサポート致します。Springを導入した物流システムの開発や、現場で使えるシステム運用・保守の『見える化』など各実績をご紹介致しますので、ご興味をお持ちの方、システムに関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>14:15 - 15:00</t>
-  </si>
-  <si>
-    <t>15:30 - 16:15</t>
-  </si>
-  <si>
-    <t>16:30 - 17:15</t>
-  </si>
-  <si>
-    <t>17:30 - 18:15</t>
-  </si>
-  <si>
-    <t>9:45 - 10:00</t>
-  </si>
-  <si>
-    <t>タイムテーブル</t>
-  </si>
-  <si>
-    <t>ランチ</t>
-  </si>
-  <si>
-    <t>KEYNOTE</t>
-  </si>
-  <si>
-    <t>sf_opening</t>
-  </si>
-  <si>
-    <t>エンタープライズ・マイク ロ サービスの格⾔</t>
-  </si>
-  <si>
-    <t>決済システムの内製化への旅 ‒ Spring と PCF で作るクラウドネイティブなシステム開発</t>
-  </si>
-  <si>
-    <t>SpringDataforApache Geode で RDB いらずのアプリ開発をしよう！</t>
-  </si>
-  <si>
-    <t>これから Spring を使う開発者が知っておくべきこと</t>
-  </si>
-  <si>
-    <t>Rakuten Travel and Spring</t>
-  </si>
-  <si>
-    <t>Spring♥ GCP - Springと GCPの素敵な関係</t>
-  </si>
-  <si>
-    <t>実際のプロジェクトでSpring アプリを Kotlin で開発して得た気づき集</t>
-  </si>
-  <si>
-    <t>Thymeleafさいしょの⼀歩</t>
-  </si>
-  <si>
-    <t>Knative:Serving yourServerless Java Service on Kubernetes the 12-Factor way</t>
-  </si>
-  <si>
-    <t>Observability with Spring-Based Distributed Systems</t>
-  </si>
-  <si>
-    <t>AmazonCognito使って認証したい？それならSpring Security 使いましょう！</t>
-  </si>
-  <si>
-    <t>SpringBootで作る RESTfulWebService</t>
-  </si>
-  <si>
-    <t>Pivotal 認定講師が解説！基 礎 からのOAuth 2.0とSpring Security5.1 による実装</t>
-  </si>
-  <si>
-    <t>500+ のサーバーで動く LINE AdsPlatformをささえるSpring</t>
-  </si>
-  <si>
-    <t>SpringTools4の機能とその実装</t>
-  </si>
-  <si>
-    <t>Spring 5でSpring Testのここが変わる</t>
-  </si>
-  <si>
-    <t>SpringBoot with Kotlin, functional configuration and GraalVM</t>
-  </si>
-  <si>
-    <t>⼤規模⾦融系 SaaS を⽀えるSpring 〜活⽤の変遷と新時代のアーキテクチャ〜</t>
-  </si>
-  <si>
-    <t>Spring Boot で Hello World のその先へ〜ウェブDBプレスのSpringBoot 特集で・・・</t>
-  </si>
-  <si>
-    <t>Spring Data RESTと Spring Cloud Contract</t>
-  </si>
-  <si>
-    <t>業務で使いたい WebFlux によるReactive プログラミ ング</t>
-  </si>
-  <si>
-    <t>Micrometer/Prometheusによる⼤規模システムモニタ
-リング〜ヤフーインターネット広告システムで・・・</t>
-  </si>
-  <si>
-    <t>Angular を⽤いたデザインスプリント開発と設計⼿法</t>
-  </si>
-  <si>
-    <t>https://www.slideshare.net/OgawaTakeshi/spring-datarestandspringcloudcontract?ref=http://springfest2018.springframework.jp/</t>
-  </si>
-  <si>
-    <t>株式会社 タグバンガーズ</t>
-  </si>
-  <si>
-    <t>意訳間違えてたらツッコミが欲しい春</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>11:45 - 13:15</t>
-  </si>
-  <si>
-    <t>ご挨拶</t>
-  </si>
-  <si>
-    <t>ランチセッション  JasmineSoft (12:00 - 12:45)</t>
-  </si>
-  <si>
-    <t>ランチセッション  Root42 (12:00 - 12:45)</t>
-  </si>
-  <si>
-    <t>https://www.tagbangers.co.jp</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>パート1(由利): DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、
+かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
+パート2(ござ先輩): 実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。
+以上です。よろしくお願い致します。</t>
+  </si>
+  <si>
+    <t>由利 誠</t>
+  </si>
+  <si>
+    <t>Docurain開発担当なんでも屋。趣味はバイクとキャンプと酒。
+イラスト作成も得意で、漫画家デビューしないかと大手出版社から勧誘されたことあり。ホントはKotlinじゃなくてScalaを書きたい。</t>
+  </si>
+  <si>
+    <t>株式会社クオリティスタート代表。ITプランナー。ネット上では「ござ先輩」として著名で、コラム等の執筆活動も行う。ちなヤク。</t>
+  </si>
+  <si>
+    <t>15, 16</t>
+  </si>
+  <si>
+    <t>佐川 夫美雄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ashiras.xyz
+</t>
+  </si>
+  <si>
+    <t>ランチセッション Root42</t>
+  </si>
+  <si>
+    <t>ござ先輩 
+(湯本 堅隆)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sponsoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,6 +606,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -538,6 +677,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -866,236 +1021,355 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="3"/>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="20">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="20">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
+      <c r="E24" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1105,9 +1379,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1125,324 +1399,366 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
+      <c r="D3" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
       <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="388">
+      <c r="A11" s="9">
+        <v>102</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="409.6">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
+      <c r="B13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="409.6">
       <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="409.6">
       <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34">
       <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>128</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" t="s">
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="34">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{D41B3F61-566F-4246-A70D-CA31CEB9FF92}"/>
+    <hyperlink ref="F29" r:id="rId1" xr:uid="{D41B3F61-566F-4246-A70D-CA31CEB9FF92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1450,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1466,431 +1782,388 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2 C2:C31" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F3 C34:C35" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B7" xr:uid="{855B6096-5761-EF40-8652-525805C82D63}">
-      <formula1>"10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{02016179-BC75-2E41-9A87-EB1A313EF3B8}">
-      <formula1>"9:45 - 10:00, 10:00 - 10:45, 11:00 - 11:45, @ランチセッション (12:00 - 12:45), 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B31" xr:uid="{A777C917-7FB5-4448-9779-80D36CF76872}">
-      <formula1>"10:00 - 10:45, 11:00 - 11:45, 11:45 - 13:15, 12:00 - 12:45, 13:15 - 14:00, 14:15 - 15:00, 15:30 - 16:15, 16:30 - 17:15, 17:30 - 18:15"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="3" width="75.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDB3F679-B30A-C349-A85D-6F60E8B77B5B}">
           <x14:formula1>
-            <xm:f>sponsors!$C$2:$C$20</xm:f>
+            <xm:f>room!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A40 B40</xm:sqref>
+          <xm:sqref>C2:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43A48BED-FF1E-EB4C-907F-ED05F779ED75}">
+          <x14:formula1>
+            <xm:f>time!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1898,33 +2171,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EAAFF5-7E75-FB4E-B5B3-99DE1F14586F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FD01F-8423-004C-86EB-3AC5B3A759C4}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="144" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
+          <x14:formula1>
+            <xm:f>companies!$C$2:$C$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
+          <x14:formula1>
+            <xm:f>companies!$C$2:$C$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1932,44 +2508,191 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
+      <c r="B4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="85">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
+          <x14:formula1>
+            <xm:f>companies!$A$2:$A$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45D184-6353-F74E-8487-524518250038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0972CB-05CD-0D45-9E9C-1D4F267830AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>マイクロソフト</t>
-  </si>
-  <si>
-    <t>テクマトリクス</t>
   </si>
   <si>
     <t>LINE公式アカウントのチャットシステムにおけるSpringおよびWebFluxの活用事例</t>
@@ -570,6 +567,23 @@
   </si>
   <si>
     <t>sponsoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テクマトリックス </t>
+  </si>
+  <si>
+    <t>テクマトリックス </t>
+  </si>
+  <si>
+    <t>Jtestは、テスト工数の大幅削減とセキュアで高品質なJavaシステムの開発を強力にサポートするJava対応テストツールです。1,000個以上のコーディング規約をもとにソースコードを静的に解析し、プログラムの問題点や処理フローに潜む検出困難なエラーを検出します。さらに、JUnitを用いた単体テストについて、作成、実行、テストカバレッジ分析、テスト資産の管理といった単体テストに係る作業をサポートし、単体テストの効率化を促進します。
+JUnit単体テスト実装、メンテナンスにコストが掛かって困っているという方は、単体テスト機能のみをご利用いただけるリーズナブルなライセンスもご用意していおりますので、是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java対応静的解析・単体テストツール　「Jtest」
+</t>
+  </si>
+  <si>
+    <t>Spring単体テストの効率化</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1025,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1035,7 +1049,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1050,7 +1064,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1065,7 +1079,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1080,7 +1094,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
@@ -1095,7 +1109,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -1110,12 +1124,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1127,7 +1141,7 @@
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1137,7 +1151,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1152,7 +1166,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1167,7 +1181,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1186,7 +1200,7 @@
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1198,12 +1212,12 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1213,7 +1227,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1230,7 +1244,7 @@
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1242,12 +1256,12 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1257,12 +1271,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1284,12 +1298,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1299,7 +1313,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1313,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1327,12 +1341,12 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>85</v>
@@ -1341,7 +1355,7 @@
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1355,12 +1369,12 @@
         <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>101</v>
@@ -1369,7 +1383,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1381,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1417,10 +1431,10 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1442,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1522,16 +1536,16 @@
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1">
@@ -1548,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -1570,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1603,10 +1617,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>81</v>
@@ -1627,8 +1641,11 @@
       <c r="A20" s="5">
         <v>15</v>
       </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1636,10 +1653,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1664,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1680,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1799,7 +1816,7 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1810,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1821,7 +1838,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1832,7 +1849,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1862,10 +1879,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1873,10 +1890,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1887,7 +1904,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1898,7 +1915,7 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1931,7 +1948,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1942,7 +1959,7 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1975,7 +1992,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1986,7 +2003,7 @@
         <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2019,7 +2036,7 @@
         <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2030,7 +2047,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2063,7 +2080,7 @@
         <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2096,7 +2113,7 @@
         <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2107,7 +2124,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2140,7 +2157,7 @@
         <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2202,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2210,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2281,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2350,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2411,9 +2428,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
         <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2446,7 +2469,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2477,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2519,13 +2542,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2536,7 +2559,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2559,7 +2582,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -2621,7 +2644,7 @@
         <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2632,7 +2655,7 @@
         <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>103</v>
@@ -2643,13 +2666,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2657,13 +2680,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2671,13 +2694,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0972CB-05CD-0D45-9E9C-1D4F267830AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45D184-6353-F74E-8487-524518250038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>マイクロソフト</t>
+  </si>
+  <si>
+    <t>テクマトリクス</t>
   </si>
   <si>
     <t>LINE公式アカウントのチャットシステムにおけるSpringおよびWebFluxの活用事例</t>
@@ -567,23 +570,6 @@
   </si>
   <si>
     <t>sponsoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テクマトリックス </t>
-  </si>
-  <si>
-    <t>テクマトリックス </t>
-  </si>
-  <si>
-    <t>Jtestは、テスト工数の大幅削減とセキュアで高品質なJavaシステムの開発を強力にサポートするJava対応テストツールです。1,000個以上のコーディング規約をもとにソースコードを静的に解析し、プログラムの問題点や処理フローに潜む検出困難なエラーを検出します。さらに、JUnitを用いた単体テストについて、作成、実行、テストカバレッジ分析、テスト資産の管理といった単体テストに係る作業をサポートし、単体テストの効率化を促進します。
-JUnit単体テスト実装、メンテナンスにコストが掛かって困っているという方は、単体テスト機能のみをご利用いただけるリーズナブルなライセンスもご用意していおりますので、是非ブースまでお越しください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java対応静的解析・単体テストツール　「Jtest」
-</t>
-  </si>
-  <si>
-    <t>Spring単体テストの効率化</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1011,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1049,7 +1035,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1064,7 +1050,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1079,7 +1065,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1094,7 +1080,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
@@ -1109,7 +1095,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -1124,12 +1110,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1141,7 +1127,7 @@
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1151,7 +1137,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1166,7 +1152,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1181,7 +1167,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1200,7 +1186,7 @@
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1212,12 +1198,12 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1227,7 +1213,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1244,7 +1230,7 @@
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1256,12 +1242,12 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1271,12 +1257,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1298,12 +1284,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1313,7 +1299,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1327,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1341,12 +1327,12 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>85</v>
@@ -1355,7 +1341,7 @@
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1369,12 +1355,12 @@
         <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>101</v>
@@ -1383,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1431,10 +1417,10 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1456,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1536,16 +1522,16 @@
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1">
@@ -1562,10 +1548,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -1584,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1617,10 +1603,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>81</v>
@@ -1641,11 +1627,8 @@
       <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1653,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1681,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1697,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1816,7 +1799,7 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1827,7 +1810,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1838,7 +1821,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1849,7 +1832,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1879,10 +1862,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1890,10 +1873,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1904,7 +1887,7 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1915,7 +1898,7 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1948,7 +1931,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1959,7 +1942,7 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1992,7 +1975,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2003,7 +1986,7 @@
         <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2036,7 +2019,7 @@
         <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2047,7 +2030,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2080,7 +2063,7 @@
         <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2113,7 +2096,7 @@
         <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2124,7 +2107,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2157,7 +2140,7 @@
         <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2219,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2227,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2298,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2367,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2428,15 +2411,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2469,7 +2446,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2500,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2542,13 +2519,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2559,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2582,7 +2559,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -2644,7 +2621,7 @@
         <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2655,7 +2632,7 @@
         <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>103</v>
@@ -2666,13 +2643,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2680,13 +2657,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2694,13 +2671,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0972CB-05CD-0D45-9E9C-1D4F267830AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDDAD1-C90E-F548-94AF-160CEF35D1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -584,6 +584,27 @@
   </si>
   <si>
     <t>Spring単体テストの効率化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受託開発におけるハイアジリティへのとりくみ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寺島 秀樹
+</t>
+  </si>
+  <si>
+    <t>独立系システム開発会社、フリーランス、サービス系スタートアップ企業を経て2016年にBTCに入社。エンタープライズ系システム開発での経験が長く、アジャイルコーチとして開発プロジェクトのアジャイル化に携わる。
+Java、Groovy、特にSpringでの設計・実装を得意とし、近年はスクラムやテスト駆動開発などアジャイルプラクティスの導入・運用の支援やCI/CDなどの開発環境整備を得意とする。</t>
+  </si>
+  <si>
+    <t>ITサービスが企業のビジネスの中心となり久しい昨今、ビジネスを成功に導くため早期の意思決定はますます重要性が高まっています。それは受託開発でも変わりません
+* 開発に入る前の仮説検証プロセス
+* ミニマムなスコープ管理によるプロジェクト運営
+* Spring Boot と Spring Test
+* 仕様の見える化とテストファーストによる品質保証
+* 自動テストと向き合った新卒の半年間
+など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1417,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1571,12 +1592,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="409.6">
       <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>122</v>
+      <c r="B14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2498,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2701,6 +2728,20 @@
       </c>
       <c r="D17" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="153">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDDAD1-C90E-F548-94AF-160CEF35D1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35CE9F-0610-BB4F-AB89-D602D7296574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>162</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
+        <v>164</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>162</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>85</v>
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>162</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
+        <v>142</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
         <v>162</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>162</v>
@@ -1416,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2507,13 +2507,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
           <x14:formula1>
-            <xm:f>companies!$C$2:$C$20</xm:f>
+            <xm:f>companies!$C$2:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
           <x14:formula1>
-            <xm:f>companies!$C$2:$C$24</xm:f>
+            <xm:f>companies!$C$2:$C$23</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -2751,7 +2751,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
           <x14:formula1>
-            <xm:f>companies!$A$2:$A$24</xm:f>
+            <xm:f>companies!$A$2:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/spring-fest-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35CE9F-0610-BB4F-AB89-D602D7296574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4621E-F22B-5143-B9E2-2FF6B35714F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="39840" yWindow="4420" windowWidth="28800" windowHeight="17540" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1159,6 +1159,9 @@
         <v>62</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
@@ -1218,6 +1221,9 @@
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
@@ -1262,6 +1268,9 @@
         <v>22</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
@@ -1306,6 +1315,9 @@
         <v>25</v>
       </c>
       <c r="D17" s="3"/>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4621E-F22B-5143-B9E2-2FF6B35714F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CDAA1-5EB1-7D44-98B8-10FD1C2A9EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39840" yWindow="4420" windowWidth="28800" windowHeight="17540" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -376,9 +376,6 @@
     <t>IT TRAINING SUPPLIER ～技術を育て、企業を育てる～</t>
   </si>
   <si>
-    <t>菊池真登</t>
-  </si>
-  <si>
     <t>懇親会</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
   </si>
   <si>
     <t>LINEでは、企業･個店向けに公式アカウントというもの提供しています。公式アカウントでは多種多様な機能を提供しているのですが、その中の一つにチャット機能があります。そのチャットシステムにおける、Springの活用事例やアーキテクチャなどをご紹介致します。</t>
-  </si>
-  <si>
-    <t>長谷部良輔</t>
   </si>
   <si>
     <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました</t>
@@ -605,6 +599,89 @@
 * 仕様の見える化とテストファーストによる品質保証
 * 自動テストと向き合った新卒の半年間
 など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
+  </si>
+  <si>
+    <t>Spring Boot爆速開発超絶技巧</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
+このセッションでは「なんとなく使っていても気づきにくい」、Spring
+Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ
+IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">株式会社ビズリーチの取り組みとエンジニア組織
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
+セッション聴講者の方から疑問点等あれば、回答させていただきます。
+</t>
+  </si>
+  <si>
+    <t>我々は日産が提供するコネクティドカーサービス「Nissan Connect」「Nissan Connect EV」を開発する部隊であり、サーバサイドをSpring Bootで開発しています。
+当ブースでは、上記アプリのご紹介や、開発プロセス等についてご紹介致します。
+IoTシステムの開発にご興味のある方・自動車好きの方・ソフトウェア内部に留まらない現実世界の「モノ」に繋がる開発に興味がある方は、是非ブースまでお越しください。我々は多くの仲間を求めています！</t>
+  </si>
+  <si>
+    <t>田中 竜介</t>
+  </si>
+  <si>
+    <t>長谷部 良輔</t>
+  </si>
+  <si>
+    <t>菊池 真登</t>
+  </si>
+  <si>
+    <t>楽天ペイ（オンライン決済）のアプリケーションエンジニアとして開発業務に携わっています。パブリッククラウドやコンテナオーケストラレーション、CI/CD などを良く触っています。</t>
+  </si>
+  <si>
+    <t>三宅 光太郎</t>
+  </si>
+  <si>
+    <t>専門はクラウドネイティブのミドルウェア開発および開発ツールの構築・導入</t>
+  </si>
+  <si>
+    <t>土屋 大樹</t>
+  </si>
+  <si>
+    <t>入社以来、テスト効率化・自動化に関する業務に従事。現在はコンテナ・k8sを活用したCI/CDパイプラインの設計・開発を行っている。</t>
+  </si>
+  <si>
+    <t>Spring Social でソーシャルログインを実装する</t>
+  </si>
+  <si>
+    <t>最近ソーシャルログインを提供するサービスは増えてきています。Spring Social は各SNS 専用のライブラリが用意されていて、これらを使ってソーシャルログインを実装することができます。
+このセッションでは、このソーシャルログイン機能を提供するWebアプリケーションを実装する方法を紹介します。</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>　大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
+  </si>
+  <si>
+    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
+　本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
+  </si>
+  <si>
+    <t>aslead</t>
+  </si>
+  <si>
+    <t>DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。</t>
+  </si>
+  <si>
+    <t>OpenStandia</t>
+  </si>
+  <si>
+    <t>オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
+</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1070,7 +1147,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1085,7 +1162,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1100,7 +1177,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1115,12 +1192,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1130,12 +1207,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1145,12 +1222,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1160,12 +1237,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1175,7 +1252,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1190,7 +1267,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1205,7 +1282,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1222,12 +1299,12 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1239,12 +1316,12 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1254,7 +1331,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1269,12 +1346,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1286,12 +1363,12 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1301,12 +1378,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1316,12 +1393,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1331,12 +1408,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1346,12 +1423,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -1360,12 +1437,12 @@
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>85</v>
@@ -1374,12 +1451,12 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -1388,12 +1465,12 @@
         <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>101</v>
@@ -1402,12 +1479,12 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -1416,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1464,10 +1541,10 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1489,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1500,18 +1577,27 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17">
+    <row r="5" spans="1:8" ht="272">
       <c r="A5" s="5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1519,18 +1605,27 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="306">
       <c r="A7" s="6">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6">
@@ -1553,7 +1648,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1569,16 +1664,16 @@
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1">
@@ -1587,7 +1682,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="409.6">
@@ -1595,10 +1690,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -1609,21 +1704,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="323">
       <c r="A15" s="5">
         <v>10</v>
       </c>
+      <c r="B15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1656,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>81</v>
@@ -1673,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1681,10 +1782,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1692,10 +1793,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1720,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1736,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1802,7 +1903,7 @@
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1855,7 +1956,7 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1866,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1877,7 +1978,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1888,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1918,10 +2019,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1929,10 +2030,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1940,10 +2041,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1951,10 +2052,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1962,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -1973,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -1984,10 +2085,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1995,10 +2096,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2006,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -2017,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -2028,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2039,10 +2140,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2050,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -2061,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -2072,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2083,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2094,7 +2195,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -2105,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2116,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2127,7 +2228,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -2138,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -2149,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2160,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2171,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
@@ -2182,7 +2283,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -2193,10 +2294,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2250,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2258,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2266,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2337,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2345,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2353,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2361,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2369,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2377,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2385,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2393,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2404,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2445,70 +2546,100 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" ht="102">
+      <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="119">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="C11" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>135</v>
+      <c r="C15" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2652,7 @@
           <x14:formula1>
             <xm:f>companies!$C$2:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B40</xm:sqref>
+          <xm:sqref>B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
           <x14:formula1>
@@ -2537,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2581,13 +2712,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2598,7 +2729,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2621,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -2680,10 +2811,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2694,7 +2825,7 @@
         <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>103</v>
@@ -2705,13 +2836,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2719,13 +2850,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2733,13 +2864,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2747,13 +2878,55 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CDAA1-5EB1-7D44-98B8-10FD1C2A9EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A54E0D-EA86-9543-A03A-DFC595EE2DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -1505,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2507,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A54E0D-EA86-9543-A03A-DFC595EE2DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9B168E-93EA-0243-B22D-F045C8B8C10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -1505,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2670,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9B168E-93EA-0243-B22D-F045C8B8C10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A3BDB-7D4B-5742-9757-3F180097EF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="203">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>LINEでは、企業･個店向けに公式アカウントというもの提供しています。公式アカウントでは多種多様な機能を提供しているのですが、その中の一つにチャット機能があります。そのチャットシステムにおける、Springの活用事例やアーキテクチャなどをご紹介致します。</t>
-  </si>
-  <si>
-    <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました</t>
   </si>
   <si>
     <t>Spring Boot爆速開発超絶</t>
@@ -546,13 +543,6 @@
     <t>佐川 夫美雄</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ashiras.xyz
-</t>
-  </si>
-  <si>
-    <t>ランチセッション Root42</t>
-  </si>
-  <si>
     <t>ござ先輩 
 (湯本 堅隆)</t>
   </si>
@@ -613,10 +603,6 @@
 IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
   </si>
   <si>
-    <t xml:space="preserve">株式会社ビズリーチの取り組みとエンジニア組織
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
 セッション聴講者の方から疑問点等あれば、回答させていただきます。
 </t>
@@ -642,9 +628,6 @@
     <t>三宅 光太郎</t>
   </si>
   <si>
-    <t>専門はクラウドネイティブのミドルウェア開発および開発ツールの構築・導入</t>
-  </si>
-  <si>
     <t>土屋 大樹</t>
   </si>
   <si>
@@ -668,20 +651,62 @@
 　本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
   </si>
   <si>
-    <t>aslead</t>
-  </si>
-  <si>
-    <t>DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。</t>
-  </si>
-  <si>
-    <t>OpenStandia</t>
-  </si>
-  <si>
-    <t>オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
-  </si>
-  <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
 </t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
+　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
+&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
+　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t>株式会社ビズリーチの取り組みとエンジニア組織</t>
+  </si>
+  <si>
+    <t>ランチセッション</t>
+  </si>
+  <si>
+    <t>トラブルシューティングツールの侍や、Twitter4JといったOSSを開発しているJavaエンジニア。株式会社サムライズムという会社の社長で、海外のプログラマ向けツールの日本国内展開を手がけています。</t>
+  </si>
+  <si>
+    <t>設樂 大悟</t>
+  </si>
+  <si>
+    <t>山﨑 大</t>
+  </si>
+  <si>
+    <t>たぐばん</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>専門はクラウドネイティブのミドルウェア開発および開発ツールの構築・導入。</t>
+  </si>
+  <si>
+    <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました。</t>
+  </si>
+  <si>
+    <t>For Your Happiness, Pleasure and Satisfaction</t>
+  </si>
+  <si>
+    <t>ティ・アイ・オーはIT技術を駆使し、常に「ユーザー目線」で提案をしている会社です。各産業分野における基幹業務、製造流通および金融分野における業務アプリケーションの『コンサルティング』から『画面デザイン』『システム設計』『システム構築』『運用・保守のサポート』まで、トータルサポート致します。Springを導入した物流システムの開発や、現場で使えるシステム運用・保守の『見える化』など各実績をご紹介致しますので、ご興味をお持ちの方、システムに関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
+  </si>
+  <si>
+    <t>タグバンガーズ入社1年目。DevチームにてWebアプリケーションのフロントエンド開発を担当。</t>
+  </si>
+  <si>
+    <t>タグバンガーズ入社5年目。DevチームにてWebアプリケーションの開発、マネジメントを担当。Java、Springはもちろん、技術のことならなんでも好き。ただのわさもん。</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://ashiras.xyz/" target="_blank" style="color: white;"&gt;&lt;p&gt;http://ashiras.xyz/&lt;/p&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>未定</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1148,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1147,7 +1172,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1162,7 +1187,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1177,7 +1202,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1192,7 +1217,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
@@ -1207,7 +1232,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -1222,12 +1247,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1237,12 +1262,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1252,7 +1277,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1267,7 +1292,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1282,7 +1307,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1299,12 +1324,12 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1316,7 +1341,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
@@ -1331,7 +1356,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1346,12 +1371,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1363,12 +1388,12 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1378,7 +1403,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
@@ -1393,7 +1418,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
@@ -1408,12 +1433,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1423,7 +1448,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1437,12 +1462,12 @@
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>85</v>
@@ -1451,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1465,12 +1490,12 @@
         <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>101</v>
@@ -1479,7 +1504,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1493,7 +1518,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A11" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1521,7 +1546,7 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1541,13 +1566,16 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1555,7 +1583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1566,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1583,24 +1611,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="272">
+    <row r="5" spans="1:9" ht="272">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1611,15 +1639,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="306">
+    <row r="7" spans="1:9" ht="306">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
@@ -1628,7 +1656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6">
+    <row r="8" spans="1:9" ht="409.6">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1642,7 +1670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1651,41 +1679,53 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="388">
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="388">
       <c r="A11" s="9">
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1">
+        <v>154</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1">
       <c r="A12" s="9">
         <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="409.6">
+      <c r="E12" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="409.6">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -1699,38 +1739,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6">
+    <row r="14" spans="1:9" ht="409.6">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="323">
+    <row r="15" spans="1:9" ht="323">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1757,10 +1797,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>81</v>
@@ -1782,10 +1822,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1837,7 +1877,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2505,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2544,101 +2584,98 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="51">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="119">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2652,7 +2689,7 @@
           <x14:formula1>
             <xm:f>companies!$C$2:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B41</xm:sqref>
+          <xm:sqref>B40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
           <x14:formula1>
@@ -2668,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2706,22 +2743,25 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2729,9 +2769,11 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
@@ -2743,6 +2785,9 @@
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
@@ -2752,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -2811,10 +2856,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2825,7 +2873,7 @@
         <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>103</v>
@@ -2836,13 +2884,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2850,13 +2898,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2864,13 +2912,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2878,13 +2926,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2892,13 +2940,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -2906,13 +2954,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2920,13 +2968,41 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3012,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
           <x14:formula1>
-            <xm:f>companies!$A$2:$A$23</xm:f>
+            <xm:f>companies!$A$2:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A3BDB-7D4B-5742-9757-3F180097EF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B71E4B-BE52-9A46-8817-C68F0804D5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>山﨑 大</t>
-  </si>
-  <si>
-    <t>たぐばん</t>
   </si>
   <si>
     <t>21, 22</t>
@@ -1530,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1714,15 +1711,12 @@
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="409.6">
@@ -2585,10 +2579,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51">
@@ -2707,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2744,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2758,7 +2752,7 @@
         <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2786,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2862,7 +2856,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2890,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2960,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2988,7 +2982,7 @@
         <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3002,7 +2996,7 @@
         <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B71E4B-BE52-9A46-8817-C68F0804D5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C9DB2-E5D0-E249-B376-4E648A8BB747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -216,12 +216,6 @@
     <t>メタ（複数の場合はカンマ区切り）</t>
   </si>
   <si>
-    <t>https://speakerdeck.com/danielanewman/im-feeling-lucky-building-great-search-experiences-for-todays-users-number-iac19</t>
-  </si>
-  <si>
-    <t>https://speakerdeck.com/revolveconf/creatively-recalculating-your-daily-design-routine</t>
-  </si>
-  <si>
     <t>Room B</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>タイムテーブル</t>
   </si>
   <si>
-    <t>https://www.slideshare.net/OgawaTakeshi/spring-datarestandspringcloudcontract?ref=http://springfest2018.springframework.jp/</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
   </si>
   <si>
     <t>樹下 雅章</t>
-  </si>
-  <si>
-    <t>テスト関係, For Beginner</t>
   </si>
   <si>
     <t>microsoft</t>
@@ -461,9 +449,6 @@
     <t>LINEでは、企業･個店向けに公式アカウントというもの提供しています。公式アカウントでは多種多様な機能を提供しているのですが、その中の一つにチャット機能があります。そのチャットシステムにおける、Springの活用事例やアーキテクチャなどをご紹介致します。</t>
   </si>
   <si>
-    <t>Spring Boot爆速開発超絶</t>
-  </si>
-  <si>
     <t>GraalVM Native Image関連</t>
   </si>
   <si>
@@ -489,6 +474,200 @@
   </si>
   <si>
     <t>Spring初心者必見、フレームワーク別の便利なテスト機能紹介</t>
+  </si>
+  <si>
+    <t>ハッシュタグ</t>
+  </si>
+  <si>
+    <t>アンケート</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>パート1(由利): DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、
+かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
+パート2(ござ先輩): 実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。
+以上です。よろしくお願い致します。</t>
+  </si>
+  <si>
+    <t>由利 誠</t>
+  </si>
+  <si>
+    <t>Docurain開発担当なんでも屋。趣味はバイクとキャンプと酒。
+イラスト作成も得意で、漫画家デビューしないかと大手出版社から勧誘されたことあり。ホントはKotlinじゃなくてScalaを書きたい。</t>
+  </si>
+  <si>
+    <t>株式会社クオリティスタート代表。ITプランナー。ネット上では「ござ先輩」として著名で、コラム等の執筆活動も行う。ちなヤク。</t>
+  </si>
+  <si>
+    <t>15, 16</t>
+  </si>
+  <si>
+    <t>佐川 夫美雄</t>
+  </si>
+  <si>
+    <t>ござ先輩 
+(湯本 堅隆)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sponsoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テクマトリックス </t>
+  </si>
+  <si>
+    <t>テクマトリックス </t>
+  </si>
+  <si>
+    <t>Jtestは、テスト工数の大幅削減とセキュアで高品質なJavaシステムの開発を強力にサポートするJava対応テストツールです。1,000個以上のコーディング規約をもとにソースコードを静的に解析し、プログラムの問題点や処理フローに潜む検出困難なエラーを検出します。さらに、JUnitを用いた単体テストについて、作成、実行、テストカバレッジ分析、テスト資産の管理といった単体テストに係る作業をサポートし、単体テストの効率化を促進します。
+JUnit単体テスト実装、メンテナンスにコストが掛かって困っているという方は、単体テスト機能のみをご利用いただけるリーズナブルなライセンスもご用意していおりますので、是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java対応静的解析・単体テストツール　「Jtest」
+</t>
+  </si>
+  <si>
+    <t>Spring単体テストの効率化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受託開発におけるハイアジリティへのとりくみ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寺島 秀樹
+</t>
+  </si>
+  <si>
+    <t>独立系システム開発会社、フリーランス、サービス系スタートアップ企業を経て2016年にBTCに入社。エンタープライズ系システム開発での経験が長く、アジャイルコーチとして開発プロジェクトのアジャイル化に携わる。
+Java、Groovy、特にSpringでの設計・実装を得意とし、近年はスクラムやテスト駆動開発などアジャイルプラクティスの導入・運用の支援やCI/CDなどの開発環境整備を得意とする。</t>
+  </si>
+  <si>
+    <t>ITサービスが企業のビジネスの中心となり久しい昨今、ビジネスを成功に導くため早期の意思決定はますます重要性が高まっています。それは受託開発でも変わりません
+* 開発に入る前の仮説検証プロセス
+* ミニマムなスコープ管理によるプロジェクト運営
+* Spring Boot と Spring Test
+* 仕様の見える化とテストファーストによる品質保証
+* 自動テストと向き合った新卒の半年間
+など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
+  </si>
+  <si>
+    <t>Spring Boot爆速開発超絶技巧</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
+このセッションでは「なんとなく使っていても気づきにくい」、Spring
+Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ
+IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
+セッション聴講者の方から疑問点等あれば、回答させていただきます。
+</t>
+  </si>
+  <si>
+    <t>我々は日産が提供するコネクティドカーサービス「Nissan Connect」「Nissan Connect EV」を開発する部隊であり、サーバサイドをSpring Bootで開発しています。
+当ブースでは、上記アプリのご紹介や、開発プロセス等についてご紹介致します。
+IoTシステムの開発にご興味のある方・自動車好きの方・ソフトウェア内部に留まらない現実世界の「モノ」に繋がる開発に興味がある方は、是非ブースまでお越しください。我々は多くの仲間を求めています！</t>
+  </si>
+  <si>
+    <t>田中 竜介</t>
+  </si>
+  <si>
+    <t>長谷部 良輔</t>
+  </si>
+  <si>
+    <t>菊池 真登</t>
+  </si>
+  <si>
+    <t>楽天ペイ（オンライン決済）のアプリケーションエンジニアとして開発業務に携わっています。パブリッククラウドやコンテナオーケストラレーション、CI/CD などを良く触っています。</t>
+  </si>
+  <si>
+    <t>三宅 光太郎</t>
+  </si>
+  <si>
+    <t>土屋 大樹</t>
+  </si>
+  <si>
+    <t>入社以来、テスト効率化・自動化に関する業務に従事。現在はコンテナ・k8sを活用したCI/CDパイプラインの設計・開発を行っている。</t>
+  </si>
+  <si>
+    <t>Spring Social でソーシャルログインを実装する</t>
+  </si>
+  <si>
+    <t>最近ソーシャルログインを提供するサービスは増えてきています。Spring Social は各SNS 専用のライブラリが用意されていて、これらを使ってソーシャルログインを実装することができます。
+このセッションでは、このソーシャルログイン機能を提供するWebアプリケーションを実装する方法を紹介します。</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>　大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
+  </si>
+  <si>
+    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
+　本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
+</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
+　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
+&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
+　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t>株式会社ビズリーチの取り組みとエンジニア組織</t>
+  </si>
+  <si>
+    <t>ランチセッション</t>
+  </si>
+  <si>
+    <t>トラブルシューティングツールの侍や、Twitter4JといったOSSを開発しているJavaエンジニア。株式会社サムライズムという会社の社長で、海外のプログラマ向けツールの日本国内展開を手がけています。</t>
+  </si>
+  <si>
+    <t>設樂 大悟</t>
+  </si>
+  <si>
+    <t>山﨑 大</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>専門はクラウドネイティブのミドルウェア開発および開発ツールの構築・導入。</t>
+  </si>
+  <si>
+    <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました。</t>
+  </si>
+  <si>
+    <t>For Your Happiness, Pleasure and Satisfaction</t>
+  </si>
+  <si>
+    <t>ティ・アイ・オーはIT技術を駆使し、常に「ユーザー目線」で提案をしている会社です。各産業分野における基幹業務、製造流通および金融分野における業務アプリケーションの『コンサルティング』から『画面デザイン』『システム設計』『システム構築』『運用・保守のサポート』まで、トータルサポート致します。Springを導入した物流システムの開発や、現場で使えるシステム運用・保守の『見える化』など各実績をご紹介致しますので、ご興味をお持ちの方、システムに関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
+  </si>
+  <si>
+    <t>タグバンガーズ入社1年目。DevチームにてWebアプリケーションのフロントエンド開発を担当。</t>
+  </si>
+  <si>
+    <t>タグバンガーズ入社5年目。DevチームにてWebアプリケーションの開発、マネジメントを担当。Java、Springはもちろん、技術のことならなんでも好き。ただのわさもん。</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://ashiras.xyz/" target="_blank" style="color: white;"&gt;&lt;p&gt;http://ashiras.xyz/&lt;/p&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>未定</t>
   </si>
   <si>
     <t>Springが提供する機能（フレームワーク）で良く使用される Spring Framework、Spring MVC、Spring Securityと Springとシームレスに連携できるO/R Mappingツールである MyBatisに対するユニットテストに関して ・自動テストのメリットについて ・どのようなテストが出来るか をデモを交えて紹介させて頂きます。
@@ -512,198 +691,7 @@
 〇：spring-security-testを使用してフォーム認証のテスト及びログアウトのテストを紹介します。</t>
   </si>
   <si>
-    <t>ハッシュタグ</t>
-  </si>
-  <si>
-    <t>アンケート</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>パート1(由利): DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、
-かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
-パート2(ござ先輩): 実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。
-以上です。よろしくお願い致します。</t>
-  </si>
-  <si>
-    <t>由利 誠</t>
-  </si>
-  <si>
-    <t>Docurain開発担当なんでも屋。趣味はバイクとキャンプと酒。
-イラスト作成も得意で、漫画家デビューしないかと大手出版社から勧誘されたことあり。ホントはKotlinじゃなくてScalaを書きたい。</t>
-  </si>
-  <si>
-    <t>株式会社クオリティスタート代表。ITプランナー。ネット上では「ござ先輩」として著名で、コラム等の執筆活動も行う。ちなヤク。</t>
-  </si>
-  <si>
-    <t>15, 16</t>
-  </si>
-  <si>
-    <t>佐川 夫美雄</t>
-  </si>
-  <si>
-    <t>ござ先輩 
-(湯本 堅隆)</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>sponsoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テクマトリックス </t>
-  </si>
-  <si>
-    <t>テクマトリックス </t>
-  </si>
-  <si>
-    <t>Jtestは、テスト工数の大幅削減とセキュアで高品質なJavaシステムの開発を強力にサポートするJava対応テストツールです。1,000個以上のコーディング規約をもとにソースコードを静的に解析し、プログラムの問題点や処理フローに潜む検出困難なエラーを検出します。さらに、JUnitを用いた単体テストについて、作成、実行、テストカバレッジ分析、テスト資産の管理といった単体テストに係る作業をサポートし、単体テストの効率化を促進します。
-JUnit単体テスト実装、メンテナンスにコストが掛かって困っているという方は、単体テスト機能のみをご利用いただけるリーズナブルなライセンスもご用意していおりますので、是非ブースまでお越しください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java対応静的解析・単体テストツール　「Jtest」
-</t>
-  </si>
-  <si>
-    <t>Spring単体テストの効率化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受託開発におけるハイアジリティへのとりくみ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寺島 秀樹
-</t>
-  </si>
-  <si>
-    <t>独立系システム開発会社、フリーランス、サービス系スタートアップ企業を経て2016年にBTCに入社。エンタープライズ系システム開発での経験が長く、アジャイルコーチとして開発プロジェクトのアジャイル化に携わる。
-Java、Groovy、特にSpringでの設計・実装を得意とし、近年はスクラムやテスト駆動開発などアジャイルプラクティスの導入・運用の支援やCI/CDなどの開発環境整備を得意とする。</t>
-  </si>
-  <si>
-    <t>ITサービスが企業のビジネスの中心となり久しい昨今、ビジネスを成功に導くため早期の意思決定はますます重要性が高まっています。それは受託開発でも変わりません
-* 開発に入る前の仮説検証プロセス
-* ミニマムなスコープ管理によるプロジェクト運営
-* Spring Boot と Spring Test
-* 仕様の見える化とテストファーストによる品質保証
-* 自動テストと向き合った新卒の半年間
-など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
-  </si>
-  <si>
-    <t>Spring Boot爆速開発超絶技巧</t>
-  </si>
-  <si>
-    <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
-このセッションでは「なんとなく使っていても気づきにくい」、Spring
-Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
-  </si>
-  <si>
-    <t>サムライズムはIntelliJ
-IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
-セッション聴講者の方から疑問点等あれば、回答させていただきます。
-</t>
-  </si>
-  <si>
-    <t>我々は日産が提供するコネクティドカーサービス「Nissan Connect」「Nissan Connect EV」を開発する部隊であり、サーバサイドをSpring Bootで開発しています。
-当ブースでは、上記アプリのご紹介や、開発プロセス等についてご紹介致します。
-IoTシステムの開発にご興味のある方・自動車好きの方・ソフトウェア内部に留まらない現実世界の「モノ」に繋がる開発に興味がある方は、是非ブースまでお越しください。我々は多くの仲間を求めています！</t>
-  </si>
-  <si>
-    <t>田中 竜介</t>
-  </si>
-  <si>
-    <t>長谷部 良輔</t>
-  </si>
-  <si>
-    <t>菊池 真登</t>
-  </si>
-  <si>
-    <t>楽天ペイ（オンライン決済）のアプリケーションエンジニアとして開発業務に携わっています。パブリッククラウドやコンテナオーケストラレーション、CI/CD などを良く触っています。</t>
-  </si>
-  <si>
-    <t>三宅 光太郎</t>
-  </si>
-  <si>
-    <t>土屋 大樹</t>
-  </si>
-  <si>
-    <t>入社以来、テスト効率化・自動化に関する業務に従事。現在はコンテナ・k8sを活用したCI/CDパイプラインの設計・開発を行っている。</t>
-  </si>
-  <si>
-    <t>Spring Social でソーシャルログインを実装する</t>
-  </si>
-  <si>
-    <t>最近ソーシャルログインを提供するサービスは増えてきています。Spring Social は各SNS 専用のライブラリが用意されていて、これらを使ってソーシャルログインを実装することができます。
-このセッションでは、このソーシャルログイン機能を提供するWebアプリケーションを実装する方法を紹介します。</t>
-  </si>
-  <si>
-    <t>19, 20</t>
-  </si>
-  <si>
-    <t>　大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
-  </si>
-  <si>
-    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
-　本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
-</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
-　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
-&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
-　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
-  </si>
-  <si>
-    <t>株式会社ビズリーチの取り組みとエンジニア組織</t>
-  </si>
-  <si>
-    <t>ランチセッション</t>
-  </si>
-  <si>
-    <t>トラブルシューティングツールの侍や、Twitter4JといったOSSを開発しているJavaエンジニア。株式会社サムライズムという会社の社長で、海外のプログラマ向けツールの日本国内展開を手がけています。</t>
-  </si>
-  <si>
-    <t>設樂 大悟</t>
-  </si>
-  <si>
-    <t>山﨑 大</t>
-  </si>
-  <si>
-    <t>21, 22</t>
-  </si>
-  <si>
-    <t>専門はクラウドネイティブのミドルウェア開発および開発ツールの構築・導入。</t>
-  </si>
-  <si>
-    <t>2013年 LINE入社。LINEの公式アカウントに関するサーバーサイドの開発を担当しています。以前はLINE Login, LINE Notify, LINE GAME Platformなどのサーバーサイド開発を担当していました。</t>
-  </si>
-  <si>
-    <t>For Your Happiness, Pleasure and Satisfaction</t>
-  </si>
-  <si>
-    <t>ティ・アイ・オーはIT技術を駆使し、常に「ユーザー目線」で提案をしている会社です。各産業分野における基幹業務、製造流通および金融分野における業務アプリケーションの『コンサルティング』から『画面デザイン』『システム設計』『システム構築』『運用・保守のサポート』まで、トータルサポート致します。Springを導入した物流システムの開発や、現場で使えるシステム運用・保守の『見える化』など各実績をご紹介致しますので、ご興味をお持ちの方、システムに関してお困りの方は、是非ブースにお立ち寄り下さい！</t>
-  </si>
-  <si>
-    <t>タグバンガーズ入社1年目。DevチームにてWebアプリケーションのフロントエンド開発を担当。</t>
-  </si>
-  <si>
-    <t>タグバンガーズ入社5年目。DevチームにてWebアプリケーションの開発、マネジメントを担当。Java、Springはもちろん、技術のことならなんでも好き。ただのわさもん。</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://ashiras.xyz/" target="_blank" style="color: white;"&gt;&lt;p&gt;http://ashiras.xyz/&lt;/p&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>未定</t>
+    <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1184,7 +1172,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1199,7 +1187,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1214,12 +1202,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1229,12 +1217,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1244,27 +1232,27 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1274,7 +1262,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1289,7 +1277,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1304,7 +1292,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1318,15 +1306,15 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1335,15 +1323,15 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1353,7 +1341,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1368,12 +1356,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1382,15 +1370,15 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1400,12 +1388,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1415,12 +1403,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1430,12 +1418,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1445,77 +1433,77 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1527,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1545,7 +1533,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1563,13 +1551,13 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1577,35 +1565,32 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1613,27 +1598,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1641,13 +1621,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1658,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1673,7 +1650,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1684,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="388">
@@ -1692,19 +1669,16 @@
         <v>102</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1">
@@ -1712,11 +1686,11 @@
         <v>7</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="409.6">
@@ -1724,10 +1698,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -1738,10 +1712,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1752,13 +1726,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1768,22 +1739,22 @@
       <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
       <c r="E16">
         <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
       <c r="E17">
         <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6">
@@ -1791,13 +1762,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>81</v>
+        <v>196</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1807,8 +1778,8 @@
       <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>124</v>
+      <c r="F19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1816,10 +1787,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1827,10 +1798,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1841,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1854,8 +1825,8 @@
       <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
+      <c r="F23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1866,15 +1837,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34">
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E25">
         <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1918,9 +1889,7 @@
       <c r="E29">
         <v>11</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5">
@@ -1936,8 +1905,8 @@
       <c r="A32" s="5">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
-        <v>108</v>
+      <c r="F32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1948,9 +1917,6 @@
       <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F29" r:id="rId1" xr:uid="{D41B3F61-566F-4246-A70D-CA31CEB9FF92}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1976,10 +1942,10 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1987,10 +1953,10 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2001,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2012,7 +1978,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2023,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2034,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2045,7 +2011,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2053,10 +2019,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2064,10 +2030,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2075,10 +2041,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2086,10 +2052,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2097,10 +2063,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2108,10 +2074,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2119,10 +2085,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2130,10 +2096,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2141,10 +2107,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2152,10 +2118,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2163,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2174,10 +2140,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2185,10 +2151,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2196,10 +2162,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2207,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2218,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2229,10 +2195,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2240,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2251,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2262,10 +2228,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2273,10 +2239,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2284,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2295,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2306,10 +2272,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2317,10 +2283,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2328,10 +2294,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2385,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2393,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2401,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2409,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2417,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2448,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2472,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2480,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2488,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2496,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2504,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2512,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2520,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2528,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2554,13 +2520,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85">
@@ -2568,10 +2534,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2579,10 +2545,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51">
@@ -2590,7 +2556,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2598,10 +2564,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2609,7 +2575,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2619,24 +2585,24 @@
     </row>
     <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
@@ -2644,7 +2610,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2659,18 +2625,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2701,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2732,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2746,13 +2712,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2760,13 +2726,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2774,13 +2740,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2788,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2802,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2810,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2818,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2826,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2834,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2842,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2850,13 +2816,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2864,13 +2830,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2878,13 +2844,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2892,13 +2858,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2906,13 +2872,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2920,13 +2886,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2934,13 +2900,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -2948,13 +2914,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2962,13 +2928,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -2976,13 +2942,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -2990,13 +2956,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C9DB2-E5D0-E249-B376-4E648A8BB747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9F889-8E1F-E743-B0CA-BFB3C82EDE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="205">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -692,6 +692,27 @@
   </si>
   <si>
     <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
+  </si>
+  <si>
+    <t>大野</t>
+  </si>
+  <si>
+    <t>長谷川</t>
+  </si>
+  <si>
+    <t>長谷川さん</t>
+  </si>
+  <si>
+    <t>大野さん</t>
+  </si>
+  <si>
+    <t>伊賀さん</t>
+  </si>
+  <si>
+    <t>土岐さん</t>
+  </si>
+  <si>
+    <t>進藤さん</t>
   </si>
 </sst>
 </file>
@@ -719,14 +740,6 @@
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -760,6 +773,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -778,9 +797,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -798,8 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -809,15 +826,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1454,7 +1471,7 @@
       <c r="A21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
@@ -1482,7 +1499,7 @@
       <c r="A23" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C23" t="s">
@@ -1515,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1575,7 +1592,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G3" t="s">
@@ -1637,7 +1654,7 @@
       <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>96</v>
       </c>
       <c r="E8">
@@ -1664,46 +1681,46 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="388">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="388">
+      <c r="A11" s="8">
         <v>102</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="10" customFormat="1">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" s="9" customFormat="1">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="409.6">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1725,7 +1742,7 @@
       <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1767,7 +1784,7 @@
       <c r="C18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E18">
@@ -1859,6 +1876,9 @@
       <c r="E26">
         <v>8</v>
       </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5">
@@ -1870,6 +1890,9 @@
       <c r="E27">
         <v>9</v>
       </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5">
@@ -1889,16 +1912,36 @@
       <c r="E29">
         <v>11</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5">
         <v>25</v>
       </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5">
         <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2437,7 +2480,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2498,7 +2541,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2635,7 +2678,7 @@
       <c r="B14" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2665,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2725,10 +2768,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2739,10 +2782,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -2963,6 +3006,22 @@
       </c>
       <c r="D23" s="2" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9F889-8E1F-E743-B0CA-BFB3C82EDE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A957A3F-81E9-B14F-9853-473C76DC9EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="208">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -713,6 +713,16 @@
   </si>
   <si>
     <t>進藤さん</t>
+  </si>
+  <si>
+    <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
+  </si>
+  <si>
+    <t>Springアプリケーションのテストにはたくさんの道具の選択肢があります。何を使えばいいか、いつ使うのが良いか、使い方はあっているか、使うべきでないとこらで使っていないか、、悩みは尽きません。
+本セッションではJUnitやSpringの機能、モック、Selenium、Dockerなどを使ったテストや、それらを使った際のありがちな問題、使うべきでない場面などをお話しします。</t>
+  </si>
+  <si>
+    <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A15" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1894,9 +1904,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="340">
       <c r="A28" s="5">
         <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2710,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2844,6 +2860,9 @@
       </c>
       <c r="B11" t="s">
         <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A957A3F-81E9-B14F-9853-473C76DC9EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5E1A2C-F374-3540-BFF1-96305883CE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -563,10 +563,6 @@
 Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
   </si>
   <si>
-    <t>サムライズムはIntelliJ
-IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
     <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
 セッション聴講者の方から疑問点等あれば、回答させていただきます。
 </t>
@@ -617,9 +613,6 @@
   <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
 </t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
@@ -723,6 +716,12 @@
   </si>
   <si>
     <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ</t>
+  </si>
+  <si>
+    <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1583,7 @@
         <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1625,14 +1624,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1648,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1714,7 +1713,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>118</v>
@@ -1792,7 +1791,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>51</v>
@@ -1887,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1901,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1909,10 +1908,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1929,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1943,7 +1942,7 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1957,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2566,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2604,29 +2603,29 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2634,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2658,10 +2657,10 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
@@ -2669,7 +2668,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2690,9 +2689,6 @@
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>180</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>130</v>
@@ -2726,7 +2722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2763,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2777,7 +2773,7 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2791,7 +2787,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2805,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2862,7 +2858,7 @@
         <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2878,13 +2874,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2906,13 +2902,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2962,13 +2958,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -2976,13 +2972,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2990,13 +2986,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3004,13 +3000,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3018,13 +3014,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3032,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3040,7 +3036,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5E1A2C-F374-3540-BFF1-96305883CE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF887B-962E-554A-9710-C10A548A1064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -2566,7 +2566,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B5:B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2663,13 +2663,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="s">
         <v>180</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9F889-8E1F-E743-B0CA-BFB3C82EDE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C566EB-238C-5248-A435-A77C93AAA79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="208">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -563,10 +563,6 @@
 Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
   </si>
   <si>
-    <t>サムライズムはIntelliJ
-IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
     <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
 セッション聴講者の方から疑問点等あれば、回答させていただきます。
 </t>
@@ -617,9 +613,6 @@
   <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
 </t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
@@ -713,6 +706,22 @@
   </si>
   <si>
     <t>進藤さん</t>
+  </si>
+  <si>
+    <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
+  </si>
+  <si>
+    <t>Springアプリケーションのテストにはたくさんの道具の選択肢があります。何を使えばいいか、いつ使うのが良いか、使い方はあっているか、使うべきでないとこらで使っていないか、、悩みは尽きません。
+本セッションではJUnitやSpringの機能、モック、Selenium、Dockerなどを使ったテストや、それらを使った際のありがちな問題、使うべきでない場面などをお話しします。</t>
+  </si>
+  <si>
+    <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ</t>
+  </si>
+  <si>
+    <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1574,7 +1583,7 @@
         <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1615,14 +1624,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1638,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1666,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1675,6 +1684,9 @@
         <v>101</v>
       </c>
       <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
@@ -1691,6 +1703,9 @@
       <c r="C11" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>148</v>
       </c>
@@ -1704,7 +1719,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>118</v>
@@ -1782,7 +1797,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>51</v>
@@ -1877,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1891,12 +1906,18 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="340">
       <c r="A28" s="5">
         <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1913,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1927,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1941,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2551,7 +2572,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2588,29 +2609,29 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2618,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2642,19 +2663,20 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -2674,9 +2696,6 @@
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>180</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>130</v>
@@ -2710,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2747,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2761,7 +2780,7 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2775,7 +2794,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2789,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2845,6 +2864,9 @@
       <c r="B11" t="s">
         <v>92</v>
       </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -2859,13 +2881,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2887,13 +2909,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2943,13 +2965,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -2957,13 +2979,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2971,13 +2993,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -2985,13 +3007,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -2999,13 +3021,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3013,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3021,7 +3043,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C566EB-238C-5248-A435-A77C93AAA79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D5CC40-C005-3246-91CF-D974EC323B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>11:00 - 11:45</t>
   </si>
   <si>
-    <t>For Beginner</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t>初心者</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1258,27 +1258,27 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1332,15 +1332,15 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1349,15 +1349,15 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1396,15 +1396,15 @@
         <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1414,12 +1414,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1459,77 +1459,77 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1559,7 +1559,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -1568,22 +1568,22 @@
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
       <c r="I1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1591,7 +1591,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20">
@@ -1602,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1624,14 +1624,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1639,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1647,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1661,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1684,13 +1684,13 @@
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="388">
@@ -1698,19 +1698,19 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1">
@@ -1719,10 +1719,10 @@
       </c>
       <c r="C12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
@@ -1730,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1744,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1794,13 +1794,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>51</v>
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1811,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1819,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1830,10 +1830,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1844,10 +1844,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1858,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1900,13 +1900,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1914,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1928,13 +1928,13 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1942,13 +1942,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1956,13 +1956,13 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1970,7 +1970,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2003,13 +2003,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2017,10 +2017,10 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2053,7 +2053,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2064,7 +2064,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2204,10 +2204,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2215,10 +2215,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2226,10 +2226,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2237,10 +2237,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2248,10 +2248,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2259,10 +2259,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2270,10 +2270,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2281,10 +2281,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2292,10 +2292,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2303,10 +2303,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2314,10 +2314,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2325,10 +2325,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2336,10 +2336,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2347,10 +2347,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2358,10 +2358,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2404,10 +2404,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2467,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2584,13 +2584,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85">
@@ -2598,10 +2598,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2609,10 +2609,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2620,10 +2620,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2631,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2639,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2649,24 +2649,24 @@
     </row>
     <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2690,15 +2690,15 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2743,16 +2743,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2788,13 +2788,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2830,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2838,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2862,10 +2862,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2873,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2895,13 +2895,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2909,13 +2909,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2923,13 +2923,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2937,13 +2937,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2951,13 +2951,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2965,13 +2965,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -2979,13 +2979,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -2993,13 +2993,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3007,13 +3007,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3021,13 +3021,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3035,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3043,7 +3043,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBD844-9D49-5B49-B97C-610020E6B85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FF0F2-3B2A-064D-B9E7-45C6545D56E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="214">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -610,12 +610,6 @@
   <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
 </t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
-　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
-&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
-　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Sprigをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
   </si>
   <si>
     <t>株式会社ビズリーチの取り組みとエンジニア組織</t>
@@ -708,20 +702,49 @@
     <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
   </si>
   <si>
-    <t>Springアプリケーションのテストにはたくさんの道具の選択肢があります。何を使えばいいか、いつ使うのが良いか、使い方はあっているか、使うべきでないとこらで使っていないか、、悩みは尽きません。
+    <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ</t>
+  </si>
+  <si>
+    <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t>初心者</t>
+  </si>
+  <si>
+    <t>Springアプリケーションのテストにはたくさんの道具の選択肢があります。何を使えばいいか、いつ使うのが良いか、使い方はあっているか、使うべきでないところで使っていないか、、悩みは尽きません。
 本セッションではJUnitやSpringの機能、モック、Selenium、Dockerなどを使ったテストや、それらを使った際のありがちな問題、使うべきでない場面などをお話しします。</t>
   </si>
   <si>
-    <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
-  </si>
-  <si>
-    <t>サムライズムはIntelliJ</t>
-  </si>
-  <si>
-    <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
-    <t>初心者</t>
+    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
+　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
+&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
+　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Springをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t>ローコード開発プラットフォームと、ドメイン駆動設計と、Springの関係</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本で"超高速開発”と位置付けられていたツール群が、あらためて"ローコード開発プラットフォーム”という視点で再編成されつつあります。一方、Spring界隈では、業務系のシステム開発分野へドメイン駆動設計を適用するアプローチが注目されています。ローコード開発プラットフォーム、ドメイン駆動設計、そしてSpringの関係をどう読みといていくのか。Wagbyを題材に説明します。
+</t>
+  </si>
+  <si>
+    <t>贄 良則</t>
+  </si>
+  <si>
+    <t>ジャスミンソフト社長。Wagbyのコンセプトデザイン、アーキテクチャ設計を行う。ローコード開発コミュニティ幹事。</t>
+  </si>
+  <si>
+    <t>Spring with React for Enterprise Application</t>
+  </si>
+  <si>
+    <t>Enterprise な アプリケーションにおいてもデザイン性、使い勝手に対する要求は高まってきています。
+その要求を Spring と React を使って実現する方法をお話します。
+・EventStorming を用いたモデリング
+・Backend と Frontend を並行して開発する by Spring and React
+・Contract による変化に強い開発チーム</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1583,7 +1606,7 @@
         <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1675,19 +1698,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>180</v>
-      </c>
       <c r="F9" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="340">
       <c r="A10" s="5">
         <v>101</v>
       </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
@@ -1706,6 +1735,9 @@
       <c r="C11" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>147</v>
       </c>
@@ -1713,13 +1745,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1">
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
       <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E12" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>117</v>
@@ -1797,10 +1834,10 @@
         <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1886,13 +1923,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1900,13 +1937,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1914,10 +1951,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1928,13 +1965,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1942,13 +1979,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1956,13 +1993,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2571,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2609,10 +2646,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2620,10 +2657,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2631,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2674,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2727,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2766,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2780,7 +2817,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2794,7 +2831,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2808,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2865,7 +2902,7 @@
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2887,7 +2924,7 @@
         <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2915,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2985,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3007,13 +3044,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3021,13 +3058,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3035,7 +3072,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3043,7 +3080,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FF0F2-3B2A-064D-B9E7-45C6545D56E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740C0DF-8842-BA46-98AD-6C427F4F8F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740C0DF-8842-BA46-98AD-6C427F4F8F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A1972-0A80-4E49-AE69-FFAD40472A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3580" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="216">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>nissan</t>
-  </si>
-  <si>
-    <t>Josh</t>
   </si>
   <si>
     <t>山本</t>
@@ -436,10 +433,6 @@
     <t>Enterprise Angular Development (仮)</t>
   </si>
   <si>
-    <t>エンタープライズでも近年、Webアプリケーション開発ではReactやAngularが利用されるようになってきました。大規模な何百億円プロジェクトでもAngularを採用し開発を進める事例も出始めています。ここでは、そういったプロジェクトを上手く回すためのコツを簡単にご紹介致します。
-講師プロフィール：エンタープライズ業界にWebを広めるべく日々奮闘。COBOLでの生産管理/会計システムから始まり、Oracle Databaseでの物流系DB設計&amp;実装、Javaフレームワーク/品質管理システム開発など経験。現在はWebの魅力に取り憑かれ、html5jやAngular Japan User Group などコミュニティ活動を積極的に行っている。</t>
-  </si>
-  <si>
     <t>Angular を使ったアプリケーション開発のデモを致します。Angularは、モバイルおよびデスクトップWebアプリケーションを構築するためのプラットフォームです。</t>
   </si>
   <si>
@@ -646,9 +639,6 @@
   </si>
   <si>
     <t>タグバンガーズ入社5年目。DevチームにてWebアプリケーションの開発、マネジメントを担当。Java、Springはもちろん、技術のことならなんでも好き。ただのわさもん。</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://ashiras.xyz/" target="_blank" style="color: white;"&gt;&lt;p&gt;http://ashiras.xyz/&lt;/p&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>未定</t>
@@ -745,6 +735,22 @@
 ・EventStorming を用いたモデリング
 ・Backend と Frontend を並行して開発する by Spring and React
 ・Contract による変化に強い開発チーム</t>
+  </si>
+  <si>
+    <t>エンタープライズ業界にWebを広めるべく日々奮闘。COBOLでの生産管理/会計システムから始まり、Oracle Databaseでの物流系DB設計&amp;実装、Javaフレームワーク/品質管理システム開発など経験。現在はWebの魅力に取り憑かれ、html5jやAngular Japan User Group などコミュニティ活動を積極的に行っている。</t>
+  </si>
+  <si>
+    <t>エンタープライズでも近年、Webアプリケーション開発ではサーバサイドはSpring Boot、クライアントサイドではReactやAngularが利用されるようになってきました。大規模な何百億円プロジェクトでもAngularを採用し開発を進める事例も出始めています。ここでは、そういったプロジェクトを上手く回すためのコツを簡単にご紹介致します。</t>
+  </si>
+  <si>
+    <t>Josh Long</t>
+  </si>
+  <si>
+    <t>Reactive Spring</t>
+  </si>
+  <si>
+    <t>Microservices and big-data increasingly confront us with the limitations of traditional input/output. In traditional IO, work that is IO-bound dominates threads. This wouldn't be such a big deal if we could add more threads cheaply, but threads are expensive on the JVM, and most other platforms. Even if threads were cheap and infinitely scalable, we'd still be confronted with the faulty nature of networks. Things break, and they often do so in subtle, but non-exceptional ways. Traditional approaches to integration bury the faulty nature of networks behind overly simplifying abstractions. We need something better.
+Spring Framework 5 is here ! It introduces the Spring developer to a growing world of support for reactive programming across the Spring portfolio, starting with a new Netty-based web runtime, component model and module called Spring WebFlux, and then continuing to Spring Data Kay, Spring Security, Spring Boot, and Spring Cloud Finchley. Sure, it sounds like a lot, but don't worry! Join me, your guide, Spring developer advocate Josh Long, and we'll explore the wacky, wonderful world of Reactive Spring together.</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1212,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1221,7 +1227,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1236,7 +1242,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1251,12 +1257,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1266,12 +1272,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1281,12 +1287,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1296,12 +1302,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1311,7 +1317,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1326,7 +1332,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1341,7 +1347,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1358,12 +1364,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1375,12 +1381,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1390,7 +1396,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1405,12 +1411,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1422,12 +1428,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1437,12 +1443,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1452,12 +1458,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1467,12 +1473,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1482,12 +1488,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -1496,12 +1502,12 @@
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>80</v>
@@ -1510,12 +1516,12 @@
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -1524,26 +1530,26 @@
         <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1552,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1600,13 +1606,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1625,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1639,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1647,14 +1653,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1662,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1670,10 +1676,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1684,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1699,7 +1705,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="F9" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="340">
@@ -1707,13 +1713,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1722,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="388">
@@ -1733,16 +1739,16 @@
         <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1750,27 +1756,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
       <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1781,10 +1787,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1795,18 +1801,24 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="409.6">
       <c r="A16" s="5">
         <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1831,13 +1843,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1848,7 +1860,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1856,10 +1868,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1867,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1881,10 +1893,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1895,7 +1907,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1914,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1923,13 +1935,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1937,13 +1949,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1951,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1965,13 +1977,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1979,13 +1991,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1993,13 +2005,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2007,7 +2019,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2057,7 +2069,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2068,7 +2080,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2079,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2090,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2120,10 +2132,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2131,10 +2143,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2142,10 +2154,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2153,10 +2165,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2164,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2175,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2186,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2197,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2208,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2219,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2230,10 +2242,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2241,10 +2253,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2252,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2263,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2274,10 +2286,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2285,10 +2297,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2296,7 +2308,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2307,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2318,10 +2330,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2329,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2340,7 +2352,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2351,10 +2363,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2362,10 +2374,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2373,7 +2385,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2384,7 +2396,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2395,10 +2407,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2456,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2452,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2460,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2468,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2539,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2547,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2555,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2563,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2571,7 +2583,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2579,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2587,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2595,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +2647,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2646,10 +2658,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2657,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2668,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2676,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2689,10 +2701,10 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2700,10 +2712,10 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2711,7 +2723,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2735,7 +2747,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2766,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2797,13 +2809,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2811,13 +2820,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2825,13 +2834,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2839,13 +2848,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2856,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>75</v>
@@ -2867,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2875,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2883,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2891,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2899,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2910,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2918,13 +2927,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2932,13 +2941,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2946,13 +2955,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2960,13 +2969,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2974,13 +2983,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2988,13 +2997,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3002,13 +3011,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3016,13 +3025,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3030,13 +3039,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3044,13 +3053,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3058,13 +3067,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3072,7 +3081,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3080,7 +3089,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3088,13 +3097,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A1972-0A80-4E49-AE69-FFAD40472A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3551CC5-AB87-6F49-803F-440229F79F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>山本</t>
-  </si>
-  <si>
-    <t>Stéphane</t>
   </si>
   <si>
     <t>槙</t>
@@ -639,9 +636,6 @@
   </si>
   <si>
     <t>タグバンガーズ入社5年目。DevチームにてWebアプリケーションの開発、マネジメントを担当。Java、Springはもちろん、技術のことならなんでも好き。ただのわさもん。</t>
-  </si>
-  <si>
-    <t>未定</t>
   </si>
   <si>
     <t>Springが提供する機能（フレームワーク）で良く使用される Spring Framework、Spring MVC、Spring Securityと Springとシームレスに連携できるO/R Mappingツールである MyBatisに対するユニットテストに関して ・自動テストのメリットについて ・どのようなテストが出来るか をデモを交えて紹介させて頂きます。
@@ -751,6 +745,15 @@
   <si>
     <t>Microservices and big-data increasingly confront us with the limitations of traditional input/output. In traditional IO, work that is IO-bound dominates threads. This wouldn't be such a big deal if we could add more threads cheaply, but threads are expensive on the JVM, and most other platforms. Even if threads were cheap and infinitely scalable, we'd still be confronted with the faulty nature of networks. Things break, and they often do so in subtle, but non-exceptional ways. Traditional approaches to integration bury the faulty nature of networks behind overly simplifying abstractions. We need something better.
 Spring Framework 5 is here ! It introduces the Spring developer to a growing world of support for reactive programming across the Spring portfolio, starting with a new Netty-based web runtime, component model and module called Spring WebFlux, and then continuing to Spring Data Kay, Spring Security, Spring Boot, and Spring Cloud Finchley. Sure, it sounds like a lot, but don't worry! Join me, your guide, Spring developer advocate Josh Long, and we'll explore the wacky, wonderful world of Reactive Spring together.</t>
+  </si>
+  <si>
+    <t>Stéphane Nicoll</t>
+  </si>
+  <si>
+    <t>Stéphane has a thing for code quality and robustness. He's been spreading the word for more than ten years while developing large scale Java enterprise applications in the geospatial, financial, or logistics sectors. An Apache Maven PMC member since 2006, he joined the core Spring Framework development team early 2014, being one of the main contributors to both Spring Framework and Spring Boot since. During his free time, he loves traveling around the world.</t>
+  </si>
+  <si>
+    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: white;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: white;"&gt;&lt;b&gt;A Bootiful Podcast&lt;/b&gt;&lt;/a&gt;" , host of the "&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: white;"&gt;&lt;b&gt;Spring Tips Videos&lt;/b&gt;&lt;/a&gt;", co-author of 6+ &lt;a href="http://joshlong.com/books.html" target="_blank" style="color: white;"&gt;&lt;b&gt;books&lt;/b&gt;&lt;/a&gt;, and instructor on 8+ &lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: white;"&gt;&lt;b&gt;Livelessons Training Videos&lt;/b&gt;&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1215,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1227,7 +1230,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1242,7 +1245,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1257,12 +1260,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1272,12 +1275,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1287,12 +1290,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1302,12 +1305,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1347,7 +1350,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1364,12 +1367,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1381,12 +1384,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1396,7 +1399,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1411,12 +1414,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1428,12 +1431,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1443,12 +1446,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1458,12 +1461,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1473,12 +1476,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1488,12 +1491,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -1502,12 +1505,12 @@
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>80</v>
@@ -1516,12 +1519,12 @@
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -1530,26 +1533,26 @@
         <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1558,7 +1561,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1570,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1606,13 +1609,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
-        <v>139</v>
-      </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1631,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1645,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1653,14 +1656,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1668,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1676,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1690,10 +1693,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1705,7 +1708,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="F9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="340">
@@ -1713,13 +1716,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1728,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="388">
@@ -1739,16 +1742,16 @@
         <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1756,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1773,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1787,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1801,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1815,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1843,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1860,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1868,10 +1871,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1879,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1893,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1907,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1926,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1935,13 +1938,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1949,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1963,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1977,13 +1980,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1991,13 +1994,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2005,13 +2008,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2019,7 +2022,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2069,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2080,7 +2083,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2091,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2102,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2132,10 +2135,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2143,10 +2146,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2154,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2165,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2176,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2187,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2198,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2209,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2220,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2231,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2242,10 +2245,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2253,10 +2256,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2264,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2275,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2286,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2297,10 +2300,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2308,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2319,7 +2322,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2330,10 +2333,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2341,7 +2344,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2352,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2363,10 +2366,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2374,10 +2377,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2385,7 +2388,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2396,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2407,10 +2410,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2459,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2464,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2472,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2480,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2551,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2559,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2567,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2575,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2583,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2591,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2599,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2607,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2647,10 +2650,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2658,10 +2661,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2669,10 +2672,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2680,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2688,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2701,10 +2704,10 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2712,10 +2715,10 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2723,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2747,7 +2750,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2778,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2809,10 +2812,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2820,13 +2826,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2837,10 +2843,10 @@
         <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2848,13 +2854,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2865,7 +2871,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>75</v>
@@ -2876,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2884,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2892,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2900,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2908,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2919,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2927,13 +2933,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2941,13 +2947,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2955,13 +2961,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2969,13 +2975,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2983,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -2997,13 +3003,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3011,13 +3017,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3025,13 +3031,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3039,13 +3045,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3053,13 +3059,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3067,13 +3073,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3081,7 +3087,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3089,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3097,13 +3103,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3551CC5-AB87-6F49-803F-440229F79F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409F342-D2F7-9243-A3CB-0C10B2DB4637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>https://www.tagbangers.co.jp</t>
   </si>
   <si>
-    <t>Root42</t>
-  </si>
-  <si>
     <t>JavaやPythonのIT講師をしています。相手に興味を引かせるように講義する至難の業を追求し、日々精進中です。</t>
   </si>
   <si>
@@ -472,12 +469,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>パート1(由利): DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、
-かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
-パート2(ござ先輩): 実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。
-以上です。よろしくお願い致します。</t>
-  </si>
-  <si>
     <t>由利 誠</t>
   </si>
   <si>
@@ -592,10 +583,6 @@
   </si>
   <si>
     <t>　大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
-  </si>
-  <si>
-    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
-　本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
   </si>
   <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
@@ -753,7 +740,20 @@
     <t>Stéphane has a thing for code quality and robustness. He's been spreading the word for more than ten years while developing large scale Java enterprise applications in the geospatial, financial, or logistics sectors. An Apache Maven PMC member since 2006, he joined the core Spring Framework development team early 2014, being one of the main contributors to both Spring Framework and Spring Boot since. During his free time, he loves traveling around the world.</t>
   </si>
   <si>
-    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: white;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: white;"&gt;&lt;b&gt;A Bootiful Podcast&lt;/b&gt;&lt;/a&gt;" , host of the "&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: white;"&gt;&lt;b&gt;Spring Tips Videos&lt;/b&gt;&lt;/a&gt;", co-author of 6+ &lt;a href="http://joshlong.com/books.html" target="_blank" style="color: white;"&gt;&lt;b&gt;books&lt;/b&gt;&lt;/a&gt;, and instructor on 8+ &lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: white;"&gt;&lt;b&gt;Livelessons Training Videos&lt;/b&gt;&lt;/a&gt;.</t>
+    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: white;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "A Bootiful Podcast" (&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: white;"&gt;&lt;b&gt;https://soundcloud.com/a-bootiful-podcast&lt;/b&gt;&lt;/a&gt;), host of the "Spring Tips Videos" (&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: white;"&gt;&lt;b&gt;http://bit.ly/spring-tips-playlist&lt;/b&gt;&lt;/a&gt;), co-author of 6+ books (&lt;a href="http://joshlong.com/books.html" target="_blank" style="color: white;"&gt;&lt;b&gt;http://joshlong.com/books.html&lt;/b&gt;&lt;/a&gt;), and instructor on 8+ Livelessons Training Videos (&lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: white;"&gt;&lt;b&gt;http://joshlong.com/livelessons.html&lt;/b&gt;&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>パート1(由利):
+DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
+パート2(ござ先輩):
+実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。</t>
+  </si>
+  <si>
+    <t>帳票開発が苦痛なエンジニア大集合！豪華「人形町今半」の弁当付き！その代わり、少し宣伝を聞いてください！</t>
+  </si>
+  <si>
+    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
+本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1290,12 +1290,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1367,12 +1367,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1384,12 +1384,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1431,12 +1431,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1491,68 +1491,68 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1561,7 +1561,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1609,13 +1609,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1634,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1656,14 +1656,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1679,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1693,10 +1693,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="F9" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="340">
@@ -1716,13 +1716,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1731,27 +1731,27 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="388">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="340">
       <c r="A11" s="8">
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1759,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1776,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1790,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1804,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1818,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1846,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1863,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1871,10 +1871,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1896,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1910,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1938,13 +1938,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1952,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1966,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1980,13 +1980,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1994,13 +1994,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2008,13 +2008,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2022,7 +2022,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2135,10 +2135,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2146,10 +2146,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2157,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2168,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2190,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2201,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2212,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2234,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2245,10 +2245,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2256,10 +2256,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2278,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2289,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2300,10 +2300,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2322,7 +2322,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2333,10 +2333,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2355,7 +2355,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2366,10 +2366,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2377,10 +2377,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2399,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2410,10 +2410,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2459,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2650,10 +2650,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2672,10 +2672,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2683,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -2691,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2701,24 +2701,24 @@
     </row>
     <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2742,15 +2742,15 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2807,18 +2807,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="306">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>216</v>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2826,13 +2826,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2840,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2854,13 +2854,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2868,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2914,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2947,13 +2947,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2975,13 +2975,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2989,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3003,13 +3003,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3031,13 +3031,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3045,13 +3045,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3059,13 +3059,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3073,13 +3073,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3087,7 +3087,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3095,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3103,13 +3103,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409F342-D2F7-9243-A3CB-0C10B2DB4637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B4A93-81E8-FB48-8E12-A427279A9902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -740,9 +740,6 @@
     <t>Stéphane has a thing for code quality and robustness. He's been spreading the word for more than ten years while developing large scale Java enterprise applications in the geospatial, financial, or logistics sectors. An Apache Maven PMC member since 2006, he joined the core Spring Framework development team early 2014, being one of the main contributors to both Spring Framework and Spring Boot since. During his free time, he loves traveling around the world.</t>
   </si>
   <si>
-    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: white;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "A Bootiful Podcast" (&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: white;"&gt;&lt;b&gt;https://soundcloud.com/a-bootiful-podcast&lt;/b&gt;&lt;/a&gt;), host of the "Spring Tips Videos" (&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: white;"&gt;&lt;b&gt;http://bit.ly/spring-tips-playlist&lt;/b&gt;&lt;/a&gt;), co-author of 6+ books (&lt;a href="http://joshlong.com/books.html" target="_blank" style="color: white;"&gt;&lt;b&gt;http://joshlong.com/books.html&lt;/b&gt;&lt;/a&gt;), and instructor on 8+ Livelessons Training Videos (&lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: white;"&gt;&lt;b&gt;http://joshlong.com/livelessons.html&lt;/b&gt;&lt;/a&gt;).</t>
-  </si>
-  <si>
     <t>パート1(由利):
 DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
 パート2(ござ先輩):
@@ -754,6 +751,9 @@
   <si>
     <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
 本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
+  </si>
+  <si>
+    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "A Bootiful Podcast" (&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;https://soundcloud.com/a-bootiful-podcast&lt;/b&gt;&lt;/a&gt;), host of the "Spring Tips Videos" (&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://bit.ly/spring-tips-playlist&lt;/b&gt;&lt;/a&gt;), co-author of 6+ books (&lt;a href="http://joshlong.com/books.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/books.html&lt;/b&gt;&lt;/a&gt;), and instructor on 8+ Livelessons Training Videos (&lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/livelessons.html&lt;/b&gt;&lt;/a&gt;).</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +1659,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
@@ -1739,10 +1739,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
         <v>173</v>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2807,7 +2807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="306">
+    <row r="2" spans="1:4" ht="365" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B4A93-81E8-FB48-8E12-A427279A9902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50300CF-C39E-7F43-A359-21BA1FFD5799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="218">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -421,9 +421,6 @@
     <t>sola city Hall (EAST)</t>
   </si>
   <si>
-    <t>Lunch Session (11:45 - 12:30)</t>
-  </si>
-  <si>
     <t>Enterprise Angular Development (仮)</t>
   </si>
   <si>
@@ -539,11 +536,6 @@
     <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
 このセッションでは「なんとなく使っていても気づきにくい」、Spring
 Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パンフレット等用いながら、ご来場者様へ研修サービスのご紹介をするほか、
-セッション聴講者の方から疑問点等あれば、回答させていただきます。
-</t>
   </si>
   <si>
     <t>我々は日産が提供するコネクティドカーサービス「Nissan Connect」「Nissan Connect EV」を開発する部隊であり、サーバサイドをSpring Bootで開発しています。
@@ -740,20 +732,31 @@
     <t>Stéphane has a thing for code quality and robustness. He's been spreading the word for more than ten years while developing large scale Java enterprise applications in the geospatial, financial, or logistics sectors. An Apache Maven PMC member since 2006, he joined the core Spring Framework development team early 2014, being one of the main contributors to both Spring Framework and Spring Boot since. During his free time, he loves traveling around the world.</t>
   </si>
   <si>
-    <t>パート1(由利):
+    <t>帳票開発が苦痛なエンジニア大集合！豪華「人形町今半」の弁当付き！その代わり、少し宣伝を聞いてください！</t>
+  </si>
+  <si>
+    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
+本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
+  </si>
+  <si>
+    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "A Bootiful Podcast" (&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;https://soundcloud.com/a-bootiful-podcast&lt;/b&gt;&lt;/a&gt;), host of the "Spring Tips Videos" (&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://bit.ly/spring-tips-playlist&lt;/b&gt;&lt;/a&gt;), co-author of 6+ books (&lt;a href="http://joshlong.com/books.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/books.html&lt;/b&gt;&lt;/a&gt;), and instructor on 8+ Livelessons Training Videos (&lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/livelessons.html&lt;/b&gt;&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>名刺を1枚頂戴します。お忘れの場合は氏名と所属企業名をメールで送信して頂くことによる確認手続きが発生します。
+パート1(由利):
 DocurainはSpringBoot&amp;サーバサイドKotlinベースのFaaSで、マイクロサービスアーキテクチャ、かつEC2インスタンスが百個単位で動く大規模クラスターです。開発・運用で得られたノウハウを少しご紹介します。
 パート2(ござ先輩):
 実際の帳票開発シーンにおいてDocurainがどのように活用されているか、実案件例を交えてご紹介します。</t>
   </si>
   <si>
-    <t>帳票開発が苦痛なエンジニア大集合！豪華「人形町今半」の弁当付き！その代わり、少し宣伝を聞いてください！</t>
-  </si>
-  <si>
-    <t>NRIでは社内の多くのプロジェクトでSpring Frameworkを利用したアプリケーションを開発しています。
-本セッションではアプリケーション開発に欠かせないDevOpsに着目して、大規模プロジェクトでのコンテナ技術を活用したビルドやテストに関する事例を中心に、苦労した点や工夫した点をご紹介します。</t>
-  </si>
-  <si>
-    <t>Josh (&lt;a href="https://twitter.com/starbuxman" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;@starbuxman&lt;/b&gt;&lt;/a&gt;) is the Spring Developer Advocate at Pivotal and a Java Champion. He's host of "A Bootiful Podcast" (&lt;a href="https://soundcloud.com/a-bootiful-podcast" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;https://soundcloud.com/a-bootiful-podcast&lt;/b&gt;&lt;/a&gt;), host of the "Spring Tips Videos" (&lt;a href="http://bit.ly/spring-tips-playlist" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://bit.ly/spring-tips-playlist&lt;/b&gt;&lt;/a&gt;), co-author of 6+ books (&lt;a href="http://joshlong.com/books.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/books.html&lt;/b&gt;&lt;/a&gt;), and instructor on 8+ Livelessons Training Videos (&lt;a href="http://joshlong.com/livelessons.html" target="_blank" style="color: #c7fbff;"&gt;&lt;b&gt;http://joshlong.com/livelessons.html&lt;/b&gt;&lt;/a&gt;).</t>
+    <t>創る、学べる、カサレアル 　＼Springコーステキスト持ってきました！／</t>
+  </si>
+  <si>
+    <t>カサレアルは研修を通じて、効率的な最新技術導入の支援を行っております。開発部門を持っていることから、現場ですぐに使える技術を身につけていただくことをモットーに、様々なプログラマの研修コースをご用意しております。
+ブースではSpring研修をはじめとする研修サービスや、クラウドネイティブ開発の支援サービスについてご紹介いたします。実際にSpring研修で使用しているテキストもご覧いただけますので、ぜひお立ち寄り下さい！</t>
+  </si>
+  <si>
+    <t>Lunch Session (11:55 - 12:40)</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1230,7 +1233,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1245,7 +1248,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1260,7 +1263,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
@@ -1275,7 +1278,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -1290,12 +1293,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1305,12 +1308,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1335,7 +1338,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1350,7 +1353,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1367,12 +1370,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1384,7 +1387,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
@@ -1399,7 +1402,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1414,12 +1417,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1431,12 +1434,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
@@ -1461,7 +1464,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
@@ -1476,12 +1479,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1491,7 +1494,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1505,12 +1508,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1519,7 +1522,7 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1533,12 +1536,12 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>93</v>
@@ -1547,7 +1550,7 @@
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1561,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1609,13 +1612,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1637,10 +1640,10 @@
         <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1656,14 +1659,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1679,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1716,13 +1719,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1731,27 +1734,27 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="340">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
       <c r="A11" s="8">
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1759,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>114</v>
@@ -1776,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1790,10 +1793,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1804,10 +1807,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1818,10 +1821,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1846,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1871,10 +1874,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1885,7 +1888,7 @@
         <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1929,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1938,13 +1941,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1952,13 +1955,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1966,10 +1969,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -1980,13 +1983,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1994,13 +1997,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2008,13 +2011,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2041,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2094,7 +2097,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2105,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2135,10 +2138,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2146,10 +2149,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2204,7 +2207,7 @@
         <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2215,7 +2218,7 @@
         <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2248,7 +2251,7 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2259,7 +2262,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2292,7 +2295,7 @@
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2303,7 +2306,7 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2336,7 +2339,7 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2369,7 +2372,7 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2380,7 +2383,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2512,7 +2515,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2554,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2624,7 +2627,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2661,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2672,10 +2675,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2683,15 +2686,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="68">
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2704,10 +2710,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2715,10 +2721,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2726,7 +2732,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2750,7 +2756,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2764,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
           <x14:formula1>
             <xm:f>companies!$C$2:$C$24</xm:f>
@@ -2781,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2812,13 +2818,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2826,13 +2832,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2843,10 +2849,10 @@
         <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2854,13 +2860,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2871,7 +2877,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -2917,7 +2923,7 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2933,13 +2939,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2950,7 +2956,7 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
@@ -2961,13 +2967,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -2975,13 +2981,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -2989,13 +2995,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3003,13 +3009,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3017,13 +3023,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3031,13 +3037,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3045,13 +3051,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3059,13 +3065,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3073,13 +3079,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3087,7 +3093,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3095,7 +3101,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3103,13 +3109,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50300CF-C39E-7F43-A359-21BA1FFD5799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11E194-5A69-7F4F-87EA-89ECAB95121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="222">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -757,6 +757,22 @@
   </si>
   <si>
     <t>Lunch Session (11:55 - 12:40)</t>
+  </si>
+  <si>
+    <t>須江 信洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarkus による超音速な Spring アプリケーション開発
+</t>
+  </si>
+  <si>
+    <t>Quarkus はSupersonic. Subatomic. Javaを理念に設計され、Cloud Native, Microservices, ServerlessのJavaアプリケーションを作成するための開発者向けに最適化された凝縮性の高いプラットフォームです。これらはQuarkusが低メモリ消費、高速起動に最適化されていることを意味しています。
+本セッションでは、Quarkus の紹介に加え、Springを使用してQuarkusアプリケーションを開発する流れを紹介します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テクニカルセールス本部
+Associate Principal Solution Architect
+</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A22" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1908,12 +1924,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="388">
       <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
-        <v>118</v>
+      <c r="B23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2044,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2785,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3116,6 +3138,20 @@
       </c>
       <c r="D26" s="2" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11E194-5A69-7F4F-87EA-89ECAB95121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FA36A6-89A2-3E48-9F70-1A113357287B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-33600" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="223">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -773,6 +773,9 @@
     <t xml:space="preserve">テクニカルセールス本部
 Associate Principal Solution Architect
 </t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1849,9 +1852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="17">
       <c r="A17" s="5">
         <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2809,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FA36A6-89A2-3E48-9F70-1A113357287B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F13E5B-76E0-604C-B43B-E489305C8675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="223">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1848,9 +1848,6 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" spans="1:6" ht="17">
       <c r="A17" s="5">
@@ -1864,9 +1861,6 @@
       </c>
       <c r="E17">
         <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F13E5B-76E0-604C-B43B-E489305C8675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FFC54-65AD-D549-8DAB-434EAAE814D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="3280" yWindow="800" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -288,13 +288,7 @@
     <t>nissan</t>
   </si>
   <si>
-    <t>山本</t>
-  </si>
-  <si>
     <t>槙</t>
-  </si>
-  <si>
-    <t>岩塚</t>
   </si>
   <si>
     <t>進藤</t>
@@ -379,18 +373,12 @@
     <t>19:15 - 20:45</t>
   </si>
   <si>
-    <t>NTT Data</t>
-  </si>
-  <si>
     <t>ウルシステムズ</t>
   </si>
   <si>
     <t>楽天</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>ビッグツリーコンサルティング</t>
   </si>
   <si>
@@ -428,9 +416,6 @@
   </si>
   <si>
     <t>LINEでは、企業･個店向けに公式アカウントというもの提供しています。公式アカウントでは多種多様な機能を提供しているのですが、その中の一つにチャット機能があります。そのチャットシステムにおける、Springの活用事例やアーキテクチャなどをご紹介致します。</t>
-  </si>
-  <si>
-    <t>GraalVM Native Image関連</t>
   </si>
   <si>
     <t>カサレアル</t>
@@ -533,11 +518,6 @@
     <t>Spring Boot爆速開発超絶技巧</t>
   </si>
   <si>
-    <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
-このセッションでは「なんとなく使っていても気づきにくい」、Spring
-Bootアプリケーションを開発する上で欠かせないキーボードショートカット、Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
-  </si>
-  <si>
     <t>我々は日産が提供するコネクティドカーサービス「Nissan Connect」「Nissan Connect EV」を開発する部隊であり、サーバサイドをSpring Bootで開発しています。
 当ブースでは、上記アプリのご紹介や、開発プロセス等についてご紹介致します。
 IoTシステムの開発にご興味のある方・自動車好きの方・ソフトウェア内部に留まらない現実世界の「モノ」に繋がる開発に興味がある方は、是非ブースまでお越しください。我々は多くの仲間を求めています！</t>
@@ -572,9 +552,6 @@
   </si>
   <si>
     <t>19, 20</t>
-  </si>
-  <si>
-    <t>　大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
   </si>
   <si>
     <t xml:space="preserve">日産コネクティドカーサービスの開発者募集！
@@ -668,12 +645,6 @@
     <t>大阪在住のふつうのプログラマです。 Javaエンジニア養成読本でJava入門とかWEB+DB PRESSでJavaの新定石とか書きました。</t>
   </si>
   <si>
-    <t>サムライズムはIntelliJ</t>
-  </si>
-  <si>
-    <t>IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
     <t>初心者</t>
   </si>
   <si>
@@ -775,14 +746,119 @@
 </t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>ストレスレスな Spring Boot を使った Web アプリケーション開発環境。Jib, Skaffold, Google Kubernetes Engine, Docker, Cloud Code などの紹介。</t>
+  </si>
+  <si>
+    <t>Spring Developer のための コンテナ入門</t>
+  </si>
+  <si>
+    <t>Microservices や CI/CD Cloud Native といったキーワードで注目度の高まっているコンテナ技術ですが、本セッションではコンテナを使ったことがない、またはほとんど知らない方向けに、コンテナそのものの概要に加え、コンテナオーケストレーターの役割、アプリケーション開発者がコンテナを活用することによるメリットを紹介します。また、実際に Spring アプリケーションをどのように Kubernetes 上にデプロイするかをデモを交えてご紹介します。
+コンテナ技術概要
+なぜ Kubernetes が必要になったのか
+コンテナオーケストレーターとその役割
+Kubernetes のアーキテクチャ
+Spring アプリケーションを簡単にKubernetes 上にデプロイするデモ
+まとめ
+Kubernetes というワードはよく聞くけど実はよくわかっていないという方はぜひお越しください！</t>
+  </si>
+  <si>
+    <t>塚越 啓介</t>
+  </si>
+  <si>
+    <t>Web企業にてミッションクリティカルなシステムの開発や海外向けサービスの立ち上げをリード。その後クラウドベンダーにてコンサルタントやソリューションアーキテクトとして活動。現在はGoogle Cloudでアプリケーション開発者向けにサーバーレス/マイクロサービス/DevOpsといった領域の技術支援に従事している。</t>
+  </si>
+  <si>
+    <r>
+      <t>太田</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浩介</t>
+    </r>
+  </si>
+  <si>
+    <t>2019入社、インテグレーション技術センタに所属。SpringでのWeb開発の習熟を経て、現在は某既存システムのSpringフレームワークへの移行支援を行っている。</t>
+  </si>
+  <si>
+    <t>システム間連携を担うSpring　Integrationのエンタープライズ開発での活用</t>
+  </si>
+  <si>
+    <t>異なるアーキテクチャを採用したシステムを連携させる手法として、Enterprise Integration Pattern(EIP)と呼ばれるベストプラクティスが存在します。
+Spring IntegrationはそのEIPをSpringで実現するフレームワークです。
+本セッションでは、Spring Integrationの基本的な使用方法やメッセージ送受信の仕組みを理解しつつ、
+実際にエンタープライズ開発に適用した際の工夫や考慮事項を紹介します。</t>
+  </si>
+  <si>
+    <t>大規模基幹システムにSpring Cloudを使いたい！</t>
+  </si>
+  <si>
+    <t>Spring Cloudをエンタープライズの世界でも使ってみたい！大規模基幹システムにマイクロサービスアーキテクチャを導入したい！そんな熱い想いを抱くみなさまに、ウルシステムズが実案件で培ってきたSpring Cloud導入のノウハウをご紹介します。エンタープライズに求められる認証や運用監視、ポータビリティ、開発統制などの本格活用にお役に立てるセッションです。</t>
+  </si>
+  <si>
+    <t>黒川 徳介</t>
+  </si>
+  <si>
+    <t>政令指定都市や小売業の大規模基幹システム刷新に、アーキテクト/コンサルタントとして歴任。フレームワーク開発やマイクロサービス、CI/CDの導入を得意としている。技術者が輝ける世界を作るべく、日々奔走中。</t>
+  </si>
+  <si>
+    <t>山本 裕介</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEAを使って開発する際、マウスやトラックパッドを使っていませんか？
+このセッションでは「なんとなく使っていても気づきにくい」、Spring Bootアプリケーションを開発する上で欠かせないキーボードショートカット、
+Dockerやデータベース連携、HTTPクライアント機能など、最新バージョンの魅力を余すことなくお伝えいたします。</t>
+  </si>
+  <si>
+    <t>大規模エンタープライズシステム開発におけるSpringアプリケーションのDevOps適用事例</t>
+  </si>
+  <si>
+    <t>Spring と GraalVM Native Image - 2019/12</t>
+  </si>
+  <si>
+    <t>GraalVMのNative Image Generatorを使用すると、JavaのコードをNative Imageと呼ばれるネイティブバイナリへと事前コンパイルすることができます。
+Native Imageは現在Early Adopter technologyという扱いではありますが、Springでもサポートに向けた準備が着々と進められているようです。
+本セッションでは、Native Imageへコンパイルする際の制約と、その制約に対するSpringのアプローチについて調査した内容を紹介します。</t>
+  </si>
+  <si>
+    <t>岩塚 卓弥</t>
+  </si>
+  <si>
+    <t>NTTの研究所でソフトウェア工学の研究に従事。業務ではSpringを利用するよりもSpringのコードを読む機会の方が多い。</t>
+  </si>
+  <si>
+    <t>Efficient Web Apps with Spring Boot 2</t>
+  </si>
+  <si>
+    <t>How can we improve the efficiency of an existing web application? We could completely rewrite it, leverage more concurrency and even reactive features. But is it really worth it if we don't even measure and track the relevant metrics? In this talk, Stéphane will work on an existing Spring Boot MVC application to make it more efficient. He'll replace RestTemplate with WebClient and Reactor operators to improve efficiency, without the concurrency pitfalls. He'll use out-of-the-box metrics, add new ones to measure, and keep an eye on capacity gains with dashboards.</t>
+  </si>
+  <si>
+    <t>デベロッパの強力な味方！</t>
+  </si>
+  <si>
+    <t>サムライズムはIntelliJ IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。
+導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,6 +918,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -863,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -896,6 +985,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,7 +1327,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1252,7 +1342,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1267,7 +1357,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1282,12 +1372,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1297,12 +1387,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1312,12 +1402,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1327,12 +1417,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1342,7 +1432,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1357,7 +1447,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1372,7 +1462,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1389,12 +1479,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1406,12 +1496,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1421,7 +1511,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1436,12 +1526,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1453,12 +1543,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1468,12 +1558,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1483,12 +1573,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1498,12 +1588,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1513,12 +1603,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1527,12 +1617,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1541,12 +1631,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1555,26 +1645,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1583,7 +1673,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1595,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1631,13 +1721,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1656,21 +1746,27 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>109</v>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1678,22 +1774,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1701,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1715,36 +1820,42 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="409.6">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="F9" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="340">
       <c r="A10" s="5">
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1753,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
@@ -1761,19 +1872,19 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1781,16 +1892,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1798,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1812,10 +1923,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1826,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1840,24 +1951,24 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17">
+    <row r="17" spans="1:6" ht="409.6">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1868,13 +1979,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1885,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1893,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1904,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -1918,10 +2029,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1932,10 +2043,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -1949,16 +2060,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17">
+    <row r="25" spans="1:6" ht="409.6">
       <c r="A25" s="5">
         <v>20</v>
       </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="E25">
         <v>7</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5">
@@ -1966,13 +2081,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1980,13 +2095,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -1994,10 +2109,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2008,13 +2123,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2022,13 +2137,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2036,13 +2151,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2050,7 +2165,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2100,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2111,7 +2226,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2122,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2133,7 +2248,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2163,10 +2278,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2174,10 +2289,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2185,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2196,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2207,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2218,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2229,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2240,10 +2355,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2251,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2262,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2273,10 +2388,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2284,10 +2399,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2295,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2306,7 +2421,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2317,10 +2432,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2328,10 +2443,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2339,7 +2454,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2350,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2361,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2372,7 +2487,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2383,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2394,10 +2509,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2405,10 +2520,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2416,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2427,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2438,10 +2553,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2602,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2495,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2503,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2511,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2582,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2590,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2598,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2606,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2614,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2622,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2630,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2638,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2651,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2678,10 +2793,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2689,10 +2804,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2700,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2711,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2719,15 +2834,18 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
         <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2735,10 +2853,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2746,10 +2864,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2757,7 +2875,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2781,7 +2899,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2810,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2843,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2857,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2871,13 +2989,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2885,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2902,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -2913,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2921,7 +3039,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2929,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2937,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2945,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2956,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2964,13 +3085,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -2978,13 +3099,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2992,13 +3113,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3006,13 +3127,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3020,13 +3141,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3034,13 +3155,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3048,13 +3169,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3062,13 +3183,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3076,13 +3197,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3090,13 +3211,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3104,13 +3225,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3118,7 +3239,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3126,7 +3247,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3134,13 +3255,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3148,13 +3269,55 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="119">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>221</v>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="68">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\jsug\spring-fest-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FFC54-65AD-D549-8DAB-434EAAE814D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD14AAAF-2B77-447F-8567-9BB302F4819A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="800" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="242">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>進藤</t>
-  </si>
-  <si>
-    <t>土岐</t>
   </si>
   <si>
     <t>いろふ</t>
@@ -852,6 +849,24 @@
   <si>
     <t>サムライズムはIntelliJ IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。
 導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t>日本Springユーザ会スタッフ</t>
+  </si>
+  <si>
+    <t>jsug-staff</t>
+  </si>
+  <si>
+    <t>入社1年目のプログラム初心者がSpringを学ぶための手引き</t>
+  </si>
+  <si>
+    <t>「これからSpringを勉強したいけど、どこから手を付ければいいか分からない」という方にお勧めのセッションです。まだJavaにも慣れていないプログラム初心者が、Springを学んでいく際に抑えるべきポイントを解説します。前半はJavaやServletなどの前提知識についてお話して、後半にSpringについてお話します。</t>
+  </si>
+  <si>
+    <t>土岐 孝平</t>
+  </si>
+  <si>
+    <t>Springをベースにしたアーキテクチャの作成や、JavaやSpringに関する研修の講師を行っている。 書籍の執筆も行っており、[改訂新版]Spring入門(技術評論社)の著者のひとりである。</t>
   </si>
 </sst>
 </file>
@@ -1300,15 +1315,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
@@ -1327,10 +1342,10 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1342,10 +1357,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1357,10 +1372,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1372,12 +1387,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1387,12 +1402,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1402,12 +1417,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1417,12 +1432,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1432,10 +1447,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1447,10 +1462,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1462,10 +1477,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1479,12 +1494,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1496,12 +1511,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1511,10 +1526,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1526,12 +1541,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1543,12 +1558,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.5">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1558,12 +1573,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1573,12 +1588,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1588,12 +1603,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1603,12 +1618,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1617,12 +1632,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1631,12 +1646,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1645,26 +1660,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1673,7 +1688,15 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1685,20 +1708,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A26" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="73.375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="105.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="105.375" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1721,13 +1744,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1738,7 +1761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20">
+    <row r="3" spans="1:9" ht="19.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1746,42 +1769,42 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="393.75">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="272">
+    <row r="5" spans="1:9" ht="252">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1789,73 +1812,73 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" t="s">
-        <v>223</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="306">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="283.5">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.6">
+    <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E9">
         <v>27</v>
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="340">
+    <row r="10" spans="1:9" ht="315">
       <c r="A10" s="5">
         <v>101</v>
       </c>
       <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1864,128 +1887,128 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.5">
       <c r="A11" s="8">
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="283.5">
       <c r="A12" s="8">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="267.75">
       <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="409.6">
+    <row r="14" spans="1:9" ht="409.5">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="323">
+    <row r="15" spans="1:9" ht="299.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="409.6">
+    <row r="16" spans="1:9" ht="409.5">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.6">
+    <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6">
+    <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1996,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2004,10 +2027,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2015,38 +2038,38 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="388">
+    <row r="23" spans="1:6" ht="346.5">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2060,15 +2083,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.6">
+    <row r="25" spans="1:6" ht="393.75">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2081,38 +2104,44 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="252">
       <c r="A27" s="5">
         <v>22</v>
       </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="340">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="315">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2123,13 +2152,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2137,13 +2166,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2151,13 +2180,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2165,7 +2194,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2188,12 +2217,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2215,7 +2244,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2226,7 +2255,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2237,7 +2266,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2248,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2278,10 +2307,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2289,10 +2318,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2300,10 +2329,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2311,10 +2340,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2322,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2333,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2344,10 +2373,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2355,10 +2384,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2366,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2377,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2388,10 +2417,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2399,10 +2428,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2410,7 +2439,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2421,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2432,10 +2461,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2443,10 +2472,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2454,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2465,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2476,10 +2505,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2487,7 +2516,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2498,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2509,10 +2538,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2520,10 +2549,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2531,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2542,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2553,10 +2582,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2595,14 +2624,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2610,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2618,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2626,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2658,7 +2687,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2697,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2705,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2713,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2721,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2729,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2737,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2745,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2753,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2770,10 +2799,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
     <col min="3" max="3" width="144" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2788,15 +2817,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85">
+    <row r="2" spans="1:3" ht="78.75">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2804,70 +2833,70 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34">
+    </row>
+    <row r="4" spans="1:3" ht="31.5">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="119">
+    </row>
+    <row r="5" spans="1:3" ht="110.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="68">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="63">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="102">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="94.5">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="119">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="110.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2875,7 +2904,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2899,7 +2928,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2930,15 +2959,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2956,18 +2985,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="365" customHeight="1">
+    <row r="2" spans="1:4" ht="365.1" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2975,27 +3004,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="68">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3003,13 +3032,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3020,7 +3049,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -3039,10 +3068,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
         <v>231</v>
-      </c>
-      <c r="D8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3058,7 +3087,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3066,10 +3101,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3077,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3085,27 +3120,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3113,55 +3148,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="85">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="78.75">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34">
+    </row>
+    <row r="17" spans="1:4" ht="31.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="153">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="141.75">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3169,69 +3204,69 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="47.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="68">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="63">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3239,7 +3274,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3247,89 +3282,95 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="47.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="51">
+    </row>
+    <row r="27" spans="1:4" ht="47.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="119">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="110.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="47.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="68">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="63">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
           <x14:formula1>
             <xm:f>companies!$A$2:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C9 C11:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F47F00BB-7DAB-49E9-949F-3F7153FB5D9E}">
+          <x14:formula1>
+            <xm:f>companies!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\jsug\spring-fest-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD14AAAF-2B77-447F-8567-9BB302F4819A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FFC54-65AD-D549-8DAB-434EAAE814D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="3280" yWindow="800" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>進藤</t>
+  </si>
+  <si>
+    <t>土岐</t>
   </si>
   <si>
     <t>いろふ</t>
@@ -849,24 +852,6 @@
   <si>
     <t>サムライズムはIntelliJ IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。
 導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
-  </si>
-  <si>
-    <t>日本Springユーザ会スタッフ</t>
-  </si>
-  <si>
-    <t>jsug-staff</t>
-  </si>
-  <si>
-    <t>入社1年目のプログラム初心者がSpringを学ぶための手引き</t>
-  </si>
-  <si>
-    <t>「これからSpringを勉強したいけど、どこから手を付ければいいか分からない」という方にお勧めのセッションです。まだJavaにも慣れていないプログラム初心者が、Springを学んでいく際に抑えるべきポイントを解説します。前半はJavaやServletなどの前提知識についてお話して、後半にSpringについてお話します。</t>
-  </si>
-  <si>
-    <t>土岐 孝平</t>
-  </si>
-  <si>
-    <t>Springをベースにしたアーキテクチャの作成や、JavaやSpringに関する研修の講師を行っている。 書籍の執筆も行っており、[改訂新版]Spring入門(技術評論社)の著者のひとりである。</t>
   </si>
 </sst>
 </file>
@@ -1315,15 +1300,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
@@ -1342,10 +1327,10 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1357,10 +1342,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1372,10 +1357,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1372,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1402,12 +1387,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1417,12 +1402,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1432,12 +1417,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1447,10 +1432,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1462,10 +1447,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1477,10 +1462,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1494,12 +1479,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1511,12 +1496,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1526,10 +1511,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1541,12 +1526,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1558,12 +1543,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1573,12 +1558,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1588,12 +1573,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1603,12 +1588,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1618,12 +1603,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1632,12 +1617,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1646,12 +1631,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1660,26 +1645,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1688,15 +1673,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1708,20 +1685,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="73.375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="105.375" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="105.33203125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1744,13 +1721,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1761,7 +1738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5">
+    <row r="3" spans="1:9" ht="20">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1769,42 +1746,42 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="393.75">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="252">
+    <row r="5" spans="1:9" ht="272">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1812,73 +1789,73 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="283.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="306">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.5">
+    <row r="8" spans="1:9" ht="409.6">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.5">
+    <row r="9" spans="1:9" ht="409.6">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>27</v>
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="315">
+    <row r="10" spans="1:9" ht="340">
       <c r="A10" s="5">
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1887,128 +1864,128 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
       <c r="A11" s="8">
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="283.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
       <c r="A12" s="8">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="267.75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
       <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="409.5">
+    <row r="14" spans="1:9" ht="409.6">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="299.25">
+    <row r="15" spans="1:9" ht="323">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="409.5">
+    <row r="16" spans="1:9" ht="409.6">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.5">
+    <row r="17" spans="1:6" ht="409.6">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.5">
+    <row r="18" spans="1:6" ht="409.6">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2019,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2027,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2038,38 +2015,38 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.5">
+    <row r="22" spans="1:6" ht="409.6">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="346.5">
+    <row r="23" spans="1:6" ht="388">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2083,15 +2060,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="393.75">
+    <row r="25" spans="1:6" ht="409.6">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2104,44 +2081,38 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="252">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="D27" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="315">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="340">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2152,13 +2123,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2166,13 +2137,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2180,13 +2151,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2194,7 +2165,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2217,12 +2188,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2244,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2255,7 +2226,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2266,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2277,7 +2248,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2307,10 +2278,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2318,10 +2289,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2329,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2340,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2351,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2362,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2373,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2384,10 +2355,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2395,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2406,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2417,10 +2388,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2428,10 +2399,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2439,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2450,7 +2421,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2461,10 +2432,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2472,10 +2443,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2483,7 +2454,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2494,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2505,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2516,7 +2487,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2527,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2538,10 +2509,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2549,10 +2520,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2560,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2571,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2582,10 +2553,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2624,14 +2595,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2639,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2647,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2655,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2687,7 +2658,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2726,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2734,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2742,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2750,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2758,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2766,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2774,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2782,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2799,10 +2770,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="144" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2817,15 +2788,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="78.75">
+    <row r="2" spans="1:3" ht="85">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2833,70 +2804,70 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="110.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="63">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="68">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="94.5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="110.25">
+    </row>
+    <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2904,7 +2875,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2928,7 +2899,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2959,15 +2930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2985,18 +2956,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="365.1" customHeight="1">
+    <row r="2" spans="1:4" ht="365" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3004,27 +2975,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3032,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3049,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -3068,10 +3039,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3087,13 +3058,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3101,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3112,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3120,27 +3085,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3148,55 +3113,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="78.75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="85">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="141.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="153">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3204,69 +3169,69 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="47.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3274,7 +3239,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3282,95 +3247,89 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="47.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="47.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="110.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="119">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="47.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="63">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="68">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
           <x14:formula1>
             <xm:f>companies!$A$2:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C9 C11:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F47F00BB-7DAB-49E9-949F-3F7153FB5D9E}">
-          <x14:formula1>
-            <xm:f>companies!$A$2:$A$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FFC54-65AD-D549-8DAB-434EAAE814D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0CA4A-32A1-624B-A168-7EAF8246937F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="800" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="239">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>進藤</t>
-  </si>
-  <si>
-    <t>土岐</t>
   </si>
   <si>
     <t>いろふ</t>
@@ -631,9 +628,6 @@
   </si>
   <si>
     <t>伊賀さん</t>
-  </si>
-  <si>
-    <t>土岐さん</t>
   </si>
   <si>
     <t>進藤さん</t>
@@ -852,6 +846,19 @@
   <si>
     <t>サムライズムはIntelliJ IDEAで有名なJetBrainsやGitHubなど、開発に必要不可欠なツール群を取り扱っております。
 導入済みの方も、これから導入を検討されている方も、是非ブースにお立ち寄り頂き、最新情報を入手してください！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入社１年目のプログラム初心者がSpringを学ぶための手引き
+</t>
+  </si>
+  <si>
+    <t>これからSpringを勉強したいけど、どこから手を付ければいいか分からない」という方にお勧めのセッションです。まだJavaにも慣れていないプログラム初心者が、Springを学んでいく際に抑えるべきポイントを解説します。前半はJavaやServletなどの前提知識についてお話して、後半にSpringについてお話します。</t>
+  </si>
+  <si>
+    <t>土岐 孝平</t>
+  </si>
+  <si>
+    <t>Springをベースにしたアーキテクチャの作成や、JavaやSpringに関する研修の講師を行っている。 書籍の執筆も行っており、[改訂新版]Spring入門(技術評論社)の著者のひとりである。</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1342,7 +1349,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1357,7 +1364,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1372,12 +1379,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1387,12 +1394,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1402,12 +1409,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1417,12 +1424,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1432,7 +1439,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1447,7 +1454,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1462,7 +1469,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1479,12 +1486,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1496,12 +1503,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1511,7 +1518,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1526,12 +1533,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1543,12 +1550,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1558,12 +1565,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1573,12 +1580,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1588,12 +1595,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1603,12 +1610,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1617,12 +1624,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1631,12 +1638,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1645,26 +1652,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1673,7 +1680,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1685,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1721,13 +1728,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1746,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6">
@@ -1760,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1774,14 +1781,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1789,16 +1796,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1806,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1820,10 +1827,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1834,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1849,13 +1856,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1864,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
@@ -1872,19 +1879,19 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1892,16 +1899,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1909,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1923,10 +1930,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1937,10 +1944,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1951,10 +1958,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1965,10 +1972,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1979,13 +1986,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1996,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2004,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2015,10 +2022,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -2029,10 +2036,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -2043,10 +2050,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2065,10 +2072,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2081,27 +2088,30 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="272">
       <c r="A27" s="5">
         <v>22</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="340">
@@ -2109,10 +2119,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2123,13 +2133,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2137,13 +2147,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2151,13 +2161,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2165,7 +2175,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2215,7 +2225,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2226,7 +2236,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2237,7 +2247,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2248,7 +2258,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2278,10 +2288,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2289,10 +2299,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2300,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2311,10 +2321,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2322,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2333,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2344,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2355,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2366,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2377,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2388,10 +2398,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2399,10 +2409,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2410,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2421,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2432,10 +2442,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2443,10 +2453,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2454,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2465,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2476,10 +2486,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2487,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2498,7 +2508,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2509,10 +2519,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2520,10 +2530,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2531,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2542,7 +2552,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2553,10 +2563,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2612,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2610,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2618,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2626,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2697,7 +2707,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2705,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2713,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2721,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2729,7 +2739,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2737,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2745,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2753,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2793,10 +2803,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2804,10 +2814,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2815,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2826,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2834,10 +2844,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2845,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2853,10 +2863,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2864,10 +2874,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2875,7 +2885,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2899,7 +2909,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2930,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2961,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2975,13 +2985,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2989,13 +2999,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3003,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3020,7 +3030,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -3039,10 +3049,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3058,7 +3068,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3066,10 +3079,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3077,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3085,13 +3098,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3099,13 +3112,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3113,13 +3126,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3127,13 +3140,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3141,13 +3154,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3155,13 +3168,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3169,13 +3182,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3183,13 +3196,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3197,13 +3210,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3211,13 +3224,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3225,13 +3238,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3239,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -3247,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3255,13 +3268,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3269,13 +3282,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3283,13 +3296,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3297,13 +3310,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3311,13 +3324,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0CA4A-32A1-624B-A168-7EAF8246937F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65AB54-3896-DD4A-84CC-C200D08E3B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>長谷川</t>
-  </si>
-  <si>
-    <t>長谷川さん</t>
   </si>
   <si>
     <t>大野さん</t>
@@ -859,6 +856,31 @@
   </si>
   <si>
     <t>Springをベースにしたアーキテクチャの作成や、JavaやSpringに関する研修の講師を行っている。 書籍の執筆も行っており、[改訂新版]Spring入門(技術評論社)の著者のひとりである。</t>
+  </si>
+  <si>
+    <t>春の特選アイテム</t>
+  </si>
+  <si>
+    <t>折角のFestなので、3名で賑やかにやってみることにしましたが、どうなることか!? さて、肝心のセッションの内容は、初めてSpringで開発するプロジェクトに従事しているエンジニアが、知っておくとちょっとだけ得をするかもしれないアイテム（プロパティの補完機能やSQLをログに出す方法、リトライの方法など）をご紹介します。</t>
+  </si>
+  <si>
+    <t>Starlight&amp;Storm LLC代表 / 日本Springユーザ会会長。1986年、イリノイ州警察指紋システムのアセンブリ言語プログラマからスタートして、様々なプロジェクトを経て、アーキテクト/コンサルタントへ。 現在はSpringを中心に、多くの情シスでアーキテクチャ構築、プロセス策定などを手掛ける。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⽇本Springユーザー会スタッフ。SIerからユーザーのシステム部門に転職するも、異動でシステムからも離れたエンジニア。 業務では開発はしてませんが、Java、Spring、DDDを勉強中。
+</t>
+  </si>
+  <si>
+    <t>柴田洋平</t>
+  </si>
+  <si>
+    <t>田村英雅</t>
+  </si>
+  <si>
+    <t>合同会社GuildHub 代表社員。⽇本Springユーザー会スタッフ。⼤学で機械⼯学科を専攻。2001 年から多くのシステム開発プロジェクトに従事。現在では主にJava(特にSpring Frameworkを得意とする)を使⽤したシステムのアーキテクトとして活動している。英語を⽤いた業務経験が豊富。</t>
+  </si>
+  <si>
+    <t>24, 30, 31</t>
   </si>
 </sst>
 </file>
@@ -1692,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1767,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1781,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
@@ -1796,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" t="s">
-        <v>221</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1841,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1856,10 +1878,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D10" t="s">
         <v>163</v>
@@ -1879,10 +1901,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
         <v>163</v>
@@ -1899,10 +1921,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>167</v>
@@ -1919,7 +1941,7 @@
         <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1947,7 +1969,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1958,10 +1980,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1972,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1992,7 +2014,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2050,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2072,10 +2094,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2088,13 +2110,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2102,13 +2124,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D27" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2119,10 +2141,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2133,13 +2155,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2147,27 +2169,30 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5">
         <v>26</v>
       </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
       <c r="D31" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2288,7 +2313,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>117</v>
@@ -2299,7 +2324,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2707,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2825,10 +2850,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2836,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2844,10 +2869,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2855,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2938,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2971,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2991,7 +3016,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -2999,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>123</v>
@@ -3013,13 +3038,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3049,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3068,10 +3093,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
         <v>237</v>
-      </c>
-      <c r="D10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3082,7 +3107,7 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3255,12 +3280,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:4" ht="119">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>177</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3268,13 +3296,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3282,13 +3310,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3296,13 +3324,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3310,13 +3338,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3324,13 +3352,35 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="102">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="136">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65AB54-3896-DD4A-84CC-C200D08E3B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0F09A-696D-EE47-A483-52B059E97C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,6 @@
 〇：spring-security-testを使用してフォーム認証のテスト及びログアウトのテストを紹介します。</t>
   </si>
   <si>
-    <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
-  </si>
-  <si>
     <t>大野</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>24, 30, 31</t>
+  </si>
+  <si>
+    <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1803,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
@@ -1818,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1863,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1878,10 +1878,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>163</v>
@@ -1901,10 +1901,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
         <v>163</v>
@@ -1921,10 +1921,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>167</v>
@@ -1941,7 +1941,7 @@
         <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1980,10 +1980,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2014,7 +2014,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2072,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2094,10 +2094,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2110,13 +2110,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2124,13 +2124,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D27" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2141,10 +2141,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2155,13 +2155,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2169,13 +2169,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2183,16 +2183,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="C31" t="s">
-        <v>239</v>
-      </c>
       <c r="D31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>117</v>
@@ -2324,7 +2324,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2850,10 +2850,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2861,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2869,10 +2869,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2880,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2996,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3016,7 +3016,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>123</v>
@@ -3038,13 +3038,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3074,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
         <v>228</v>
-      </c>
-      <c r="D8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
         <v>236</v>
-      </c>
-      <c r="D10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3107,7 +3107,7 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3129,7 +3129,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3277,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3285,10 +3285,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3296,13 +3296,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3310,13 +3310,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3324,13 +3324,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3338,13 +3338,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3352,13 +3352,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3366,10 +3366,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3377,10 +3377,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0F09A-696D-EE47-A483-52B059E97C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65AB54-3896-DD4A-84CC-C200D08E3B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -612,6 +612,9 @@
 〇：spring-security-testを使用してフォーム認証のテスト及びログアウトのテストを紹介します。</t>
   </si>
   <si>
+    <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
+  </si>
+  <si>
     <t>大野</t>
   </si>
   <si>
@@ -878,9 +881,6 @@
   </si>
   <si>
     <t>24, 30, 31</t>
-  </si>
-  <si>
-    <t>2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。2010年にIT業界に身を置く。当初は組込制御系システム開発のテスターを行っていた。2012年3月にSpring MVCを使ったWebアプリケーション開発に携わったことをきっかけに、以後様々なWebアプリケーション開発に従事する。現在は株式会社カサレアルでSpring系コースを中心に技術講師として研修の登壇を行っている。</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1803,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
@@ -1818,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1863,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1878,10 +1878,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>163</v>
@@ -1901,10 +1901,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
         <v>163</v>
@@ -1921,10 +1921,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>167</v>
@@ -1941,7 +1941,7 @@
         <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1980,10 +1980,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2014,7 +2014,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2072,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2094,10 +2094,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2110,13 +2110,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2124,13 +2124,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2141,10 +2141,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2155,13 +2155,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2169,13 +2169,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2183,16 +2183,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>117</v>
@@ -2324,7 +2324,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2850,10 +2850,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
@@ -2861,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2869,10 +2869,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2880,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2996,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3016,7 +3016,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>123</v>
@@ -3038,13 +3038,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3074,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3107,7 +3107,7 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3129,7 +3129,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3277,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3285,10 +3285,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3296,13 +3296,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3310,13 +3310,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3324,13 +3324,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3338,13 +3338,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3352,13 +3352,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3366,10 +3366,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3377,10 +3377,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65AB54-3896-DD4A-84CC-C200D08E3B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D95B3F-CA68-E941-BE43-21D0E3370074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>nissan</t>
-  </si>
-  <si>
-    <t>槙</t>
   </si>
   <si>
     <t>進藤</t>
@@ -641,12 +638,6 @@
   <si>
     <t>Springアプリケーションのテストにはたくさんの道具の選択肢があります。何を使えばいいか、いつ使うのが良いか、使い方はあっているか、使うべきでないところで使っていないか、、悩みは尽きません。
 本セッションではJUnitやSpringの機能、モック、Selenium、Dockerなどを使ったテストや、それらを使った際のありがちな問題、使うべきでない場面などをお話しします。</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;aslead&lt;/a&gt;&lt;/b&gt;
-　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
-&lt;b&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;OpenStandia&lt;/a&gt;&lt;/b&gt;
-　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Springをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
   </si>
   <si>
     <t>ローコード開発プラットフォームと、ドメイン駆動設計と、Springの関係</t>
@@ -881,6 +872,28 @@
   </si>
   <si>
     <t>24, 30, 31</t>
+  </si>
+  <si>
+    <t>Spring 5.2の目玉機能であるRSocket対応とは</t>
+  </si>
+  <si>
+    <t>槙 俊明</t>
+  </si>
+  <si>
+    <t>エンタープライズ企業のPivotal Platform (Cloud FoundryやKubernetes)の導入やPlatform Team作りの支援。Spring Bootを使ったアプリケーション開発の支援も。</t>
+  </si>
+  <si>
+    <t>RSocket（&lt;a href="https://rsocket.io" style="color: #0E7373;"&gt;&lt;b&gt;https://rsocket.io&lt;/b&gt;&lt;/a&gt;）はTCP, WebSocket、UDP上でReactive Streamsのセマンティクスを持つ双方向通信可能な新しいバイナリプロトコルです。
+HTTPの代わりに利用可能です。
+RSocket自体は言語非依存ですが、Spring 5.2からお馴染みのプログラミングスタイルでRSocketサーバー/クライアントを実装できるようになりました。
+本セッションではRSocketとは何か、何が変わる・うれしいのか、SpringのRSocket対応とはどのようなものかを説明します。
+Springが追加する新機能が好きな方、新しい技術を手っ取り早く知りたい方は必見です。</t>
+  </si>
+  <si>
+    <t>&lt;div style="display: flex; align-items:center; flex-wrap: wrap;"&gt;&lt;img src="/images/extras/logo_aslead.png" height="30px" style="margin-bottom: 0px; margin-right: 1rem;"&gt;&lt;a href="https://aslead.nri.co.jp" target="_blank"&gt;&lt;b style="color: #0E7373; opacity: 0.9;"&gt;https://aslead.nri.co.jp&lt;/b&gt;&lt;/a&gt;&lt;/div&gt;
+　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
+&lt;div style="display: flex; align-items:center; flex-wrap: wrap;"&gt;&lt;img src="/images/extras/logo_OpenStandia.png" height="30px" style="margin-bottom: 0px; margin-right: 1rem; "&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;&lt;b style="color: #0E7373; opacity: 0.9;"&gt;https://openstandia.jp&lt;/b&gt;&lt;/a&gt;&lt;/div&gt;
+　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Springをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1369,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1371,7 +1384,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1386,7 +1399,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1401,12 +1414,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1416,12 +1429,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1431,12 +1444,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1446,12 +1459,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1461,7 +1474,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1476,7 +1489,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1491,7 +1504,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1508,12 +1521,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1525,12 +1538,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1540,7 +1553,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1555,12 +1568,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1572,12 +1585,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1587,12 +1600,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1602,12 +1615,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1617,12 +1630,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1632,12 +1645,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1646,12 +1659,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1660,12 +1673,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1674,26 +1687,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1702,7 +1715,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1714,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A24" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1750,13 +1763,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1775,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6">
@@ -1789,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1803,14 +1816,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1818,16 +1831,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1835,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1849,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1863,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1878,13 +1891,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1893,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
@@ -1901,19 +1914,19 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1921,16 +1934,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1938,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1952,10 +1965,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1966,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1980,10 +1993,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1994,10 +2007,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2008,13 +2021,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2025,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2033,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2044,10 +2057,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -2058,10 +2071,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -2072,18 +2085,24 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="409.6">
       <c r="A24" s="5">
         <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2094,10 +2113,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2110,13 +2129,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2124,13 +2143,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2141,10 +2160,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2155,13 +2174,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2169,13 +2188,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2183,16 +2202,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2200,7 +2219,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2250,7 +2269,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2261,7 +2280,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2272,7 +2291,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2283,7 +2302,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2313,10 +2332,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2324,10 +2343,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2335,10 +2354,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2346,10 +2365,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2357,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2368,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2379,10 +2398,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2390,10 +2409,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2401,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2412,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2423,10 +2442,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2434,10 +2453,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2445,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2456,7 +2475,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2467,10 +2486,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2478,10 +2497,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2489,7 +2508,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2500,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2511,10 +2530,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2522,7 +2541,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2533,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2544,10 +2563,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2555,10 +2574,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2566,7 +2585,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2577,7 +2596,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2588,10 +2607,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2645,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2653,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2661,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2732,7 +2751,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2740,7 +2759,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2748,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2756,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2764,7 +2783,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2772,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2780,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2788,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2799,9 +2818,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2828,10 +2847,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2839,10 +2858,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2850,18 +2869,18 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="119">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="170">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2869,10 +2888,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2880,7 +2899,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2888,10 +2907,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2899,10 +2918,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2910,7 +2929,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2926,15 +2945,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>119</v>
+      <c r="C13" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2942,12 +2956,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
           <x14:formula1>
             <xm:f>companies!$C$2:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B40</xm:sqref>
+          <xm:sqref>B39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
           <x14:formula1>
@@ -2965,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2996,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3010,13 +3024,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3024,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3038,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3055,7 +3069,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -3066,7 +3080,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3074,10 +3094,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3085,7 +3105,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3093,10 +3113,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3104,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3115,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3123,13 +3143,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3137,13 +3157,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3151,13 +3171,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3165,13 +3185,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3179,13 +3199,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3193,13 +3213,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3207,13 +3227,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3221,13 +3241,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3235,13 +3255,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3249,13 +3269,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3263,13 +3283,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3277,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3285,10 +3305,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3296,13 +3316,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3310,13 +3330,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3324,13 +3344,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3338,13 +3358,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3352,13 +3372,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3366,10 +3386,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3377,10 +3397,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D95B3F-CA68-E941-BE43-21D0E3370074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0299F-A599-A54B-B4C2-7688AF24AF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-28800" yWindow="2960" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>いろふ</t>
-  </si>
-  <si>
-    <t>伊賀</t>
   </si>
   <si>
     <t>基調講演</t>
@@ -619,9 +616,6 @@
   </si>
   <si>
     <t>大野さん</t>
-  </si>
-  <si>
-    <t>伊賀さん</t>
   </si>
   <si>
     <t>進藤さん</t>
@@ -894,6 +888,28 @@
 　　DX時代のシステム開発およびオフィス業務の生産性向上のための製品・ソリューションの提供、技術サポートおよび導入支援・システム運用を提供する、asleadをご紹介します。
 &lt;div style="display: flex; align-items:center; flex-wrap: wrap;"&gt;&lt;img src="/images/extras/logo_OpenStandia.png" height="30px" style="margin-bottom: 0px; margin-right: 1rem; "&gt;&lt;a href="https://openstandia.jp" target="_blank"&gt;&lt;b style="color: #0E7373; opacity: 0.9;"&gt;https://openstandia.jp&lt;/b&gt;&lt;/a&gt;&lt;/div&gt;
 　　オープンソースソフトウェア（OSS）を使用したシステムの構築や課題発生時の解決にあたり、OSSに関する技術サポート、導入支援、コンサルティングなどを提供するサービスです。Springをはじめ、様々なOSSのサポートを提供していますので、OSSでお困りの方は是非ブースまでお越しください。</t>
+  </si>
+  <si>
+    <t>楽天のエンジニアがパンダノベリティをお配りします！！
+JavaやSpringについてエンジニアとお話しましょう！
+皆様是非ブースにお立ち寄りください！
+お待ちしておりますｍｍ</t>
+  </si>
+  <si>
+    <t>伊賀 敏樹</t>
+  </si>
+  <si>
+    <t>古くから Java をもちいたエンタープライズシステム開発に多く従事してきました。
+最近は Heroku/Spring Web をもちいた大規模開発に関わることが多いです。</t>
+  </si>
+  <si>
+    <t>JSP/JSF から Spring Web + Thymeleaf への移行</t>
+  </si>
+  <si>
+    <t>JSP (+Struts) など古いタイプのサーバサイドレンダリング開発から、最新系 Web 開発環境の Spring Web + Thymeleaf によるサーバサイドレンダリングへの移行に関心がある方向けのセッションです。
+ひとたび Spring Boot + Spring Web + Thymeleaf に乗り換えてしまえば、幸せな開発環境が手に入ります。
+このセッションでは、古いタイプのサーバサイドレンダリング技術と新技術とを比較などしながら、すばやく Spring Web + Thymeleaf 開発を理解できるようなコンテンツとなる予定です。
+前提知識：Java、HTMLを多少は知っていること。</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1384,7 +1400,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1399,7 +1415,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1414,12 +1430,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1429,12 +1445,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1444,12 +1460,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1459,12 +1475,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1474,7 +1490,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1489,7 +1505,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1504,7 +1520,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1521,12 +1537,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1538,12 +1554,12 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1553,7 +1569,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1568,12 +1584,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1585,12 +1601,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1600,12 +1616,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1615,12 +1631,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1630,12 +1646,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1645,12 +1661,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1659,12 +1675,12 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
@@ -1673,12 +1689,12 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1687,26 +1703,26 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1715,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1727,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1763,13 +1779,13 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1788,13 +1804,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6">
@@ -1802,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1816,14 +1832,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1831,16 +1847,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="306">
@@ -1848,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1862,10 +1878,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1876,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1891,13 +1907,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1906,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
@@ -1914,19 +1930,19 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
@@ -1934,16 +1950,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
@@ -1951,10 +1967,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1965,10 +1981,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1979,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1993,10 +2009,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2007,10 +2023,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2021,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2038,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2046,10 +2062,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2057,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -2071,10 +2087,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -2085,10 +2101,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2099,10 +2115,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2113,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2129,13 +2145,13 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2143,13 +2159,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2160,27 +2176,30 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="409.6">
       <c r="A29" s="5">
         <v>24</v>
       </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29">
         <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2188,13 +2207,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2202,16 +2221,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2219,7 +2238,7 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2269,7 +2288,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2280,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2291,7 +2310,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2302,7 +2321,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2332,10 +2351,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2343,10 +2362,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2354,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2365,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2376,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -2387,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2398,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2409,10 +2428,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2420,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -2431,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2442,10 +2461,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2453,10 +2472,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2464,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2475,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -2486,10 +2505,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2497,10 +2516,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2508,7 +2527,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2519,7 +2538,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -2530,10 +2549,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2541,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -2552,7 +2571,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2563,10 +2582,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2574,10 +2593,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2585,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2596,7 +2615,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -2607,10 +2626,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2675,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2664,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2672,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2680,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2751,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2759,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2767,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2775,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2783,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2791,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2799,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2807,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2847,10 +2866,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2858,10 +2877,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2869,10 +2888,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="170">
@@ -2880,7 +2899,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2888,10 +2907,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2899,7 +2918,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2907,10 +2926,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2918,10 +2937,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2929,7 +2948,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2938,9 +2957,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12" t="s">
         <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2948,7 +2970,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2979,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A5" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3010,13 +3032,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3024,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3038,13 +3060,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3052,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3069,7 +3091,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -3080,13 +3102,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3094,10 +3116,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3113,10 +3135,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3127,15 +3149,18 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>248</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3143,13 +3168,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3157,13 +3182,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3171,13 +3196,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3185,13 +3210,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3199,13 +3224,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3213,13 +3238,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3227,13 +3252,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3241,13 +3266,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3255,13 +3280,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3269,13 +3294,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3283,13 +3308,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3297,7 +3322,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3305,10 +3330,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3316,13 +3341,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3330,13 +3355,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3344,13 +3369,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3358,13 +3383,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3372,13 +3397,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3386,10 +3411,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3397,10 +3422,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0299F-A599-A54B-B4C2-7688AF24AF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59734A-2FA5-314E-B1C8-A7A8BE44A1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2960" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -471,18 +471,12 @@
     <t xml:space="preserve">テクマトリックス </t>
   </si>
   <si>
-    <t>テクマトリックス </t>
-  </si>
-  <si>
     <t>Jtestは、テスト工数の大幅削減とセキュアで高品質なJavaシステムの開発を強力にサポートするJava対応テストツールです。1,000個以上のコーディング規約をもとにソースコードを静的に解析し、プログラムの問題点や処理フローに潜む検出困難なエラーを検出します。さらに、JUnitを用いた単体テストについて、作成、実行、テストカバレッジ分析、テスト資産の管理といった単体テストに係る作業をサポートし、単体テストの効率化を促進します。
 JUnit単体テスト実装、メンテナンスにコストが掛かって困っているという方は、単体テスト機能のみをご利用いただけるリーズナブルなライセンスもご用意していおりますので、是非ブースまでお越しください。</t>
   </si>
   <si>
     <t xml:space="preserve">Java対応静的解析・単体テストツール　「Jtest」
 </t>
-  </si>
-  <si>
-    <t>Spring単体テストの効率化</t>
   </si>
   <si>
     <t xml:space="preserve">受託開発におけるハイアジリティへのとりくみ
@@ -616,9 +610,6 @@
   </si>
   <si>
     <t>大野さん</t>
-  </si>
-  <si>
-    <t>進藤さん</t>
   </si>
   <si>
     <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
@@ -856,12 +847,6 @@
 </t>
   </si>
   <si>
-    <t>柴田洋平</t>
-  </si>
-  <si>
-    <t>田村英雅</t>
-  </si>
-  <si>
     <t>合同会社GuildHub 代表社員。⽇本Springユーザー会スタッフ。⼤学で機械⼯学科を専攻。2001 年から多くのシステム開発プロジェクトに従事。現在では主にJava(特にSpring Frameworkを得意とする)を使⽤したシステムのアーキテクトとして活動している。英語を⽤いた業務経験が豊富。</t>
   </si>
   <si>
@@ -910,6 +895,36 @@
 ひとたび Spring Boot + Spring Web + Thymeleaf に乗り換えてしまえば、幸せな開発環境が手に入ります。
 このセッションでは、古いタイプのサーバサイドレンダリング技術と新技術とを比較などしながら、すばやく Spring Web + Thymeleaf 開発を理解できるようなコンテンツとなる予定です。
 前提知識：Java、HTMLを多少は知っていること。</t>
+  </si>
+  <si>
+    <t>天久 慎介</t>
+  </si>
+  <si>
+    <t>テクマトリックスという会社でJavaや.NETのテストツールを扱っています。現在はJavaの単体テストツールJtestを中心に評価・導入支援などを担当。得意な料理はスパイスカレー。</t>
+  </si>
+  <si>
+    <t>柴田 洋平</t>
+  </si>
+  <si>
+    <t>田村 英雅</t>
+  </si>
+  <si>
+    <t>Springフレームワークの単体テストをどのくらい楽にできるか、シミュレーションしてみる</t>
+  </si>
+  <si>
+    <t>Springフレームワークの単体テストって、使い方が難しく、実装する量も多くなりがちで大変ですよね。そんな悩みを解決するためにJtestには単体テストを支援する機能が搭載されています。Jtestを使うとどのくらい実装量が減り、工数が削減されるのかをご紹介します。
+Jtestは有償ツールのため、導入して元が取れるのか、仮想プロジェクトを例にシミュレーションしてみます。 </t>
+  </si>
+  <si>
+    <t>実践 Spring Boot Actuator + Micrometer</t>
+  </si>
+  <si>
+    <t>Spring Boot ActuatorはSpring Bootアプリケーションの運用のためのエンドポイントを追加するサブモジュールです。
+本セッションでは、Spring Boot Actuatorの概要、Micrometerとの連携をお話しします。
+開発に使うだけではもったいない、Actuatorの活用方法をお伝えできればと思います。</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1785,7 +1800,7 @@
         <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1818,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -1832,14 +1847,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1847,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1864,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -1892,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -1907,13 +1922,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -1930,13 +1945,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>133</v>
@@ -1950,13 +1965,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>107</v>
@@ -1970,7 +1985,7 @@
         <v>116</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -1981,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -1995,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2009,10 +2024,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2023,10 +2038,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2040,10 +2055,10 @@
         <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2057,15 +2072,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="340">
       <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>139</v>
+      <c r="B20" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2101,10 +2119,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -2115,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2129,29 +2147,31 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="289">
       <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E26">
         <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="272">
@@ -2159,13 +2179,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2176,10 +2196,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2190,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -2207,13 +2227,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E30">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2221,16 +2241,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2351,7 +2371,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>115</v>
@@ -2362,7 +2382,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -2770,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2839,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2877,10 +2897,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -2888,10 +2908,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="170">
@@ -2899,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2907,10 +2927,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -2918,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2926,10 +2946,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -2937,10 +2957,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2948,7 +2968,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2962,7 +2982,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2999,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3032,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3052,7 +3072,7 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3060,13 +3080,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3074,13 +3094,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3102,13 +3122,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3116,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3129,16 +3149,19 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3149,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85">
@@ -3157,10 +3180,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3168,13 +3191,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3196,13 +3219,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3238,13 +3261,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3252,13 +3275,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3266,13 +3289,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3280,13 +3303,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3294,13 +3317,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3308,13 +3331,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3322,7 +3345,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3330,10 +3353,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3341,13 +3364,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3355,13 +3378,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3369,13 +3392,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3383,13 +3406,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3397,13 +3420,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3411,10 +3434,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3422,10 +3445,24 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="68">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59734A-2FA5-314E-B1C8-A7A8BE44A1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0902DF-1FEF-604F-A4F4-44051F788727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="255">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>豆蔵</t>
-  </si>
-  <si>
-    <t>JasmineSoft</t>
   </si>
   <si>
     <t>社名</t>
@@ -607,9 +604,6 @@
   </si>
   <si>
     <t>長谷川</t>
-  </si>
-  <si>
-    <t>大野さん</t>
   </si>
   <si>
     <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
@@ -925,6 +919,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>13:00 - 15:45</t>
   </si>
 </sst>
 </file>
@@ -1388,19 +1385,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1408,14 +1405,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1423,14 +1420,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1438,74 +1435,74 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1513,14 +1510,14 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1528,14 +1525,14 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1543,48 +1540,48 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1592,161 +1589,161 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1776,499 +1773,512 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20">
-      <c r="A3">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="323">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
       <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="272">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="340">
+      <c r="A7" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6">
+      <c r="A8" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="306">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.6">
       <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="340">
-      <c r="A10" s="5">
-        <v>101</v>
-      </c>
       <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="409.6">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="409.6">
-      <c r="A11" s="8">
-        <v>102</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="306">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="289">
-      <c r="A13" s="8">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" ht="289">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="323">
+    </row>
+    <row r="15" spans="1:9" ht="409.6">
       <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6">
       <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="289">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="409.6">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="388">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.6">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="409.6">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17">
+    </row>
+    <row r="22" spans="1:9" ht="340">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="306">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18">
+    <row r="25" spans="1:9" ht="340">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="306">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="409.6">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="340">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="409.6">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="388">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="409.6">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="409.6">
-      <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="289">
-      <c r="A26" s="5">
-        <v>21</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="272">
-      <c r="A27" s="5">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="340">
-      <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="409.6">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>177</v>
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
       </c>
       <c r="E29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5">
-        <v>25</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5">
         <v>104</v>
       </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="5"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+    <sortCondition ref="A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2278,7 +2288,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2291,13 +2301,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2305,10 +2315,10 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2316,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2327,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2338,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2349,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2360,32 +2370,32 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>101</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>102</v>
+        <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2393,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -2404,10 +2414,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2415,10 +2425,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2426,10 +2436,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2437,10 +2447,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2448,10 +2458,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2459,10 +2469,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2470,10 +2480,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2481,10 +2491,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2492,10 +2502,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2503,10 +2513,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2514,10 +2524,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2525,10 +2535,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2536,10 +2546,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2550,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2561,7 +2571,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2569,10 +2579,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2580,10 +2590,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2594,7 +2604,7 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2602,10 +2612,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2613,10 +2623,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2624,21 +2634,10 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2646,10 +2645,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2660,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDB3F679-B30A-C349-A85D-6F60E8B77B5B}">
           <x14:formula1>
             <xm:f>room!$B$2:$B$6</xm:f>
@@ -2672,7 +2671,13 @@
           <x14:formula1>
             <xm:f>time!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1 B34:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13D404E3-F4DC-844C-B718-F2CBC2DEA6DB}">
+          <x14:formula1>
+            <xm:f>time!$B$2:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2692,10 +2697,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2703,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2711,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2719,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2727,7 +2732,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2735,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2745,20 +2750,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FD01F-8423-004C-86EB-3AC5B3A759C4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2766,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2774,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2782,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2790,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2798,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2806,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2814,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2822,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2830,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2838,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2846,7 +2851,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2872,125 +2885,125 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="170">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3035,16 +3048,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="365" customHeight="1">
@@ -3052,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3066,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3080,13 +3093,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3094,13 +3107,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3108,13 +3121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3122,13 +3135,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3136,10 +3149,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3147,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3158,10 +3171,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3169,10 +3182,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85">
@@ -3180,10 +3193,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3191,13 +3204,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3205,13 +3218,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3219,13 +3232,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3233,13 +3246,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3247,13 +3260,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3261,13 +3274,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3275,13 +3288,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3289,13 +3302,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3303,13 +3316,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3317,13 +3330,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3331,13 +3344,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3345,7 +3358,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3353,10 +3366,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3364,13 +3377,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3378,13 +3391,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3392,13 +3405,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3406,13 +3419,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3420,13 +3433,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3434,10 +3447,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3445,10 +3458,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="68">
@@ -3456,13 +3469,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0902DF-1FEF-604F-A4F4-44051F788727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A750E-4DE9-C546-94F1-BD01622F07D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="256">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -686,9 +686,6 @@
   <si>
     <t>カサレアルは研修を通じて、効率的な最新技術導入の支援を行っております。開発部門を持っていることから、現場ですぐに使える技術を身につけていただくことをモットーに、様々なプログラマの研修コースをご用意しております。
 ブースではSpring研修をはじめとする研修サービスや、クラウドネイティブ開発の支援サービスについてご紹介いたします。実際にSpring研修で使用しているテキストもご覧いただけますので、ぜひお立ち寄り下さい！</t>
-  </si>
-  <si>
-    <t>Lunch Session (11:55 - 12:40)</t>
   </si>
   <si>
     <t>須江 信洋</t>
@@ -922,6 +919,12 @@
   </si>
   <si>
     <t>13:00 - 15:45</t>
+  </si>
+  <si>
+    <t>11:55 - 12:40</t>
+  </si>
+  <si>
+    <t>timeId</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="2" spans="1:9" ht="20">
       <c r="A2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1825,7 +1828,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1844,10 +1847,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>175</v>
@@ -1861,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>191</v>
@@ -1948,16 +1951,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
         <v>229</v>
-      </c>
-      <c r="C11" t="s">
-        <v>230</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -2007,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>175</v>
@@ -2024,10 +2027,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E15">
         <v>28</v>
@@ -2038,10 +2041,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -2072,10 +2075,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -2087,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E19">
         <v>26</v>
@@ -2101,10 +2104,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2115,10 +2118,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>175</v>
@@ -2132,10 +2135,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E22">
         <v>32</v>
@@ -2160,10 +2163,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -2240,10 +2243,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" t="s">
         <v>210</v>
-      </c>
-      <c r="C29" t="s">
-        <v>211</v>
       </c>
       <c r="E29">
         <v>29</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -2285,21 +2288,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2307,377 +2310,479 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>103</v>
+        <v>23.1</v>
       </c>
       <c r="B29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F3 C34:C35" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G3 D33:D34" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43A48BED-FF1E-EB4C-907F-ED05F779ED75}">
+          <x14:formula1>
+            <xm:f>time!$B$2:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33:C1048576 B1</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDB3F679-B30A-C349-A85D-6F60E8B77B5B}">
           <x14:formula1>
             <xm:f>room!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43A48BED-FF1E-EB4C-907F-ED05F779ED75}">
-          <x14:formula1>
-            <xm:f>time!$B$2:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1 B34:B1048576</xm:sqref>
+          <xm:sqref>D2:D32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13D404E3-F4DC-844C-B718-F2CBC2DEA6DB}">
           <x14:formula1>
-            <xm:f>time!$B$2:$B$13</xm:f>
+            <xm:f>time!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{373DD99C-C821-8741-9C2B-770021CAD3A1}">
+          <x14:formula1>
+            <xm:f>time!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2753,7 +2858,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2795,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2803,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2811,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2819,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2827,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2835,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2843,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2851,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2859,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2921,10 +3026,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="170">
@@ -2932,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -2951,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -2995,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3093,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>120</v>
@@ -3135,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3149,10 +3254,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
         <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3163,7 +3268,7 @@
         <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3171,10 +3276,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
         <v>227</v>
-      </c>
-      <c r="D10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3193,10 +3298,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3369,7 +3474,7 @@
         <v>172</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3391,13 +3496,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3405,13 +3510,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3419,13 +3524,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3433,13 +3538,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3447,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3458,10 +3563,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="68">
@@ -3469,13 +3574,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
         <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A750E-4DE9-C546-94F1-BD01622F07D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F579031-3F37-F445-8112-B1C834401900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -915,9 +915,6 @@
 開発に使うだけではもったいない、Actuatorの活用方法をお伝えできればと思います。</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>13:00 - 15:45</t>
   </si>
   <si>
@@ -925,6 +922,9 @@
   </si>
   <si>
     <t>timeId</t>
+  </si>
+  <si>
+    <t>Acroquest Technology株式会社所属。Spring Bootを使ったWebアプリ開発がメイン。最近はGoで開発することも多い。</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2310,7 +2310,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -2405,7 +2405,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2419,7 +2419,7 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2433,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3268,7 +3268,7 @@
         <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F579031-3F37-F445-8112-B1C834401900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC32A2-8DF9-964D-8FBF-53E9C3BF510A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="257">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>Acroquest Technology株式会社所属。Spring Bootを使ったWebアプリ開発がメイン。最近はGoで開発することも多い。</t>
+  </si>
+  <si>
+    <t>DX 時代を想定したアーキテクチャ、開発プロセスについて、豆蔵の現場のアーキテクトやコンサルタントがご相談に乗ります。ブースにて豆蔵グッズも配布しますので、是非お越し下さい</t>
   </si>
 </sst>
 </file>
@@ -2977,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3090,9 +3093,12 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68">
@@ -3139,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC32A2-8DF9-964D-8FBF-53E9C3BF510A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FFAF5-396E-004D-82E4-C3AD05A590CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -285,13 +285,7 @@
     <t>nissan</t>
   </si>
   <si>
-    <t>進藤</t>
-  </si>
-  <si>
     <t>いろふ</t>
-  </si>
-  <si>
-    <t>基調講演</t>
   </si>
   <si>
     <t>徹底解剖Spring MVCアーキテクチャー
@@ -601,9 +595,6 @@
   </si>
   <si>
     <t>大野</t>
-  </si>
-  <si>
-    <t>長谷川</t>
   </si>
   <si>
     <t>Springアプリケーションのテスト道具 使いどころ、使わないどころ</t>
@@ -928,6 +919,18 @@
   </si>
   <si>
     <t>DX 時代を想定したアーキテクチャ、開発プロセスについて、豆蔵の現場のアーキテクトやコンサルタントがご相談に乗ります。ブースにて豆蔵グッズも配布しますので、是非お越し下さい</t>
+  </si>
+  <si>
+    <t>長谷川 裕一</t>
+  </si>
+  <si>
+    <t>進藤 遼</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>寺田 佳央</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1406,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20">
@@ -1418,7 +1421,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20">
@@ -1433,7 +1436,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20">
@@ -1448,12 +1451,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -1463,12 +1466,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1478,12 +1481,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1493,12 +1496,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1508,7 +1511,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20">
@@ -1523,7 +1526,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20">
@@ -1538,7 +1541,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20">
@@ -1555,12 +1558,12 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -1572,12 +1575,12 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
@@ -1602,12 +1605,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1619,12 +1622,12 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1634,12 +1637,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1649,12 +1652,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1664,12 +1667,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1679,12 +1682,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -1693,12 +1696,12 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>78</v>
@@ -1707,12 +1710,12 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -1721,26 +1724,26 @@
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -1749,7 +1752,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1761,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1797,30 +1800,28 @@
         <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20">
       <c r="A2">
         <v>0.2</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="11"/>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="323">
@@ -1828,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1841,8 +1842,14 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>108</v>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
@@ -1850,13 +1857,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1867,14 +1874,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="340">
@@ -1882,20 +1889,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7" s="13"/>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.6">
@@ -1903,22 +1910,22 @@
         <v>4.2</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.6">
@@ -1926,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1940,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -1954,16 +1961,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1975,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12"/>
       <c r="E12">
@@ -1994,10 +2001,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2013,14 +2020,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14">
         <v>8</v>
       </c>
@@ -2030,10 +2035,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E15">
         <v>28</v>
@@ -2044,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -2059,10 +2064,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
@@ -2078,10 +2083,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -2093,10 +2098,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E19">
         <v>26</v>
@@ -2107,10 +2112,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2121,13 +2126,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -2138,10 +2143,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E22">
         <v>32</v>
@@ -2152,10 +2157,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23">
         <v>18</v>
@@ -2166,10 +2171,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -2180,10 +2185,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -2194,10 +2199,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>17</v>
@@ -2208,17 +2213,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2229,13 +2234,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2246,16 +2251,16 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2271,7 +2276,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2313,7 +2318,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -2330,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2344,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2358,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2372,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2408,13 +2413,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2422,13 +2427,13 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2436,13 +2441,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2450,13 +2455,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2464,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -2478,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2492,13 +2497,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2506,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2520,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2534,13 +2539,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2548,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -2562,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2576,13 +2581,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2590,13 +2595,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2604,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2618,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -2632,13 +2637,13 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2646,13 +2651,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2660,7 +2665,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2674,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2688,13 +2693,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2702,13 +2707,13 @@
         <v>23.1</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2716,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -2730,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -2744,13 +2749,13 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2816,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2824,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2832,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2903,7 +2908,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2911,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2919,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2927,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2935,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2943,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2951,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2959,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2967,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3007,10 +3012,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3018,10 +3023,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
@@ -3029,10 +3034,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="170">
@@ -3040,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="68">
@@ -3048,10 +3053,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
@@ -3059,7 +3064,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102">
@@ -3067,10 +3072,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119">
@@ -3078,10 +3083,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3089,7 +3094,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3098,7 +3103,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68">
@@ -3106,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3114,7 +3119,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3143,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A28" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3176,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3190,13 +3195,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68">
@@ -3204,13 +3209,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3218,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3235,7 +3240,7 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
@@ -3246,13 +3251,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3260,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3271,10 +3276,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3282,10 +3287,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3293,10 +3298,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85">
@@ -3304,10 +3309,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3315,13 +3320,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68">
@@ -3329,13 +3334,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3343,13 +3348,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="85">
@@ -3357,13 +3362,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -3371,13 +3376,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="153">
@@ -3385,13 +3390,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3399,13 +3404,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34">
@@ -3413,13 +3418,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51">
@@ -3427,13 +3432,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -3441,13 +3446,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34">
@@ -3455,13 +3460,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -3469,7 +3474,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="119">
@@ -3477,10 +3482,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51">
@@ -3488,13 +3493,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51">
@@ -3502,13 +3507,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="119">
@@ -3516,13 +3521,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="51">
@@ -3530,13 +3535,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="68">
@@ -3544,13 +3549,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="102">
@@ -3558,10 +3563,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="136">
@@ -3569,10 +3574,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="68">
@@ -3580,14 +3585,26 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FFAF5-396E-004D-82E4-C3AD05A590CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC89EF7-A0AF-824C-BA35-46F94BC00594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="259">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>寺田 佳央</t>
+  </si>
+  <si>
+    <t>基調講演</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1768,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1814,7 +1817,7 @@
         <v>0.2</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" t="s">
@@ -1843,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC89EF7-A0AF-824C-BA35-46F94BC00594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EEF78D-9073-5348-AED4-0AB316A5C3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
   </bookViews>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1812,38 +1812,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20">
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20">
+      <c r="A3">
         <v>0.2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="323">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -1855,62 +1849,55 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="272">
+    <row r="5" spans="1:9" ht="323">
       <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5">
         <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="272">
       <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="272">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="340">
-      <c r="A7" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="I7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.6">
       <c r="A8" s="8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>187</v>
@@ -1931,68 +1918,75 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.6">
+    <row r="9" spans="1:9" ht="340">
       <c r="A9" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.6">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1">
       <c r="A11" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" t="s">
-        <v>230</v>
+        <v>115</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>14</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="409.6">
+    <row r="12" spans="1:9" s="9" customFormat="1">
       <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2001,118 +1995,118 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
       <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="289">
+    <row r="14" spans="1:9" ht="409.6">
       <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="289">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14">
+      <c r="D15" s="13"/>
+      <c r="E15">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6">
       <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>27</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="289">
-      <c r="A17" s="8">
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="289">
+      <c r="A18" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="409.6">
-      <c r="A18" s="5">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="409.6">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>7</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="388">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19">
-        <v>26</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="409.6">
       <c r="A20" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>231</v>
@@ -2124,154 +2118,160 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="409.6">
+    <row r="21" spans="1:9" ht="388">
       <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="340">
-      <c r="A22" s="5">
+    <row r="23" spans="1:9" ht="340">
+      <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="306">
-      <c r="A23" s="6">
+    <row r="24" spans="1:9" ht="306">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="409.6">
-      <c r="A24" s="5">
+    <row r="25" spans="1:9" ht="409.6">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="340">
-      <c r="A25" s="5">
+    <row r="26" spans="1:9" ht="340">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="409.6">
-      <c r="A26" s="5">
+    <row r="27" spans="1:9" ht="409.6">
+      <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="306">
-      <c r="A27" s="8">
+    <row r="28" spans="1:9" ht="306">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="409.6">
-      <c r="A28" s="5">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="409.6">
+      <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5">
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>206</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>207</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2291,7 +2291,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
-    <sortCondition ref="A8"/>
+    <sortCondition ref="A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2450,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2762,6 +2762,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
+    <sortCondition ref="A1"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G3 D33:D34" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
@@ -2869,7 +2872,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvester/github-spring-fest-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasaki/VSCode/spring-fest-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EEF78D-9073-5348-AED4-0AB316A5C3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{7E8D823B-DD30-FC4C-BBDC-CE3DD1ABEC48}"/>
+    <workbookView xWindow="-1640" yWindow="460" windowWidth="38400" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -21,9 +20,15 @@
     <sheet name="booth" sheetId="4" r:id="rId6"/>
     <sheet name="speakers" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="261">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -927,20 +932,30 @@
     <t>進藤 遼</t>
   </si>
   <si>
-    <t>Coming Soon</t>
-  </si>
-  <si>
     <t>寺田 佳央</t>
   </si>
   <si>
     <t>基調講演</t>
+  </si>
+  <si>
+    <t>Spring Boot アプリの運用が楽になる？ Pivotal と Microsoft が共同開発した専用 PaaS「Azure Spring Cloud」のご紹介 !!</t>
+  </si>
+  <si>
+    <t>Cloud 上で Spring Boot のアプリケーションを公開する際、実行環境として IaaS、PaaS, Container, Kubernetes など様々な選択肢があります。
+マイクロソフトと Pivotal は 2019 年 10 月アメリカで開催された SpringOne のイベントで「Azure Spring Cloud」という、Spring Boot のアプリケーションに特化した PaaS の環境を発表しました（現時点でプレビュー版）。
+アプリケーションは Kubernetes 上で動作しますが、Kubernetes を一切意識することなく開発により集中できます。さらに、GitHub Action でワークフローを定義する事でかんたんに CI/CD 環境を構築することもできます。
+小規模から中規模レベルのマイクロサービスを構築する際、運用をとても楽にする Azure Spring Cloud をデモを交えながらご紹介します。また当日はスペシャル・ゲストもご紹介します。</t>
+  </si>
+  <si>
+    <t>2015年7月より日本マイクロソフト株式会社に在籍し、現在はマイクロソフト・コーポレーションに所属し担当は Java !! Azure における Java の利用促進・啓蒙活動を実施中。 2016 年 7 月、日本人で 2 人目となる Java Champion に就任。 2018年7月より、マイクロソフト・コーポレーションで日本人初のクラウド・アドボケイトとして活動を開始。2019年6月より、オイシックス・ラ・大地株式会社の技術顧問も務める。 JJUG 幹事の一員でもある。
+2013年 日経コンピュータ：我らプロフェッショナル 世界を元気にする 100 人に選ばれた</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1381,21 +1396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4727805F-7934-0844-9796-E3018C4EFE86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20">
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20">
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20">
+    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20">
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20">
+    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20">
+    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20">
+    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20">
+    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20">
+    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20">
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1596,7 +1611,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20">
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -1628,7 +1643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20">
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20">
+    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20">
+    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20">
+    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -1764,14 +1779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B1791-2BB9-1443-806D-06101E6A1429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" customWidth="1"/>
@@ -1783,7 +1798,7 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1812,7 +1827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1820,12 +1835,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20">
+    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
@@ -1835,21 +1850,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="E4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="323">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="272">
+    <row r="6" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="272">
+    <row r="7" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1895,7 +1910,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -1918,7 +1933,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="340">
+    <row r="9" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4.2</v>
       </c>
@@ -1939,7 +1954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.6">
+    <row r="10" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1972,7 +1987,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1">
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1993,7 +2008,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="409.6">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2012,7 +2027,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="409.6">
+    <row r="14" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="289">
+    <row r="15" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="409.6">
+    <row r="16" spans="1:9" ht="400" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.6">
+    <row r="17" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -2070,7 +2085,7 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="289">
+    <row r="18" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
@@ -2089,7 +2104,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="409.6">
+    <row r="19" spans="1:9" ht="400" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -2104,7 +2119,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="409.6">
+    <row r="20" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="388">
+    <row r="21" spans="1:9" ht="352" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="409.6">
+    <row r="22" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="340">
+    <row r="23" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -2163,7 +2178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="306">
+    <row r="24" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2177,7 +2192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409.6">
+    <row r="25" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -2191,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="340">
+    <row r="26" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="409.6">
+    <row r="27" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="306">
+    <row r="28" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>23</v>
       </c>
@@ -2240,7 +2255,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="409.6">
+    <row r="29" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -2256,8 +2271,11 @@
       <c r="E29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>100</v>
       </c>
@@ -2282,15 +2300,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+  <sortState ref="A2:I33">
     <sortCondition ref="A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,14 +2316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443DF-AF3C-BB45-BECD-BB9F336EB6D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
@@ -2313,7 +2331,7 @@
     <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2355,7 +2373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.0999999999999996</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.2</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23.1</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>25</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -2762,11 +2780,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
+  <sortState ref="A2:D32">
     <sortCondition ref="A1"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G3 D33:D34" xr:uid="{E2592533-AB6E-4047-9A94-92AF52A4FEA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G3 D33:D34">
       <formula1>"sola city Hall EAST, sola city Hall WEST, Room B, Room C"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2774,25 +2792,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43A48BED-FF1E-EB4C-907F-ED05F779ED75}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>time!$B$2:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>B33:C1048576 B1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDB3F679-B30A-C349-A85D-6F60E8B77B5B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>room!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13D404E3-F4DC-844C-B718-F2CBC2DEA6DB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>time!$B$2:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{373DD99C-C821-8741-9C2B-770021CAD3A1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>time!$A$2:$A$14</xm:f>
           </x14:formula1>
@@ -2805,16 +2823,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EAAFF5-7E75-FB4E-B5B3-99DE1F14586F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2822,7 +2840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2830,7 +2848,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2838,7 +2856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2868,16 +2886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FD01F-8423-004C-86EB-3AC5B3A759C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +2903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2917,7 +2935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2925,7 +2943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2988,21 +3006,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5683-37B4-5045-A1F9-BE9F8E8EF1D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="144" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -3013,7 +3031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85">
+    <row r="2" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3046,7 +3064,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="170">
+    <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="68">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102">
+    <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -3084,7 +3102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="119">
+    <row r="9" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -3095,7 +3113,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3104,7 +3122,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3134,13 +3152,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{787313B1-31BB-304D-9955-2ED843BA0536}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>companies!$C$2:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56444AF4-0749-5145-9C64-1D8B9E6DA0C0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>companies!$C$2:$C$23</xm:f>
           </x14:formula1>
@@ -3153,14 +3171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326B0DA3-40C6-EF4E-A34F-32068C675173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A3" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -3168,7 +3186,7 @@
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -3182,7 +3200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="365" customHeight="1">
+    <row r="2" spans="1:4" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3210,7 +3228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68">
+    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3252,7 +3270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3277,7 +3295,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85">
+    <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68">
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="85">
+    <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3377,7 +3395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="153">
+    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3405,7 +3423,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3419,7 +3437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3433,7 +3451,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51">
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3447,7 +3465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="68">
+    <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3475,7 +3493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3483,7 +3501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="119">
+    <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="51">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3508,7 +3526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="51">
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="119">
+    <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51">
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3550,7 +3568,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="68">
+    <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="102">
+    <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="136">
+    <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="68">
+    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3600,24 +3618,26 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72720F4A-93BA-D744-8683-1AF250A9AEB6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>companies!$A$2:$A$24</xm:f>
           </x14:formula1>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1640" yWindow="460" windowWidth="38400" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -297,17 +297,6 @@
 -DispatcherServletの中身を覗いてきました-</t>
   </si>
   <si>
-    <t>様々なWebアプリケーション開発で採用実績のあるSpring MVCですが、「アーキテクチャーがどの様に実現されているのか」と疑問に思ったことはありませんか？
-・どうしてアノテーションを付けるだけで、リクエストURLとコントローラーメソッドの対応付けができるのか？
-・コントローラーメソッドに指定した引数のインスタンスは、どこで作られるのか？
-・コントローラーメソッドの戻り値に指定できる型がたくさんあるが、なぜ動くのか？
-・コントローラーメソッドの戻り値にビューの論理名を指定しただけで、なぜビューに処理が移るのか？
-・なぜControllerとRestControllerを使い分けるだけで、レスポンスをHTMLとJSONで切り替えられるのか？
-等
-本セッションでは、そのような謎を「ソースコードリーディング」により解き明かしていきます。
-すでに業務でSpring MVCを使っているが、より詳しくアーキテクチャーを理解したいという方に、ぴったりのセッションとなっています。</t>
-  </si>
-  <si>
     <t>https://www.nissan.co.jp</t>
   </si>
   <si>
@@ -487,15 +476,6 @@
 Java、Groovy、特にSpringでの設計・実装を得意とし、近年はスクラムやテスト駆動開発などアジャイルプラクティスの導入・運用の支援やCI/CDなどの開発環境整備を得意とする。</t>
   </si>
   <si>
-    <t>ITサービスが企業のビジネスの中心となり久しい昨今、ビジネスを成功に導くため早期の意思決定はますます重要性が高まっています。それは受託開発でも変わりません
-* 開発に入る前の仮説検証プロセス
-* ミニマムなスコープ管理によるプロジェクト運営
-* Spring Boot と Spring Test
-* 仕様の見える化とテストファーストによる品質保証
-* 自動テストと向き合った新卒の半年間
-など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
-  </si>
-  <si>
     <t>Spring Boot爆速開発超絶技巧</t>
   </si>
   <si>
@@ -526,10 +506,6 @@
   </si>
   <si>
     <t>Spring Social でソーシャルログインを実装する</t>
-  </si>
-  <si>
-    <t>最近ソーシャルログインを提供するサービスは増えてきています。Spring Social は各SNS 専用のライブラリが用意されていて、これらを使ってソーシャルログインを実装することができます。
-このセッションでは、このソーシャルログイン機能を提供するWebアプリケーションを実装する方法を紹介します。</t>
   </si>
   <si>
     <t>19, 20</t>
@@ -749,15 +725,6 @@
     <t>2019入社、インテグレーション技術センタに所属。SpringでのWeb開発の習熟を経て、現在は某既存システムのSpringフレームワークへの移行支援を行っている。</t>
   </si>
   <si>
-    <t>システム間連携を担うSpring　Integrationのエンタープライズ開発での活用</t>
-  </si>
-  <si>
-    <t>異なるアーキテクチャを採用したシステムを連携させる手法として、Enterprise Integration Pattern(EIP)と呼ばれるベストプラクティスが存在します。
-Spring IntegrationはそのEIPをSpringで実現するフレームワークです。
-本セッションでは、Spring Integrationの基本的な使用方法やメッセージ送受信の仕組みを理解しつつ、
-実際にエンタープライズ開発に適用した際の工夫や考慮事項を紹介します。</t>
-  </si>
-  <si>
     <t>大規模基幹システムにSpring Cloudを使いたい！</t>
   </si>
   <si>
@@ -838,9 +805,6 @@
   </si>
   <si>
     <t>24, 30, 31</t>
-  </si>
-  <si>
-    <t>Spring 5.2の目玉機能であるRSocket対応とは</t>
   </si>
   <si>
     <t>槙 俊明</t>
@@ -949,6 +913,42 @@
   <si>
     <t>2015年7月より日本マイクロソフト株式会社に在籍し、現在はマイクロソフト・コーポレーションに所属し担当は Java !! Azure における Java の利用促進・啓蒙活動を実施中。 2016 年 7 月、日本人で 2 人目となる Java Champion に就任。 2018年7月より、マイクロソフト・コーポレーションで日本人初のクラウド・アドボケイトとして活動を開始。2019年6月より、オイシックス・ラ・大地株式会社の技術顧問も務める。 JJUG 幹事の一員でもある。
 2013年 日経コンピュータ：我らプロフェッショナル 世界を元気にする 100 人に選ばれた</t>
+  </si>
+  <si>
+    <t>RSocket徹底入門 ~Spring 5.2の目玉機能であるRSocket対応とは~</t>
+  </si>
+  <si>
+    <t>システム間連携を担うSpring Integrationのエンタープライズ開発での活用</t>
+  </si>
+  <si>
+    <t>異なるアーキテクチャを採用したシステムを連携させる手法として、Enterprise Integration Pattern(EIP)と呼ばれるベストプラクティスが存在します。
+Spring IntegrationはそのEIPをSpringで実現するフレームワークです。
+本セッションでは、Spring Integrationの基本的な使用方法やメッセージ送受信の仕組みを理解しつつ、
+実際にエンタープライズ開発に適用した際の工夫や考慮事項を紹介します。</t>
+  </si>
+  <si>
+    <t>様々なWebアプリケーション開発で採用実績のあるSpring MVCですが、「アーキテクチャーがどの様に実現されているのか」と疑問に思ったことはありませんか？
+・どうしてアノテーションを付けるだけで、リクエストURLとコントローラーメソッドの対応付けができるのか？
+・コントローラーメソッドに指定した引数のインスタンスは、どこで作られるのか？
+・コントローラーメソッドの戻り値に指定できる型がたくさんあるが、なぜ動くのか？
+・コントローラーメソッドの戻り値にビューの論理名を指定しただけで、なぜビューに処理が移るのか？
+・なぜControllerとRestControllerを使い分けるだけで、レスポンスをHTMLとJSONで切り替えられるのか？
+等
+本セッションでは、そのような謎を「ソースコードリーディング」により解き明かしていきます。
+すでに業務でSpring MVCを使っているが、より詳しくアーキテクチャーを理解したいという方に、ぴったりのセッションとなっています。</t>
+  </si>
+  <si>
+    <t>最近ソーシャルログインを提供するサービスは増えてきています。Spring Social は各SNS 専用のライブラリが用意されていて、これらを使ってソーシャルログインを実装することができます。
+このセッションでは、このソーシャルログイン機能を提供するWebアプリケーションを実装する方法を紹介します。</t>
+  </si>
+  <si>
+    <t>ITサービスが企業のビジネスの中心となり久しい昨今、ビジネスを成功に導くため早期の意思決定はますます重要性が高まっています。それは受託開発でも変わりません
+* 開発に入る前の仮説検証プロセス
+* ミニマムなスコープ管理によるプロジェクト運営
+* Spring Boot と Spring Test
+* 仕様の見える化とテストファーストによる品質保証
+* 自動テストと向き合った新卒の半年間
+など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1424,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1499,12 +1499,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1576,12 +1576,12 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -1593,12 +1593,12 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1640,12 +1640,12 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -1714,12 +1714,12 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>78</v>
@@ -1728,12 +1728,12 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -1742,26 +1742,26 @@
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1782,15 +1782,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="159" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
@@ -1818,13 +1818,13 @@
         <v>54</v>
       </c>
       <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1840,129 +1840,129 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E4">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="304" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="320" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
       <c r="F9" s="13"/>
       <c r="I9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11"/>
       <c r="E11">
@@ -1992,23 +1992,23 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
         <v>225</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>230</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2027,73 +2027,73 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="400" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="E16">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17">
         <v>27</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
@@ -2104,152 +2104,152 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="400" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="352" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="320" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="320" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="E27">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2260,19 +2260,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2280,16 +2280,16 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2339,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2434,13 +2434,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2448,13 +2448,13 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2462,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2476,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -2504,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2518,13 +2518,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2560,13 +2560,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2602,13 +2602,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,13 +2616,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -2658,13 +2658,13 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,13 +2672,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2700,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2714,13 +2714,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2728,13 +2728,13 @@
         <v>23.1</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -2756,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -2770,13 +2770,13 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2837,7 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2996,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3036,10 +3036,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3047,10 +3047,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3058,10 +3058,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3077,10 +3077,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3096,10 +3096,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3107,10 +3107,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3127,7 +3127,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3205,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3233,13 +3233,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,13 +3247,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3264,7 +3264,7 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
@@ -3275,13 +3275,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,10 +3300,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,10 +3311,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3333,10 +3333,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,13 +3344,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3358,13 +3358,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,13 +3372,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3386,13 +3386,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3400,13 +3400,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.2">
@@ -3414,13 +3414,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3428,13 +3428,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3442,13 +3442,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3456,13 +3456,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3470,13 +3470,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3484,13 +3484,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3506,10 +3506,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3517,13 +3517,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3531,13 +3531,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3545,13 +3545,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3559,13 +3559,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3573,13 +3573,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -3587,10 +3587,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3598,10 +3598,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3609,13 +3609,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
@@ -3623,13 +3623,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -674,9 +674,6 @@
     <t xml:space="preserve">テクニカルセールス本部
 Associate Principal Solution Architect
 </t>
-  </si>
-  <si>
-    <t>ストレスレスな Spring Boot を使った Web アプリケーション開発環境。Jib, Skaffold, Google Kubernetes Engine, Docker, Cloud Code などの紹介。</t>
   </si>
   <si>
     <t>Spring Developer のための コンテナ入門</t>
@@ -899,9 +896,6 @@
     <t>寺田 佳央</t>
   </si>
   <si>
-    <t>基調講演</t>
-  </si>
-  <si>
     <t>Spring Boot アプリの運用が楽になる？ Pivotal と Microsoft が共同開発した専用 PaaS「Azure Spring Cloud」のご紹介 !!</t>
   </si>
   <si>
@@ -949,6 +943,20 @@
 * 仕様の見える化とテストファーストによる品質保証
 * 自動テストと向き合った新卒の半年間
 など、SIerであるBTCにおけるハイアジリティを目指す取り組みの事例をご紹介いたします。</t>
+  </si>
+  <si>
+    <t>基調講演：From Spring Boot 2.2 to Spring Boot 2.3</t>
+  </si>
+  <si>
+    <t>ストレスレスな Spring Boot を使った Web アプリケーション開発環境の紹介</t>
+  </si>
+  <si>
+    <t>Google Kubernetes Engine（GKE）は、コンテナ化されたアプリケーションをデプロイするための、本番環境に対応したマネージド型環境です。最新のテクノロジーを利用して、デベロッパーの生産性、リソースの効率性、自動運用、オープンソースの柔軟性の向上を図り、製品化までの時間を短縮します。
+2015 年にリリースされた Kubernetes Engine は、12 年以上にわたって Gmail や YouTube などのサービスをコンテナ内で実行してきた Google の豊富な経験に基づいて構築されています。Kubernetes Engine を使用すると、独自の Kubernetes クラスタをインストールして管理、操作する必要がなくなり、Kubernetes の設定から稼働までを短時間で完了できます。
+こちらのブースでは、Google Kubernetes Engine（GKE）, Docker, Cloud Code, Jib, Skaffold などを紹介します。</t>
+  </si>
+  <si>
+    <t>4,6</t>
   </si>
 </sst>
 </file>
@@ -1782,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,7 +1848,10 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
@@ -1855,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4">
         <v>34</v>
@@ -1872,7 +1883,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1883,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>169</v>
@@ -1900,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>185</v>
@@ -1992,16 +2003,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
         <v>220</v>
-      </c>
-      <c r="C12" t="s">
-        <v>221</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -2016,7 +2027,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2046,10 +2057,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
@@ -2061,10 +2072,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E16">
         <v>28</v>
@@ -2075,10 +2086,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -2109,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -2124,10 +2135,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2152,10 +2163,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>169</v>
@@ -2169,10 +2180,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -2186,7 +2197,7 @@
         <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E24">
         <v>18</v>
@@ -2197,10 +2208,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2228,7 +2239,7 @@
         <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -2280,10 +2291,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
         <v>201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>202</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -2319,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2350,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -2434,7 +2445,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2448,7 +2459,7 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2462,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2932,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3010,7 +3021,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3058,10 +3069,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -3069,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3083,12 +3094,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3127,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3135,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3233,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>117</v>
@@ -3275,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,10 +3303,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
         <v>210</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,10 +3314,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,10 +3325,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3333,10 +3347,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3506,10 +3520,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3545,13 +3559,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3559,13 +3573,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3573,13 +3587,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -3587,10 +3601,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3598,10 +3612,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3609,13 +3623,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
         <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
@@ -3623,13 +3637,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="19960" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">受託開発におけるハイアジリティへのとりくみ
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">寺島 秀樹
 </t>
   </si>
@@ -958,12 +954,16 @@
   <si>
     <t>4,6</t>
   </si>
+  <si>
+    <t xml:space="preserve">受託開発でテストファーストしたらXXXを早期発見できてハイアジリティになったはなし
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1036,6 +1036,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1057,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1091,6 +1097,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,15 +1797,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
+    <col min="3" max="3" width="130.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" customWidth="1"/>
@@ -1832,7 +1839,7 @@
         <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1848,10 +1855,10 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
@@ -1861,15 +1868,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E4">
         <v>34</v>
@@ -1880,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1894,45 +1901,45 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>129</v>
@@ -1944,18 +1951,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -1965,15 +1972,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2003,23 +2010,23 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" t="s">
-        <v>220</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2057,10 +2064,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
@@ -2072,31 +2079,31 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E16">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E17">
         <v>27</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>112</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
@@ -2120,126 +2127,126 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -2250,14 +2257,14 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>103</v>
@@ -2274,10 +2281,10 @@
         <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -2291,10 +2298,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
         <v>200</v>
-      </c>
-      <c r="C30" t="s">
-        <v>201</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -2330,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2350,9 +2357,9 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2366,8 +2373,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
+      <c r="D2" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2380,7 +2387,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2394,8 +2401,8 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>111</v>
+      <c r="D4" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2408,8 +2415,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>110</v>
+      <c r="D5" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2422,7 +2429,7 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2436,7 +2443,7 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2445,12 +2452,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2459,12 +2466,12 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2473,12 +2480,12 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2492,7 +2499,7 @@
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2506,7 +2513,7 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2520,7 +2527,7 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2534,7 +2541,7 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2548,7 +2555,7 @@
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2562,7 +2569,7 @@
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2576,7 +2583,7 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2590,7 +2597,7 @@
       <c r="C18">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2604,7 +2611,7 @@
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2618,8 +2625,8 @@
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
+      <c r="D20" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,8 +2639,8 @@
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>110</v>
+      <c r="D21" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2646,7 +2653,7 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2660,7 +2667,7 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2674,7 +2681,7 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2688,7 +2695,7 @@
       <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2702,7 +2709,7 @@
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2716,7 +2723,7 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2730,8 +2737,8 @@
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
-        <v>111</v>
+      <c r="D28" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2744,8 +2751,8 @@
       <c r="C29">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
-        <v>110</v>
+      <c r="D29" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,7 +2765,7 @@
       <c r="C30">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2772,7 +2779,7 @@
       <c r="C31">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2786,8 +2793,8 @@
       <c r="C32">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
-        <v>110</v>
+      <c r="D32" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2951,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3058,10 +3065,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3069,10 +3076,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -3080,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3088,10 +3095,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3099,10 +3106,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3121,10 +3128,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3141,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3149,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3239,7 +3246,7 @@
         <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3247,13 +3254,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3303,10 +3310,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
         <v>209</v>
-      </c>
-      <c r="D8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3314,10 +3321,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,10 +3332,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,7 +3346,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3347,10 +3354,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3358,13 +3365,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3386,13 +3393,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3428,13 +3435,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,13 +3449,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3456,13 +3463,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3470,13 +3477,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3484,13 +3491,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3498,13 +3505,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3512,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3520,10 +3527,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3531,13 +3538,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3545,13 +3552,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3559,13 +3566,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3573,13 +3580,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3587,13 +3594,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -3601,10 +3608,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3612,10 +3619,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3623,13 +3630,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
         <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
@@ -3637,13 +3644,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="19960" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30020" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="291">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -291,10 +291,6 @@
   </si>
   <si>
     <t>いろふ</t>
-  </si>
-  <si>
-    <t>徹底解剖Spring MVCアーキテクチャー
--DispatcherServletの中身を覗いてきました-</t>
   </si>
   <si>
     <t>https://www.nissan.co.jp</t>
@@ -958,12 +954,99 @@
     <t xml:space="preserve">受託開発でテストファーストしたらXXXを早期発見できてハイアジリティになったはなし
 </t>
   </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/8d3dadfc-6c17-49c2-98cd-d2d6f568b045</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/492ada38-3ed7-45fc-ba66-cbdcfea67f35</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/c71c8db4-d682-457b-9dac-9d6840b093ba</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/d5d30121-8329-4d6f-9995-eadef827a369</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/0083de98-d237-4987-801d-a7e4e3afc024</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/064819af-5ac0-44dd-a064-45961ea6a83f</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/e74c50e1-47bc-48d3-a456-58b65f247f81</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/e44baa15-feac-456c-a1b6-96fe67a13109</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/0a719330-93af-4224-b768-e324eed77404</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/92a3a65d-391a-452d-8be7-3f0092ed1a29</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/ad866f94-f227-4d39-bc58-6168c39f83be</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/301020df-1b49-4637-a4b3-de8200b8dee9</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/8b030bdc-06f4-49ae-bb7f-3802914b42e0</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/b54cf67d-a6d2-41bd-a2af-676145ef5703</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/e594e78e-8e76-4487-a4f7-d88c39088c76</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/3f6bbce9-9c44-4aba-85ff-58ca710b49cd</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/3b4c3548-4dd3-4f06-89a5-fc387b5bad39</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/753e3d26-3a49-4986-8ec8-7d49f62e23b7</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/60831aaa-12ea-4033-9a91-f9f7fec8e5b2</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/f49e8992-2ea3-4b06-baab-14cc3207a403</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/afbc9a2f-cbfb-4a4b-ac4e-835df271f466</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/561099af-efcd-4619-b2d1-5d0906a77921</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/3daffcd0-e3c8-4337-8d67-c433e87ac56b</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/15ed520b-7090-47e0-b3e4-aac904ce9fc7</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/643b696c-0171-4866-9ae3-9455c7a0ce25</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/8968dbbb-154b-4b13-86f3-1989042193dc</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/afcbb334-ed50-4dfa-96c9-a65d8e120752</t>
+  </si>
+  <si>
+    <t>https://jsug-enquete.cfapps.io/sessions/8c189dc6-2948-453a-9f14-23947fa59dad</t>
+  </si>
+  <si>
+    <t>徹底解剖Spring MVCアーキテクチャー -DispatcherServletの中身を覗いてきました-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1042,6 +1125,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1060,10 +1151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1098,8 +1190,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1439,7 +1533,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1454,7 +1548,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1469,7 +1563,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1484,12 +1578,12 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -1499,12 +1593,12 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1514,12 +1608,12 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1529,12 +1623,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1544,7 +1638,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1559,7 +1653,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1574,7 +1668,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1591,12 +1685,12 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -1608,12 +1702,12 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -1623,7 +1717,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1638,12 +1732,12 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1655,12 +1749,12 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1670,12 +1764,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1685,12 +1779,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1700,12 +1794,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1715,12 +1809,12 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -1729,12 +1823,12 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>78</v>
@@ -1743,12 +1837,12 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -1757,26 +1851,26 @@
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -1785,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1797,19 +1891,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="130.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="105.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="130.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="105.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,13 +1927,13 @@
         <v>54</v>
       </c>
       <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1855,135 +1949,155 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="H4" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H5" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H6" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="I8" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
       <c r="F9" s="13"/>
+      <c r="H9" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="I9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E10">
         <v>1</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1991,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11"/>
       <c r="E11">
@@ -2002,7 +2116,9 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
+      <c r="H11" s="18" t="s">
+        <v>271</v>
+      </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2010,31 +2126,33 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
         <v>218</v>
       </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
+      <c r="H12" s="18" t="s">
+        <v>269</v>
+      </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="234" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2042,21 +2160,26 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
+      <c r="H13" s="18" t="s">
+        <v>270</v>
+      </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E14">
         <v>13</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2064,54 +2187,63 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="H15" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="H16" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E17">
         <v>27</v>
       </c>
       <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H17" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
@@ -2119,123 +2251,149 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="18" t="s">
+        <v>277</v>
+      </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="H19" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="H20" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E21">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="H21" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H22" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H23" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H24" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H25" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26">
         <v>10</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -2243,13 +2401,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27">
         <v>17</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -2257,20 +2418,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="18" t="s">
+        <v>287</v>
+      </c>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="409" x14ac:dyDescent="0.2">
@@ -2278,19 +2441,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2298,16 +2464,19 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
         <v>199</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2315,7 +2484,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2329,6 +2498,36 @@
   <sortState ref="A2:I33">
     <sortCondition ref="A7"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H10" r:id="rId11"/>
+    <hyperlink ref="H14" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H17" r:id="rId15"/>
+    <hyperlink ref="H18" r:id="rId16"/>
+    <hyperlink ref="H19" r:id="rId17"/>
+    <hyperlink ref="H20" r:id="rId18"/>
+    <hyperlink ref="H21" r:id="rId19"/>
+    <hyperlink ref="H22" r:id="rId20"/>
+    <hyperlink ref="H23" r:id="rId21"/>
+    <hyperlink ref="H24" r:id="rId22"/>
+    <hyperlink ref="H25" r:id="rId23"/>
+    <hyperlink ref="H26" r:id="rId24"/>
+    <hyperlink ref="H27" r:id="rId25"/>
+    <hyperlink ref="H28" r:id="rId26"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2357,7 +2556,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>70</v>
@@ -2374,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,7 +2651,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2466,7 +2665,7 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2480,13 +2679,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2693,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -2522,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2536,13 +2735,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2564,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2578,13 +2777,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,7 +2791,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -2606,7 +2805,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2620,13 +2819,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2833,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,7 +2847,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2662,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -2676,13 +2875,13 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2889,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2718,7 +2917,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2732,13 +2931,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2945,13 @@
         <v>23.1</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,7 +2959,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -2774,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -2788,13 +2987,13 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +3054,7 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2863,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2871,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2879,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2974,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2990,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +3197,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3054,10 +3253,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3065,10 +3264,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3076,10 +3275,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -3087,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3095,10 +3294,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3106,10 +3305,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3117,10 +3316,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3128,10 +3327,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,7 +3338,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3148,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3156,7 +3355,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,7 +3363,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3226,13 +3425,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3240,13 +3439,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3254,13 +3453,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3268,13 +3467,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3285,7 +3484,7 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>73</v>
@@ -3296,13 +3495,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3310,10 +3509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
         <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3321,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3332,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
         <v>216</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,7 +3545,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3354,10 +3553,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3365,13 +3564,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3379,13 +3578,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,13 +3592,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3407,13 +3606,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3421,13 +3620,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.2">
@@ -3435,13 +3634,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3449,13 +3648,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3463,13 +3662,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3477,13 +3676,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3491,13 +3690,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3505,13 +3704,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3519,7 +3718,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3527,10 +3726,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3538,13 +3737,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3552,13 +3751,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3566,13 +3765,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3580,13 +3779,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3594,13 +3793,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -3608,10 +3807,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3619,10 +3818,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3630,13 +3829,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
@@ -3644,13 +3843,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="30020" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="13620" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="317">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>アンケート</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>由利 誠</t>
@@ -1040,6 +1037,87 @@
   </si>
   <si>
     <t>徹底解剖Spring MVCアーキテクチャー -DispatcherServletの中身を覗いてきました-</t>
+  </si>
+  <si>
+    <t>1HEW</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2HE</t>
+  </si>
+  <si>
+    <t>2HW</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>4HW</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>5HE</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>6HE</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>7HW</t>
+  </si>
+  <si>
+    <t>7WE</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>8HW</t>
+  </si>
+  <si>
+    <t>9HW</t>
+  </si>
+  <si>
+    <t>8HE</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9C</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1611,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1548,7 +1626,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1563,7 +1641,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1578,7 +1656,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1593,7 +1671,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1608,7 +1686,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1623,7 +1701,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1638,7 +1716,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1653,7 +1731,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1668,7 +1746,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1685,7 +1763,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1702,7 +1780,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1717,7 +1795,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1732,7 +1810,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1749,7 +1827,7 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1764,7 +1842,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1779,7 +1857,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1794,7 +1872,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.35">
@@ -1809,7 +1887,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1823,12 +1901,12 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>78</v>
@@ -1837,7 +1915,7 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1851,7 +1929,7 @@
         <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1865,7 +1943,7 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1879,7 +1957,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1891,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1903,7 +1981,7 @@
     <col min="4" max="4" width="23.5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="105.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1933,7 +2011,7 @@
         <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1949,17 +2027,17 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -1967,16 +2045,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E4">
         <v>34</v>
       </c>
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
       <c r="H4" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -1984,16 +2065,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
       <c r="H5" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2001,19 +2085,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
+      <c r="G6" t="s">
+        <v>291</v>
+      </c>
       <c r="H6" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2021,17 +2108,20 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -2039,24 +2129,26 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="H8" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -2064,23 +2156,26 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
       <c r="F9" s="13"/>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
       <c r="H9" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -2088,16 +2183,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="G10" t="s">
+        <v>297</v>
+      </c>
       <c r="H10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2115,9 +2213,11 @@
         <v>14</v>
       </c>
       <c r="F11"/>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>297</v>
+      </c>
       <c r="H11" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I11"/>
     </row>
@@ -2126,21 +2226,23 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
         <v>217</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>298</v>
+      </c>
       <c r="H12" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12"/>
     </row>
@@ -2149,19 +2251,21 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13"/>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13"/>
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>299</v>
+      </c>
       <c r="H13" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I13"/>
     </row>
@@ -2178,8 +2282,11 @@
       <c r="E14">
         <v>13</v>
       </c>
+      <c r="G14" t="s">
+        <v>300</v>
+      </c>
       <c r="H14" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2187,17 +2294,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
         <v>8</v>
       </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
       <c r="H15" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -2205,16 +2315,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="E16">
         <v>28</v>
       </c>
+      <c r="G16" t="s">
+        <v>302</v>
+      </c>
       <c r="H16" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
@@ -2222,17 +2335,20 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E17">
         <v>27</v>
       </c>
       <c r="F17" s="13"/>
+      <c r="G17" t="s">
+        <v>303</v>
+      </c>
       <c r="H17" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2243,16 +2359,18 @@
         <v>111</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="H18" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -2261,17 +2379,20 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="2"/>
+      <c r="G19" t="s">
+        <v>305</v>
+      </c>
       <c r="H19" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -2279,16 +2400,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
+      <c r="G20" t="s">
+        <v>306</v>
+      </c>
       <c r="H20" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -2296,16 +2420,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E21">
         <v>26</v>
       </c>
+      <c r="G21" t="s">
+        <v>307</v>
+      </c>
       <c r="H21" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -2313,19 +2440,22 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
+      <c r="G22" t="s">
+        <v>308</v>
+      </c>
       <c r="H22" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2333,16 +2463,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
+      <c r="G23" t="s">
+        <v>309</v>
+      </c>
       <c r="H23" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -2350,16 +2483,19 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
+      <c r="G24" t="s">
+        <v>314</v>
+      </c>
       <c r="H24" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -2367,16 +2503,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
+      <c r="G25" t="s">
+        <v>312</v>
+      </c>
       <c r="H25" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -2384,16 +2523,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
+      <c r="G26" t="s">
+        <v>310</v>
+      </c>
       <c r="H26" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -2401,16 +2543,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27">
         <v>17</v>
       </c>
+      <c r="G27" t="s">
+        <v>311</v>
+      </c>
       <c r="H27" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -2418,21 +2563,23 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="H28" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -2444,10 +2591,10 @@
         <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -2455,8 +2602,11 @@
       <c r="F29" t="s">
         <v>117</v>
       </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
       <c r="H29" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2464,10 +2614,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
         <v>198</v>
-      </c>
-      <c r="C30" t="s">
-        <v>199</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -2475,8 +2625,11 @@
       <c r="F30" t="s">
         <v>99</v>
       </c>
+      <c r="G30" t="s">
+        <v>316</v>
+      </c>
       <c r="H30" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2556,7 +2709,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>70</v>
@@ -2651,7 +2804,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2665,7 +2818,7 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2679,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3149,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3157,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3264,10 +3417,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3275,10 +3428,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -3286,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3294,10 +3447,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3305,10 +3458,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3316,10 +3469,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3327,10 +3480,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3338,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3347,7 +3500,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3355,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3425,13 +3578,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3439,13 +3592,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3453,13 +3606,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,13 +3620,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,13 +3648,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3509,10 +3662,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
         <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3520,10 +3673,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3531,10 +3684,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
         <v>215</v>
-      </c>
-      <c r="D10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3545,7 +3698,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3553,10 +3706,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,13 +3717,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3592,13 +3745,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -3606,13 +3759,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3620,13 +3773,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.2">
@@ -3634,13 +3787,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3648,13 +3801,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3662,13 +3815,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3676,13 +3829,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3690,13 +3843,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3704,13 +3857,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3718,7 +3871,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3726,10 +3879,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3737,13 +3890,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3751,13 +3904,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3765,13 +3918,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3779,13 +3932,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3793,13 +3946,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
@@ -3807,10 +3960,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -3818,10 +3971,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -3829,13 +3982,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="176" x14ac:dyDescent="0.2">
@@ -3843,13 +3996,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="318">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>9C</t>
+  </si>
+  <si>
+    <t>4HE</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2214,7 +2217,7 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>270</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="13620" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="9360" yWindow="460" windowWidth="22420" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="320">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -853,14 +853,6 @@
 Jtestは有償ツールのため、導入して元が取れるのか、仮想プロジェクトを例にシミュレーションしてみます。 </t>
   </si>
   <si>
-    <t>実践 Spring Boot Actuator + Micrometer</t>
-  </si>
-  <si>
-    <t>Spring Boot ActuatorはSpring Bootアプリケーションの運用のためのエンドポイントを追加するサブモジュールです。
-本セッションでは、Spring Boot Actuatorの概要、Micrometerとの連携をお話しします。
-開発に使うだけではもったいない、Actuatorの活用方法をお伝えできればと思います。</t>
-  </si>
-  <si>
     <t>13:00 - 15:45</t>
   </si>
   <si>
@@ -1121,6 +1113,19 @@
   </si>
   <si>
     <t>4HE</t>
+  </si>
+  <si>
+    <t>Tommy Ludwig</t>
+  </si>
+  <si>
+    <t>@micrometerio project lead. 
+@zipkinproject committer.</t>
+  </si>
+  <si>
+    <t>無茶振りMicrometerの話（✕実践 Spring Boot Actuator + Micrometer）</t>
+  </si>
+  <si>
+    <t>「実践 Spring Boot Actuator + Micrometer」は諸事情により、「無茶振りMicrometerの話」に変更になりました。</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1272,6 +1277,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1972,18 +1980,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="130.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="105.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="104.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
@@ -2030,40 +2038,40 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2077,13 +2085,13 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2100,13 +2108,13 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2121,13 +2129,13 @@
         <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -2145,16 +2153,16 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4.2</v>
       </c>
@@ -2172,16 +2180,16 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2195,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2217,10 +2225,10 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I11"/>
     </row>
@@ -2242,22 +2250,22 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13"/>
       <c r="E13">
@@ -2265,14 +2273,14 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -2286,54 +2294,54 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E16">
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -2348,13 +2356,13 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
@@ -2370,14 +2378,14 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -2392,18 +2400,18 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>224</v>
@@ -2412,13 +2420,13 @@
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -2432,13 +2440,13 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -2455,13 +2463,13 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -2475,13 +2483,13 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2489,19 +2497,19 @@
         <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -2515,13 +2523,13 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -2535,30 +2543,30 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -2579,10 +2587,10 @@
         <v>102</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -2606,10 +2614,10 @@
         <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2629,10 +2637,10 @@
         <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2712,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>70</v>
@@ -2807,7 +2815,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2821,7 +2829,7 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2835,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3305,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3313,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3461,10 +3469,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -3503,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -3548,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A32" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3676,10 +3684,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,7 +3890,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>218</v>
@@ -3999,13 +4007,27 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="333">
   <si>
     <t>NTT DATA</t>
   </si>
@@ -1127,12 +1127,51 @@
   <si>
     <t>「実践 Spring Boot Actuator + Micrometer」は諸事情により、「無茶振りMicrometerの話」に変更になりました。</t>
   </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 56.1972%;"&gt;&lt;iframe src="https://speakerdeck.com/player/0a9281ec861f43258049f0b044e33648" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="//www.slideshare.net/slideshow/embed_code/key/IfXeA8JFxW5Hi3" width="340" height="290" frameborder="0" marginwidth="0" marginheight="0" scrolling="no" style="border:1px solid #CCC; border-width:1px; margin-bottom:5px; max-width: 100%;" allowfullscreen&gt; &lt;/iframe&gt; &lt;div style="margin-bottom:5px"&gt; &lt;strong&gt; &lt;a href="//www.slideshare.net/ChihiroIto1/quarkus-spring" title="Quarkus による超音速な Spring アプリケーション開発" target="_blank"&gt;Quarkus による超音速な Spring アプリケーション開発&lt;/a&gt; &lt;/strong&gt; from &lt;strong&gt;&lt;a href="//www.slideshare.net/ChihiroIto1" target="_blank"&gt;Chihiro Ito&lt;/a&gt;&lt;/strong&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="//www.slideshare.net/slideshow/embed_code/key/cYkaIDjFjHD8s0" width="425" height="355" frameborder="0" marginwidth="0" marginheight="0" scrolling="no" style="border:1px solid #CCC; border-width:1px; margin-bottom:5px; max-width: 100%;" allowfullscreen&gt; &lt;/iframe&gt; &lt;div style="margin-bottom:5px"&gt; &lt;strong&gt; &lt;a href="//www.slideshare.net/KouheiToki/1spring" title="入社1年目のプログラミング初心者がSpringを学ぶための手引き" target="_blank"&gt;入社1年目のプログラミング初心者がSpringを学ぶための手引き&lt;/a&gt; &lt;/strong&gt; from &lt;strong&gt;&lt;a href="https://www.slideshare.net/KouheiToki" target="_blank"&gt;Kouhei Toki&lt;/a&gt;&lt;/strong&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 56.25%; padding-top: 30px;"&gt;&lt;iframe src="https://docs.google.com/presentation/d/1ygSM85-RQ3NZjCg6RaZ52mGzxbWiItVwzlCpr1vaWBw/preview?usp=embed_googleplus" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="//www.slideshare.net/slideshow/embed_code/key/c4UHUarrYAnLyF" width="425" height="355" frameborder="0" marginwidth="0" marginheight="0" scrolling="no" style="border:1px solid #CCC; border-width:1px; margin-bottom:5px; max-width: 100%;" allowfullscreen&gt; &lt;/iframe&gt; &lt;div style="margin-bottom:5px"&gt; &lt;strong&gt; &lt;a href="//www.slideshare.net/ssuser070fa9/spring-fest-2019spring-mvc" title="【Spring fest 2019】徹底解剖Spring MVCアーキテクチャー" target="_blank"&gt;【Spring fest 2019】徹底解剖Spring MVCアーキテクチャー&lt;/a&gt; &lt;/strong&gt; from &lt;strong&gt;&lt;a href="//www.slideshare.net/ssuser070fa9" target="_blank"&gt;ssuser070fa9&lt;/a&gt;&lt;/strong&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="//www.slideshare.net/slideshow/embed_code/key/G1PCs0TBYmysua" width="425" height="355" frameborder="0" marginwidth="0" marginheight="0" scrolling="no" style="border:1px solid #CCC; border-width:1px; margin-bottom:5px; max-width: 100%;" allowfullscreen&gt; &lt;/iframe&gt; &lt;div style="margin-bottom:5px"&gt; &lt;strong&gt; &lt;a href="//www.slideshare.net/DaisukeMorishita1/spring-boot-and-spring-cloud-inside-nissanconnect-at-spring-fest-19" title="Spring Boot and Spring Cloud Inside NissanConnect at SPRING FEST &amp;#x27;19" target="_blank"&gt;Spring Boot and Spring Cloud Inside NissanConnect at SPRING FEST &amp;#x27;19&lt;/a&gt; &lt;/strong&gt; from &lt;strong&gt;&lt;a href="//www.slideshare.net/DaisukeMorishita1" target="_blank"&gt;Daisuke Morishita&lt;/a&gt;&lt;/strong&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 56.1972%;"&gt;&lt;iframe src="https://speakerdeck.com/player/a485a7df24414c5faf0f263c5a01b2d0" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 56.1972%;"&gt;&lt;iframe src="https://speakerdeck.com/player/e7f0596a6e734dfa97067713b8c2637b" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 74.9296%;"&gt;&lt;iframe src="https://speakerdeck.com/player/f1169326ccf64765b54652d981ed3b3b" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="left: 0; width: 100%; height: 0; position: relative; padding-bottom: 56.25%; padding-top: 30px;"&gt;&lt;iframe src="https://docs.google.com/presentation/d/1ChFvgyxoqlA2eX4bwse1VC9vcFpiFYtFSVV1YqbBzt4/preview?usp=embed_googleplus" style="border: 0; top: 0; left: 0; width: 100%; height: 100%; position: absolute;" allowfullscreen scrolling="no" allow="encrypted-media"&gt;&lt;/iframe&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="//www.slideshare.net/slideshow/embed_code/key/2bja41F2oysi1v" width="425" height="355" frameborder="0" marginwidth="0" marginheight="0" scrolling="no" style="border:1px solid #CCC; border-width:1px; margin-bottom:5px; max-width: 100%;" allowfullscreen&gt; &lt;/iframe&gt; &lt;div style="margin-bottom:5px"&gt; &lt;strong&gt; &lt;a href="//www.slideshare.net/terahide/xxx-207061552" title="受託開発でテストファーストしたらXXXを早期発見できてハイアジリティになったはなし" target="_blank"&gt;受託開発でテストファーストしたらXXXを早期発見できてハイアジリティになったはなし&lt;/a&gt; &lt;/strong&gt; from &lt;strong&gt;&lt;a href="//www.slideshare.net/terahide" target="_blank"&gt;terahide&lt;/a&gt;&lt;/strong&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://yoshinorinie.hatenablog.com/entry/2019/12/20/082035" target="_blank" style="font-weight: bold"&gt;資料リンク&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://drive.google.com/file/d/1JzW121lpD5HPcdC5CHO8hl2ZxQZGujyz/view" target="_blank" style="font-weight: bold"&gt;資料リンク&lt;/a&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1219,6 +1258,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Meiryo"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1241,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1280,6 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1980,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2084,6 +2130,9 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="G5" t="s">
         <v>291</v>
       </c>
@@ -2107,6 +2156,9 @@
       <c r="E6">
         <v>9</v>
       </c>
+      <c r="F6" t="s">
+        <v>322</v>
+      </c>
       <c r="G6" t="s">
         <v>289</v>
       </c>
@@ -2178,7 +2230,9 @@
       <c r="E9">
         <v>25</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="G9" t="s">
         <v>294</v>
       </c>
@@ -2223,7 +2277,9 @@
       <c r="E11">
         <v>14</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
       <c r="G11" t="s">
         <v>315</v>
       </c>
@@ -2271,7 +2327,9 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="s">
+        <v>324</v>
+      </c>
       <c r="G13" t="s">
         <v>297</v>
       </c>
@@ -2293,6 +2351,9 @@
       <c r="E14">
         <v>13</v>
       </c>
+      <c r="F14" t="s">
+        <v>325</v>
+      </c>
       <c r="G14" t="s">
         <v>298</v>
       </c>
@@ -2314,6 +2375,9 @@
       <c r="E15">
         <v>35</v>
       </c>
+      <c r="F15" t="s">
+        <v>329</v>
+      </c>
       <c r="G15" t="s">
         <v>299</v>
       </c>
@@ -2406,7 +2470,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2418,6 +2482,9 @@
       </c>
       <c r="E20">
         <v>6</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="G20" t="s">
         <v>304</v>
@@ -2439,6 +2506,9 @@
       <c r="E21">
         <v>26</v>
       </c>
+      <c r="F21" t="s">
+        <v>321</v>
+      </c>
       <c r="G21" t="s">
         <v>305</v>
       </c>
@@ -2462,6 +2532,9 @@
       <c r="E22">
         <v>11</v>
       </c>
+      <c r="F22" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="G22" t="s">
         <v>306</v>
       </c>
@@ -2542,6 +2615,9 @@
       <c r="E26">
         <v>10</v>
       </c>
+      <c r="F26" t="s">
+        <v>328</v>
+      </c>
       <c r="G26" t="s">
         <v>308</v>
       </c>
@@ -2562,6 +2638,9 @@
       <c r="E27">
         <v>17</v>
       </c>
+      <c r="F27" t="s">
+        <v>330</v>
+      </c>
       <c r="G27" t="s">
         <v>309</v>
       </c>
@@ -2584,7 +2663,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>311</v>
@@ -2691,6 +2770,9 @@
     <hyperlink ref="H28" r:id="rId26"/>
     <hyperlink ref="H30" r:id="rId27"/>
     <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="F5" r:id="rId29"/>
+    <hyperlink ref="F9" r:id="rId30" display="http://yoshinorinie.hatenablog.com/entry/2019/12/20/082035"/>
+    <hyperlink ref="F22" r:id="rId31" display="https://drive.google.com/file/d/1JzW121lpD5HPcdC5CHO8hl2ZxQZGujyz/view"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
